--- a/communicate_with_basis_station_in_matlab/calibrations/outdoor/OUTDOOR_MEASUREMENT_07_27_2017/outdoor_calibration_results.xlsx
+++ b/communicate_with_basis_station_in_matlab/calibrations/outdoor/OUTDOOR_MEASUREMENT_07_27_2017/outdoor_calibration_results.xlsx
@@ -1,27 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Yitong\GitHub\thesis_indoorLocalization\communicate_with_basis_station_in_matlab\calibrations\outdoor\OUTDOOR_MEASUREMENT_07_27_2017\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27765" windowHeight="13650" activeTab="2"/>
+    <workbookView windowWidth="14295" windowHeight="12630" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
     <sheet name="outdoor" sheetId="2" r:id="rId2"/>
     <sheet name="outdoor_1_by_1" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38">
   <si>
     <t>x</t>
   </si>
@@ -298,16 +293,16 @@
     <t>sum</t>
   </si>
   <si>
+    <t>0x5A5A</t>
+  </si>
+  <si>
+    <t>MORE DATA 2</t>
+  </si>
+  <si>
     <t>SUM</t>
   </si>
   <si>
     <t>TWO MODAL</t>
-  </si>
-  <si>
-    <t>0x5A5A</t>
-  </si>
-  <si>
-    <t>MORE DATA 2</t>
   </si>
   <si>
     <t>LESS DATA 1</t>
@@ -316,12 +311,18 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -331,7 +332,7 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -340,6 +341,150 @@
       <color rgb="FF005CC5"/>
       <name val="Segoe UI"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -354,7 +499,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -363,7 +508,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79995117038483843"/>
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799951170384838"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -375,7 +526,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79995117038483843"/>
+        <fgColor theme="7" tint="0.799951170384838"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -393,12 +544,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.499984740745262"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -436,44 +767,330 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -522,7 +1139,7 @@
     </a:clrScheme>
     <a:fontScheme name="Larissa">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -557,7 +1174,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -760,32 +1377,32 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="B1:Z16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="13.5"/>
   <cols>
-    <col min="5" max="5" width="13.85546875" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125"/>
-    <col min="11" max="12" width="12.5703125"/>
-    <col min="14" max="16" width="12.5703125"/>
-    <col min="17" max="17" width="11.42578125"/>
-    <col min="20" max="20" width="12.5703125"/>
-    <col min="23" max="23" width="12.5703125"/>
-    <col min="26" max="26" width="9.140625" style="10"/>
+    <col min="5" max="5" width="13.8583333333333" customWidth="1"/>
+    <col min="6" max="6" width="12.5666666666667"/>
+    <col min="11" max="12" width="12.5666666666667"/>
+    <col min="14" max="16" width="12.5666666666667"/>
+    <col min="17" max="17" width="11.425"/>
+    <col min="20" max="20" width="12.5666666666667"/>
+    <col min="23" max="23" width="12.5666666666667"/>
+    <col min="26" max="26" width="9.14166666666667" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:26">
-      <c r="C1" s="10" t="s">
+    <row r="1" spans="3:23">
+      <c r="C1" s="13" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
@@ -810,11 +1427,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="2:26">
-      <c r="B2" s="10" t="s">
+    <row r="2" spans="2:24">
+      <c r="B2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="10"/>
+      <c r="C2" s="13"/>
       <c r="E2" t="s">
         <v>9</v>
       </c>
@@ -858,7 +1475,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:26">
+    <row r="3" ht="14.25" spans="2:26">
       <c r="B3" t="s">
         <v>11</v>
       </c>
@@ -869,7 +1486,7 @@
         <v>236.363636363636</v>
       </c>
       <c r="F3">
-        <v>4.3763213530655403</v>
+        <v>4.37632135306554</v>
       </c>
       <c r="K3">
         <v>491.787234042553</v>
@@ -881,68 +1498,68 @@
         <v>712.28</v>
       </c>
       <c r="R3">
-        <v>36.043333333333301</v>
+        <v>36.0433333333333</v>
       </c>
       <c r="T3">
-        <v>918.82352941176498</v>
+        <v>918.823529411765</v>
       </c>
       <c r="U3">
-        <v>62.529411764705898</v>
+        <v>62.5294117647059</v>
       </c>
       <c r="W3">
-        <v>1180.6666666666699</v>
+        <v>1180.66666666667</v>
       </c>
       <c r="X3">
         <v>24.3333333333333</v>
       </c>
-      <c r="Z3" s="10" t="s">
+      <c r="Z3" s="13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="2:26" ht="76.5">
+    <row r="4" ht="62.25" spans="3:26">
       <c r="C4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="12">
-        <v>2.4339409209067999</v>
+      <c r="E4" s="15">
+        <v>2.4339409209068</v>
       </c>
       <c r="K4">
-        <v>5.0074784286403302</v>
+        <v>5.00747842864033</v>
       </c>
       <c r="Q4">
-        <v>7.2290680100755704</v>
+        <v>7.22906801007557</v>
       </c>
       <c r="T4">
-        <v>9.3101111275744604</v>
+        <v>9.31011112757446</v>
       </c>
       <c r="W4">
         <v>11.9483291351806</v>
       </c>
-      <c r="Z4" s="10" t="s">
+      <c r="Z4" s="13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="2:26">
+    <row r="6" ht="14.25" spans="2:15">
       <c r="B6" t="s">
         <v>17</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="16">
         <v>311.767441860465</v>
       </c>
       <c r="F6">
-        <v>49.230343300110697</v>
+        <v>49.2303433001107</v>
       </c>
       <c r="H6">
-        <v>349.26373626373601</v>
+        <v>349.263736263736</v>
       </c>
       <c r="I6">
-        <v>4.3963369963369896</v>
+        <v>4.39633699633699</v>
       </c>
       <c r="K6">
         <v>502.5</v>
@@ -954,109 +1571,109 @@
         <v>587.3125</v>
       </c>
       <c r="O6">
-        <v>35.447580645161302</v>
-      </c>
-    </row>
-    <row r="7" spans="2:26" ht="76.5">
+        <v>35.4475806451613</v>
+      </c>
+    </row>
+    <row r="7" ht="62.25" spans="3:4">
       <c r="C7" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="2:26">
+    <row r="9" ht="14.25" spans="2:15">
       <c r="B9" t="s">
         <v>19</v>
       </c>
       <c r="C9" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="13">
-        <v>276.23255813953398</v>
+      <c r="E9" s="16">
+        <v>276.232558139534</v>
       </c>
       <c r="F9">
-        <v>3.7065337763012201</v>
+        <v>3.70653377630122</v>
       </c>
       <c r="K9">
-        <v>534.73913043478296</v>
+        <v>534.739130434783</v>
       </c>
       <c r="L9">
-        <v>43.352657004830903</v>
+        <v>43.3526570048309</v>
       </c>
       <c r="N9">
-        <v>683.70833333333303</v>
+        <v>683.708333333333</v>
       </c>
       <c r="O9">
-        <v>135.69384057971001</v>
-      </c>
-    </row>
-    <row r="10" spans="2:26" ht="91.5">
+        <v>135.69384057971</v>
+      </c>
+    </row>
+    <row r="10" ht="62.25" spans="3:4">
       <c r="C10" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="14" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="2:26">
+    <row r="12" ht="14.25" spans="2:15">
       <c r="B12" t="s">
         <v>21</v>
       </c>
       <c r="C12" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="13">
-        <v>273.55813953488303</v>
+      <c r="E12" s="16">
+        <v>273.558139534883</v>
       </c>
       <c r="F12">
-        <v>9.2048726467331203</v>
-      </c>
-      <c r="H12" s="13">
+        <v>9.20487264673312</v>
+      </c>
+      <c r="H12" s="16">
         <v>317.622641509434</v>
       </c>
       <c r="I12">
-        <v>6.6943396226415102</v>
+        <v>6.69433962264151</v>
       </c>
       <c r="K12">
-        <v>483.95652173912998</v>
+        <v>483.95652173913</v>
       </c>
       <c r="L12">
-        <v>619.90917874396098</v>
+        <v>619.909178743961</v>
       </c>
       <c r="N12">
-        <v>661.58333333333303</v>
+        <v>661.583333333333</v>
       </c>
       <c r="O12">
-        <v>74.878571428571405</v>
-      </c>
-    </row>
-    <row r="13" spans="2:26" ht="91.5">
+        <v>74.8785714285714</v>
+      </c>
+    </row>
+    <row r="13" ht="62.25" spans="3:4">
       <c r="C13" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="14" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="2:26">
+    <row r="15" ht="14.25" spans="2:15">
       <c r="B15" t="s">
         <v>23</v>
       </c>
       <c r="C15" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="13">
-        <v>289.97674418604601</v>
+      <c r="E15" s="16">
+        <v>289.976744186046</v>
       </c>
       <c r="F15">
         <v>12.9756367663344</v>
       </c>
       <c r="K15">
-        <v>471.23913043478302</v>
+        <v>471.239130434783</v>
       </c>
       <c r="L15">
-        <v>7.4304347826086898</v>
+        <v>7.43043478260869</v>
       </c>
       <c r="N15">
         <v>596.5625</v>
@@ -1065,1134 +1682,1138 @@
         <v>19.0625</v>
       </c>
     </row>
-    <row r="16" spans="2:26" ht="76.5">
+    <row r="16" ht="62.25" spans="3:4">
       <c r="C16" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="14" t="s">
         <v>18</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="B1:AP16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="3" width="9.140625" style="1"/>
-    <col min="4" max="4" width="2.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="4.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="3.5703125" style="1" customWidth="1"/>
-    <col min="8" max="9" width="9.140625" style="1"/>
-    <col min="10" max="10" width="11.42578125" style="2"/>
-    <col min="11" max="11" width="9.140625" style="2"/>
-    <col min="12" max="12" width="3.42578125" style="1" customWidth="1"/>
-    <col min="13" max="14" width="9.140625" style="1"/>
-    <col min="15" max="16" width="9.140625" style="2"/>
-    <col min="17" max="17" width="3.7109375" style="1" customWidth="1"/>
-    <col min="18" max="19" width="9.140625" style="1"/>
-    <col min="20" max="21" width="9.140625" style="2"/>
-    <col min="22" max="22" width="2.85546875" style="1" customWidth="1"/>
-    <col min="23" max="24" width="9.140625" style="1"/>
-    <col min="25" max="26" width="9.140625" style="2"/>
-    <col min="27" max="27" width="5" style="3" customWidth="1"/>
-    <col min="28" max="28" width="9.140625" style="3"/>
-    <col min="29" max="29" width="9.140625" style="1"/>
-    <col min="30" max="31" width="9.140625" style="4"/>
-    <col min="32" max="32" width="5" style="1" customWidth="1"/>
-    <col min="33" max="34" width="9.140625" style="1"/>
-    <col min="35" max="36" width="9.140625" style="4"/>
-    <col min="37" max="37" width="1.28515625" style="1" customWidth="1"/>
-    <col min="38" max="39" width="9.140625" style="1"/>
-    <col min="40" max="40" width="1.140625" style="1" customWidth="1"/>
-    <col min="41" max="41" width="9.140625" style="5"/>
-    <col min="42" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="3" width="9.14166666666667" style="2"/>
+    <col min="4" max="4" width="2.14166666666667" style="2" customWidth="1"/>
+    <col min="5" max="5" width="8.425" style="2" customWidth="1"/>
+    <col min="6" max="6" width="4.425" style="2" customWidth="1"/>
+    <col min="7" max="7" width="3.56666666666667" style="2" customWidth="1"/>
+    <col min="8" max="9" width="9.14166666666667" style="2"/>
+    <col min="10" max="10" width="11.425" style="3"/>
+    <col min="11" max="11" width="9.14166666666667" style="3"/>
+    <col min="12" max="12" width="3.425" style="2" customWidth="1"/>
+    <col min="13" max="14" width="9.14166666666667" style="2"/>
+    <col min="15" max="16" width="9.14166666666667" style="3"/>
+    <col min="17" max="17" width="3.70833333333333" style="2" customWidth="1"/>
+    <col min="18" max="19" width="9.14166666666667" style="2"/>
+    <col min="20" max="21" width="9.14166666666667" style="3"/>
+    <col min="22" max="22" width="2.85833333333333" style="2" customWidth="1"/>
+    <col min="23" max="24" width="9.14166666666667" style="2"/>
+    <col min="25" max="26" width="9.14166666666667" style="3"/>
+    <col min="27" max="27" width="5" style="4" customWidth="1"/>
+    <col min="28" max="28" width="9.14166666666667" style="4"/>
+    <col min="29" max="29" width="9.14166666666667" style="2"/>
+    <col min="30" max="31" width="9.14166666666667" style="5"/>
+    <col min="32" max="32" width="5" style="2" customWidth="1"/>
+    <col min="33" max="34" width="9.14166666666667" style="2"/>
+    <col min="35" max="36" width="9.14166666666667" style="5"/>
+    <col min="37" max="37" width="1.28333333333333" style="2" customWidth="1"/>
+    <col min="38" max="39" width="9.14166666666667" style="2"/>
+    <col min="40" max="40" width="1.14166666666667" style="2" customWidth="1"/>
+    <col min="41" max="41" width="9.14166666666667" style="6"/>
+    <col min="42" max="16384" width="9.14166666666667" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:42">
-      <c r="C1" s="5" t="s">
+    <row r="1" spans="3:38">
+      <c r="C1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AB1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AG1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AL1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="2:42">
-      <c r="B2" s="5" t="s">
+    <row r="2" spans="2:41">
+      <c r="B2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="E2" s="1" t="s">
+      <c r="C2" s="6"/>
+      <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="O2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="P2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="R2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="S2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="T2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="U2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="W2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="X2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="Y2" s="2" t="s">
+      <c r="Y2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="Z2" s="2" t="s">
+      <c r="Z2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="AB2" s="3" t="s">
+      <c r="AB2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="AC2" s="1" t="s">
+      <c r="AC2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="AD2" s="4" t="s">
+      <c r="AD2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="AE2" s="4" t="s">
+      <c r="AE2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AG2" s="1" t="s">
+      <c r="AG2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="AH2" s="1" t="s">
+      <c r="AH2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="AI2" s="4" t="s">
+      <c r="AI2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="AJ2" s="4" t="s">
+      <c r="AJ2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AL2" s="1" t="s">
+      <c r="AL2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="AM2" s="1" t="s">
+      <c r="AM2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="AO2" s="5" t="s">
+      <c r="AO2" s="6" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="3" spans="2:42">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="2">
-        <v>333.60377358490598</v>
-      </c>
-      <c r="K3" s="2">
-        <v>1.5070382074116599</v>
-      </c>
-      <c r="O3" s="2">
-        <v>434.44791666666703</v>
-      </c>
-      <c r="P3" s="2">
-        <v>1.9012103951584201</v>
-      </c>
-      <c r="T3" s="2">
-        <v>533.49392712550605</v>
-      </c>
-      <c r="U3" s="2">
-        <v>2.4669355371900799</v>
-      </c>
-      <c r="Y3" s="2">
-        <v>626.15189873417705</v>
-      </c>
-      <c r="Z3" s="2">
-        <v>3.5716739331483698</v>
-      </c>
-      <c r="AD3" s="4">
-        <v>724.06437768240403</v>
-      </c>
-      <c r="AE3" s="4">
+      <c r="J3" s="3">
+        <v>333.603773584906</v>
+      </c>
+      <c r="K3" s="3">
+        <v>1.50703820741166</v>
+      </c>
+      <c r="O3" s="3">
+        <v>434.447916666667</v>
+      </c>
+      <c r="P3" s="3">
+        <v>1.90121039515842</v>
+      </c>
+      <c r="T3" s="3">
+        <v>533.493927125506</v>
+      </c>
+      <c r="U3" s="3">
+        <v>2.46693553719008</v>
+      </c>
+      <c r="Y3" s="3">
+        <v>626.151898734177</v>
+      </c>
+      <c r="Z3" s="3">
+        <v>3.57167393314837</v>
+      </c>
+      <c r="AD3" s="5">
+        <v>724.064377682404</v>
+      </c>
+      <c r="AE3" s="5">
         <v>1.87045512142037</v>
       </c>
-      <c r="AI3" s="4">
-        <v>846.40524781341105</v>
-      </c>
-      <c r="AJ3" s="4">
-        <v>4.1390456114245398</v>
-      </c>
-      <c r="AO3" s="5" t="s">
+      <c r="AI3" s="5">
+        <v>846.405247813411</v>
+      </c>
+      <c r="AJ3" s="5">
+        <v>4.13904561142454</v>
+      </c>
+      <c r="AO3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="AP3" s="5" t="s">
+      <c r="AP3" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="2:42" ht="16.5">
-      <c r="C4" s="1" t="s">
+    <row r="4" ht="16.5" spans="3:42">
+      <c r="C4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="7"/>
-      <c r="X4" s="3"/>
-      <c r="AP4" s="5"/>
-    </row>
-    <row r="5" spans="2:42">
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-    </row>
-    <row r="6" spans="2:42">
-      <c r="B6" s="1" t="s">
+      <c r="D4" s="7"/>
+      <c r="E4" s="8"/>
+      <c r="X4" s="4"/>
+      <c r="AP4" s="6"/>
+    </row>
+    <row r="5" spans="8:9">
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+    </row>
+    <row r="6" spans="2:36">
+      <c r="B6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="9"/>
-      <c r="J6" s="2">
-        <v>318.79245283018901</v>
-      </c>
-      <c r="K6" s="2">
-        <v>2.6193622522263702</v>
-      </c>
-      <c r="O6" s="1">
-        <v>428.41666666666703</v>
-      </c>
-      <c r="P6" s="2">
-        <v>8.1441794232822993</v>
-      </c>
-      <c r="T6" s="1">
-        <v>529.37454545454602</v>
-      </c>
-      <c r="U6" s="2">
-        <v>2.5795216339693599</v>
-      </c>
-      <c r="Y6" s="1">
-        <v>624.74038461538498</v>
-      </c>
-      <c r="Z6" s="2">
-        <v>4.2433858501783597</v>
-      </c>
-      <c r="AD6" s="4">
-        <v>718.65584415584397</v>
-      </c>
-      <c r="AE6" s="4">
-        <v>2.8396539792387601</v>
-      </c>
-      <c r="AI6" s="4">
-        <v>820.03149606299201</v>
-      </c>
-      <c r="AJ6" s="4">
-        <v>5.4343342890196702</v>
-      </c>
-    </row>
-    <row r="7" spans="2:42" ht="16.5">
-      <c r="C7" s="1" t="s">
+      <c r="E6" s="10"/>
+      <c r="J6" s="3">
+        <v>318.792452830189</v>
+      </c>
+      <c r="K6" s="3">
+        <v>2.61936225222637</v>
+      </c>
+      <c r="O6" s="2">
+        <v>428.416666666667</v>
+      </c>
+      <c r="P6" s="3">
+        <v>8.1441794232823</v>
+      </c>
+      <c r="T6" s="2">
+        <v>529.374545454546</v>
+      </c>
+      <c r="U6" s="3">
+        <v>2.57952163396936</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>624.740384615385</v>
+      </c>
+      <c r="Z6" s="3">
+        <v>4.24338585017836</v>
+      </c>
+      <c r="AD6" s="5">
+        <v>718.655844155844</v>
+      </c>
+      <c r="AE6" s="5">
+        <v>2.83965397923876</v>
+      </c>
+      <c r="AI6" s="5">
+        <v>820.031496062992</v>
+      </c>
+      <c r="AJ6" s="5">
+        <v>5.43433428901967</v>
+      </c>
+    </row>
+    <row r="7" ht="16.5" spans="3:4">
+      <c r="C7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="6"/>
-    </row>
-    <row r="8" spans="2:42">
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-    </row>
-    <row r="9" spans="2:42">
-      <c r="B9" s="1" t="s">
+      <c r="D7" s="7"/>
+    </row>
+    <row r="8" spans="8:9">
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+    </row>
+    <row r="9" spans="2:36">
+      <c r="B9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="9"/>
-      <c r="J9" s="2">
-        <v>322.58490566037699</v>
-      </c>
-      <c r="K9" s="2">
-        <v>1.2226371732260899</v>
-      </c>
-      <c r="O9" s="2">
+      <c r="E9" s="10"/>
+      <c r="J9" s="3">
+        <v>322.584905660377</v>
+      </c>
+      <c r="K9" s="3">
+        <v>1.22263717322609</v>
+      </c>
+      <c r="O9" s="3">
         <v>433.96875</v>
       </c>
-      <c r="P9" s="2">
-        <v>1.5094339622641499</v>
-      </c>
-      <c r="T9" s="2">
+      <c r="P9" s="3">
+        <v>1.50943396226415</v>
+      </c>
+      <c r="T9" s="3">
         <v>539.638783269962</v>
       </c>
-      <c r="U9" s="2">
-        <v>1.4669244836864801</v>
-      </c>
-      <c r="Y9" s="2">
-        <v>631.83333333333303</v>
-      </c>
-      <c r="Z9" s="2">
-        <v>3.4360381480100202</v>
-      </c>
-      <c r="AD9" s="4">
-        <v>718.24901185770796</v>
-      </c>
-      <c r="AE9" s="4">
+      <c r="U9" s="3">
+        <v>1.46692448368648</v>
+      </c>
+      <c r="Y9" s="3">
+        <v>631.833333333333</v>
+      </c>
+      <c r="Z9" s="3">
+        <v>3.43603814801002</v>
+      </c>
+      <c r="AD9" s="5">
+        <v>718.249011857708</v>
+      </c>
+      <c r="AE9" s="5">
         <v>2.39381466800066</v>
       </c>
-      <c r="AI9" s="4">
-        <v>838.07763975155297</v>
-      </c>
-      <c r="AJ9" s="4">
-        <v>3.7079679161074899</v>
-      </c>
-    </row>
-    <row r="10" spans="2:42" ht="16.5">
-      <c r="C10" s="1" t="s">
+      <c r="AI9" s="5">
+        <v>838.077639751553</v>
+      </c>
+      <c r="AJ9" s="5">
+        <v>3.70796791610749</v>
+      </c>
+    </row>
+    <row r="10" ht="16.5" spans="3:4">
+      <c r="C10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="6"/>
-    </row>
-    <row r="11" spans="2:42">
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-    </row>
-    <row r="12" spans="2:42">
-      <c r="B12" s="1" t="s">
+      <c r="D10" s="7"/>
+    </row>
+    <row r="11" spans="8:9">
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+    </row>
+    <row r="12" spans="2:36">
+      <c r="B12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="9"/>
-      <c r="J12" s="2">
-        <v>352.11764705882399</v>
-      </c>
-      <c r="K12" s="2">
-        <v>4.7232994767620804</v>
-      </c>
-      <c r="O12" s="2">
-        <v>467.35416666666703</v>
-      </c>
-      <c r="P12" s="2">
-        <v>3.6301174795300799</v>
-      </c>
-      <c r="T12" s="2">
-        <v>523.47985347985298</v>
-      </c>
-      <c r="U12" s="2">
-        <v>2.4394558267707902</v>
-      </c>
-      <c r="Y12" s="2">
-        <v>627.41176470588198</v>
-      </c>
-      <c r="Z12" s="2">
+      <c r="E12" s="10"/>
+      <c r="J12" s="3">
+        <v>352.117647058824</v>
+      </c>
+      <c r="K12" s="3">
+        <v>4.72329947676208</v>
+      </c>
+      <c r="O12" s="3">
+        <v>467.354166666667</v>
+      </c>
+      <c r="P12" s="3">
+        <v>3.63011747953008</v>
+      </c>
+      <c r="T12" s="3">
+        <v>523.479853479853</v>
+      </c>
+      <c r="U12" s="3">
+        <v>2.43945582677079</v>
+      </c>
+      <c r="Y12" s="3">
+        <v>627.411764705882</v>
+      </c>
+      <c r="Z12" s="3">
         <v>8.30193909275933</v>
       </c>
-      <c r="AD12" s="4">
-        <v>744.07874015747996</v>
-      </c>
-      <c r="AE12" s="4">
+      <c r="AD12" s="5">
+        <v>744.07874015748</v>
+      </c>
+      <c r="AE12" s="5">
         <v>2.62091947085157</v>
       </c>
-      <c r="AI12" s="4">
-        <v>858.65242165242205</v>
-      </c>
-      <c r="AJ12" s="4">
-        <v>7.2175613712626099</v>
-      </c>
-    </row>
-    <row r="13" spans="2:42" ht="16.5">
-      <c r="C13" s="1" t="s">
+      <c r="AI12" s="5">
+        <v>858.652421652422</v>
+      </c>
+      <c r="AJ12" s="5">
+        <v>7.21756137126261</v>
+      </c>
+    </row>
+    <row r="13" ht="16.5" spans="3:4">
+      <c r="C13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="6"/>
-    </row>
-    <row r="14" spans="2:42">
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-    </row>
-    <row r="15" spans="2:42">
-      <c r="B15" s="1" t="s">
+      <c r="D13" s="7"/>
+    </row>
+    <row r="14" spans="8:9">
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+    </row>
+    <row r="15" spans="2:36">
+      <c r="B15" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="9"/>
-      <c r="J15" s="2">
-        <v>322.22641509433998</v>
-      </c>
-      <c r="K15" s="2">
-        <v>1.4875035909221499</v>
-      </c>
-      <c r="O15" s="2">
-        <v>419.57291666666703</v>
-      </c>
-      <c r="P15" s="2">
+      <c r="E15" s="10"/>
+      <c r="J15" s="3">
+        <v>322.22641509434</v>
+      </c>
+      <c r="K15" s="3">
+        <v>1.48750359092215</v>
+      </c>
+      <c r="O15" s="3">
+        <v>419.572916666667</v>
+      </c>
+      <c r="P15" s="3">
         <v>1.82912068351727</v>
       </c>
-      <c r="T15" s="2">
-        <v>510.62162162162201</v>
-      </c>
-      <c r="U15" s="2">
+      <c r="T15" s="3">
+        <v>510.621621621622</v>
+      </c>
+      <c r="U15" s="3">
         <v>2.95508625817966</v>
       </c>
-      <c r="Y15" s="2">
-        <v>616.18897637795305</v>
-      </c>
-      <c r="Z15" s="2">
-        <v>4.4722096474020496</v>
-      </c>
-      <c r="AD15" s="4">
+      <c r="Y15" s="3">
+        <v>616.188976377953</v>
+      </c>
+      <c r="Z15" s="3">
+        <v>4.47220964740205</v>
+      </c>
+      <c r="AD15" s="5">
         <v>707.2578125</v>
       </c>
-      <c r="AE15" s="4">
-        <v>2.5561396548303801</v>
-      </c>
-      <c r="AI15" s="4">
-        <v>825.23225806451603</v>
-      </c>
-      <c r="AJ15" s="4">
-        <v>4.5152193524675104</v>
-      </c>
-    </row>
-    <row r="16" spans="2:42" ht="16.5">
-      <c r="C16" s="1" t="s">
+      <c r="AE15" s="5">
+        <v>2.55613965483038</v>
+      </c>
+      <c r="AI15" s="5">
+        <v>825.232258064516</v>
+      </c>
+      <c r="AJ15" s="5">
+        <v>4.51521935246751</v>
+      </c>
+    </row>
+    <row r="16" ht="16.5" spans="3:4">
+      <c r="C16" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="6"/>
+      <c r="D16" s="7"/>
     </row>
   </sheetData>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.78680555555555598" bottom="0.78680555555555598" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.786805555555556" bottom="0.786805555555556" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="B1:AP41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X7" sqref="X7"/>
+    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
+      <selection activeCell="AO10" sqref="AO10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="3" style="1" customWidth="1"/>
-    <col min="2" max="3" width="9.140625" style="1"/>
-    <col min="4" max="4" width="2.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="4.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="3.5703125" style="1" customWidth="1"/>
-    <col min="8" max="9" width="9.140625" style="1"/>
-    <col min="10" max="11" width="9.140625" style="2"/>
-    <col min="12" max="12" width="3.42578125" style="1" customWidth="1"/>
-    <col min="13" max="14" width="9.140625" style="1"/>
-    <col min="15" max="16" width="9.140625" style="2"/>
-    <col min="17" max="17" width="1.28515625" style="1" customWidth="1"/>
-    <col min="18" max="19" width="9.140625" style="1"/>
-    <col min="20" max="21" width="9.140625" style="2"/>
-    <col min="22" max="22" width="2.85546875" style="1" customWidth="1"/>
-    <col min="23" max="24" width="9.140625" style="1"/>
-    <col min="25" max="26" width="9.140625" style="2"/>
-    <col min="27" max="27" width="2.42578125" style="3" customWidth="1"/>
-    <col min="28" max="28" width="9.140625" style="3"/>
-    <col min="29" max="29" width="9.140625" style="1"/>
-    <col min="30" max="31" width="9.140625" style="4"/>
-    <col min="32" max="32" width="1.7109375" style="1" customWidth="1"/>
-    <col min="33" max="34" width="9.140625" style="1"/>
-    <col min="35" max="36" width="9.140625" style="4"/>
-    <col min="37" max="37" width="1.28515625" style="1" customWidth="1"/>
-    <col min="38" max="39" width="9.140625" style="1"/>
-    <col min="40" max="40" width="3.28515625" style="1" customWidth="1"/>
-    <col min="41" max="41" width="9.140625" style="5"/>
-    <col min="42" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="3" style="2" customWidth="1"/>
+    <col min="2" max="3" width="9.14166666666667" style="2"/>
+    <col min="4" max="4" width="2.14166666666667" style="2" customWidth="1"/>
+    <col min="5" max="5" width="8.425" style="2" customWidth="1"/>
+    <col min="6" max="6" width="4.425" style="2" customWidth="1"/>
+    <col min="7" max="7" width="3.56666666666667" style="2" customWidth="1"/>
+    <col min="8" max="9" width="9.14166666666667" style="2"/>
+    <col min="10" max="11" width="9.14166666666667" style="3"/>
+    <col min="12" max="12" width="3.425" style="2" customWidth="1"/>
+    <col min="13" max="14" width="9.14166666666667" style="2"/>
+    <col min="15" max="16" width="9.14166666666667" style="3"/>
+    <col min="17" max="17" width="1.28333333333333" style="2" customWidth="1"/>
+    <col min="18" max="19" width="9.14166666666667" style="2"/>
+    <col min="20" max="21" width="9.14166666666667" style="3"/>
+    <col min="22" max="22" width="2.85833333333333" style="2" customWidth="1"/>
+    <col min="23" max="24" width="9.14166666666667" style="2"/>
+    <col min="25" max="26" width="9.14166666666667" style="3"/>
+    <col min="27" max="27" width="2.425" style="4" customWidth="1"/>
+    <col min="28" max="28" width="9.14166666666667" style="4"/>
+    <col min="29" max="29" width="9.14166666666667" style="2"/>
+    <col min="30" max="31" width="9.14166666666667" style="5"/>
+    <col min="32" max="32" width="1.70833333333333" style="2" customWidth="1"/>
+    <col min="33" max="34" width="9.14166666666667" style="2"/>
+    <col min="35" max="36" width="9.14166666666667" style="5"/>
+    <col min="37" max="37" width="1.28333333333333" style="2" customWidth="1"/>
+    <col min="38" max="39" width="9.14166666666667" style="2"/>
+    <col min="40" max="40" width="3.28333333333333" style="2" customWidth="1"/>
+    <col min="41" max="41" width="9.14166666666667" style="6"/>
+    <col min="42" max="16384" width="9.14166666666667" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:42">
-      <c r="C1" s="5" t="s">
+    <row r="1" spans="3:41">
+      <c r="C1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AB1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AG1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AL1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AO1" s="5" t="s">
+      <c r="AO1" s="6" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="2" spans="2:42">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="E2" s="1" t="s">
+      <c r="C2" s="6"/>
+      <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="O2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="P2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="R2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="S2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="T2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="U2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="W2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="X2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="Y2" s="2" t="s">
+      <c r="Y2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="Z2" s="2" t="s">
+      <c r="Z2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="AB2" s="3" t="s">
+      <c r="AB2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="AC2" s="1" t="s">
+      <c r="AC2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="AD2" s="4" t="s">
+      <c r="AD2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="AE2" s="4" t="s">
+      <c r="AE2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AG2" s="1" t="s">
+      <c r="AG2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="AH2" s="1" t="s">
+      <c r="AH2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="AI2" s="4" t="s">
+      <c r="AI2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="AJ2" s="4" t="s">
+      <c r="AJ2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AL2" s="1" t="s">
+      <c r="AL2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="AM2" s="1" t="s">
+      <c r="AM2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="AO2" s="5" t="s">
+      <c r="AO2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="AP2" s="5" t="s">
+      <c r="AP2" s="6" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="3" spans="2:42">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="2">
-        <v>3158.8333333333298</v>
-      </c>
-      <c r="K3" s="2">
-        <v>35.245657439446298</v>
-      </c>
-      <c r="O3" s="2">
-        <v>4237.2522255192898</v>
-      </c>
-      <c r="P3" s="2">
-        <v>17.658922666666701</v>
-      </c>
-      <c r="T3" s="2">
-        <v>5428.4785894206598</v>
-      </c>
-      <c r="U3" s="2">
-        <v>23.150055789511601</v>
-      </c>
-      <c r="Y3" s="2">
-        <v>6453.1178861788603</v>
-      </c>
-      <c r="Z3" s="2">
+      <c r="J3" s="3">
+        <v>3158.83333333333</v>
+      </c>
+      <c r="K3" s="3">
+        <v>35.2456574394463</v>
+      </c>
+      <c r="O3" s="3">
+        <v>4237.25222551929</v>
+      </c>
+      <c r="P3" s="3">
+        <v>17.6589226666667</v>
+      </c>
+      <c r="T3" s="3">
+        <v>5428.47858942066</v>
+      </c>
+      <c r="U3" s="3">
+        <v>23.1500557895116</v>
+      </c>
+      <c r="Y3" s="3">
+        <v>6453.11788617886</v>
+      </c>
+      <c r="Z3" s="3">
         <v>27.2390838786438</v>
       </c>
-      <c r="AI3" s="4">
-        <v>8251.8558201058204</v>
-      </c>
-      <c r="AJ3" s="4">
-        <v>38.238850092120202</v>
-      </c>
-      <c r="AO3" s="5">
-        <v>0.97340000000000004</v>
-      </c>
-      <c r="AP3" s="1">
+      <c r="AI3" s="5">
+        <v>8251.85582010582</v>
+      </c>
+      <c r="AJ3" s="5">
+        <v>38.2388500921202</v>
+      </c>
+      <c r="AO3" s="6">
+        <v>0.9734</v>
+      </c>
+      <c r="AP3" s="2">
         <v>-159.5</v>
       </c>
     </row>
-    <row r="4" spans="2:42" ht="16.5">
-      <c r="C4" s="1" t="s">
+    <row r="4" ht="16.5" spans="3:42">
+      <c r="C4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="7"/>
-      <c r="X4" s="3"/>
-      <c r="AP4" s="5"/>
-    </row>
-    <row r="5" spans="2:42">
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="8"/>
+      <c r="X4" s="4"/>
+      <c r="AP4" s="6"/>
+    </row>
+    <row r="5" spans="8:9">
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
     </row>
     <row r="6" spans="2:42">
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="9"/>
-      <c r="J6" s="2">
-        <v>3235.0558694287502</v>
-      </c>
-      <c r="K6" s="2">
+      <c r="E6" s="10"/>
+      <c r="J6" s="3">
+        <v>3235.05586942875</v>
+      </c>
+      <c r="K6" s="3">
         <v>20.6112700692651</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="N6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="O6" s="1">
-        <v>4101.3809523809496</v>
-      </c>
-      <c r="P6" s="2">
+      <c r="O6" s="2">
+        <v>4101.38095238095</v>
+      </c>
+      <c r="P6" s="3">
         <v>24.9340587524099</v>
       </c>
-      <c r="T6" s="1">
-        <v>5217.8296296296303</v>
-      </c>
-      <c r="U6" s="2">
-        <v>22.452377323612001</v>
-      </c>
-      <c r="Y6" s="1">
-        <v>5919.3916437098296</v>
-      </c>
-      <c r="Z6" s="2">
-        <v>30.022690162331401</v>
-      </c>
-      <c r="AI6" s="4">
-        <v>8081.3449699699704</v>
-      </c>
-      <c r="AJ6" s="4">
-        <v>25.507393398466299</v>
-      </c>
-      <c r="AN6" s="8">
+      <c r="T6" s="2">
+        <v>5217.82962962963</v>
+      </c>
+      <c r="U6" s="3">
+        <v>22.452377323612</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>5919.39164370983</v>
+      </c>
+      <c r="Z6" s="3">
+        <v>30.0226901623314</v>
+      </c>
+      <c r="AI6" s="5">
+        <v>8081.34496996997</v>
+      </c>
+      <c r="AJ6" s="5">
+        <v>25.5073933984663</v>
+      </c>
+      <c r="AN6" s="9">
         <v>1</v>
       </c>
-      <c r="AO6" s="16">
+      <c r="AO6" s="11">
         <v>1.034</v>
       </c>
-      <c r="AP6" s="8">
-        <f>P7-291.3</f>
-        <v>-265.35316855078162</v>
-      </c>
-    </row>
-    <row r="7" spans="2:42" ht="16.5">
-      <c r="C7" s="1" t="s">
+      <c r="AP6" s="9">
+        <v>-291.3</v>
+      </c>
+    </row>
+    <row r="7" ht="16.5" spans="3:42">
+      <c r="C7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="N7" s="1">
+      <c r="D7" s="7"/>
+      <c r="N7" s="2">
         <v>1</v>
       </c>
-      <c r="O7" s="2">
+      <c r="O7" s="3">
         <v>4109.42565597668</v>
       </c>
-      <c r="P7" s="2">
-        <v>25.946831449218401</v>
-      </c>
-      <c r="AN7" s="1">
+      <c r="P7" s="3">
+        <v>25.9468314492184</v>
+      </c>
+      <c r="AN7" s="2">
         <v>2</v>
       </c>
-      <c r="AO7" s="5">
+      <c r="AO7" s="6">
         <v>1.032</v>
       </c>
-      <c r="AP7" s="1">
-        <v>-276.39999999999998</v>
-      </c>
-    </row>
-    <row r="8" spans="2:42">
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="N8" s="1">
+      <c r="AP7" s="2">
+        <v>-276.4</v>
+      </c>
+    </row>
+    <row r="8" spans="8:42">
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="N8" s="2">
         <v>2</v>
       </c>
-      <c r="O8" s="2">
-        <v>4088.3349753694602</v>
-      </c>
-      <c r="P8" s="2">
+      <c r="O8" s="3">
+        <v>4088.33497536946</v>
+      </c>
+      <c r="P8" s="3">
         <v>19.5649185185185</v>
       </c>
-      <c r="AN8" s="1" t="s">
+      <c r="AN8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AO8" s="5">
-        <v>1.0329999999999999</v>
-      </c>
-      <c r="AP8" s="1">
-        <v>-285.60000000000002</v>
+      <c r="AO8" s="6">
+        <v>1.033</v>
+      </c>
+      <c r="AP8" s="2">
+        <v>-285.6</v>
       </c>
     </row>
     <row r="9" spans="2:42">
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="9"/>
-      <c r="J9" s="2">
-        <v>3337.3609467455599</v>
-      </c>
-      <c r="K9" s="2">
+      <c r="E9" s="10"/>
+      <c r="J9" s="3">
+        <v>3337.36094674556</v>
+      </c>
+      <c r="K9" s="3">
         <v>14.7810943866003</v>
       </c>
-      <c r="O9" s="2">
-        <v>4308.7873417721503</v>
-      </c>
-      <c r="P9" s="2">
+      <c r="O9" s="3">
+        <v>4308.78734177215</v>
+      </c>
+      <c r="P9" s="3">
         <v>28.318761318175</v>
       </c>
-      <c r="T9" s="2">
-        <v>5137.6089108910901</v>
-      </c>
-      <c r="U9" s="2">
-        <v>20.160196109693899</v>
-      </c>
-      <c r="Y9" s="2">
-        <v>6208.8702435311998</v>
-      </c>
-      <c r="Z9" s="2">
-        <v>24.999786545317999</v>
-      </c>
-      <c r="AI9" s="4">
-        <v>8390.2757721620601</v>
-      </c>
-      <c r="AJ9" s="4">
+      <c r="T9" s="3">
+        <v>5137.60891089109</v>
+      </c>
+      <c r="U9" s="3">
+        <v>20.1601961096939</v>
+      </c>
+      <c r="Y9" s="3">
+        <v>6208.8702435312</v>
+      </c>
+      <c r="Z9" s="3">
+        <v>24.999786545318</v>
+      </c>
+      <c r="AI9" s="5">
+        <v>8390.27577216206</v>
+      </c>
+      <c r="AJ9" s="5">
         <v>60.5598701924986</v>
       </c>
-      <c r="AO9" s="5">
-        <v>0.98929999999999996</v>
-      </c>
-      <c r="AP9" s="1">
+      <c r="AO9" s="6">
+        <v>0.9893</v>
+      </c>
+      <c r="AP9" s="2">
         <v>-218.1</v>
       </c>
     </row>
-    <row r="10" spans="2:42" ht="16.5">
-      <c r="C10" s="1" t="s">
+    <row r="10" ht="16.5" spans="3:4">
+      <c r="C10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="6"/>
-    </row>
-    <row r="11" spans="2:42">
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
+      <c r="D10" s="7"/>
+    </row>
+    <row r="11" spans="8:9">
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
     </row>
     <row r="12" spans="2:42">
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="9"/>
-      <c r="J12" s="2">
-        <v>3274.3601190476202</v>
-      </c>
-      <c r="K12" s="2">
-        <v>13.797563556292699</v>
-      </c>
-      <c r="O12" s="2">
-        <v>4701.5135135135097</v>
-      </c>
-      <c r="P12" s="2">
-        <v>19.796960950639299</v>
-      </c>
-      <c r="T12" s="2">
-        <v>5407.7832512315299</v>
-      </c>
-      <c r="U12" s="2">
+      <c r="E12" s="10"/>
+      <c r="J12" s="3">
+        <v>3274.36011904762</v>
+      </c>
+      <c r="K12" s="3">
+        <v>13.7975635562927</v>
+      </c>
+      <c r="O12" s="3">
+        <v>4701.51351351351</v>
+      </c>
+      <c r="P12" s="3">
+        <v>19.7969609506393</v>
+      </c>
+      <c r="T12" s="3">
+        <v>5407.78325123153</v>
+      </c>
+      <c r="U12" s="3">
         <v>23.5817507244107</v>
       </c>
-      <c r="Y12" s="2">
-        <v>6566.5820105820103</v>
-      </c>
-      <c r="Z12" s="2">
-        <v>32.879682539682499</v>
-      </c>
-      <c r="AI12" s="4">
-        <v>8048.3788491446403</v>
-      </c>
-      <c r="AJ12" s="4">
-        <v>36.314207044901899</v>
-      </c>
-      <c r="AO12" s="5">
+      <c r="Y12" s="3">
+        <v>6566.58201058201</v>
+      </c>
+      <c r="Z12" s="3">
+        <v>32.8796825396825</v>
+      </c>
+      <c r="AI12" s="5">
+        <v>8048.37884914464</v>
+      </c>
+      <c r="AJ12" s="5">
+        <v>36.3142070449019</v>
+      </c>
+      <c r="AO12" s="6">
         <v>1.052</v>
       </c>
-      <c r="AP12" s="1">
+      <c r="AP12" s="2">
         <v>-688.6</v>
       </c>
     </row>
-    <row r="13" spans="2:42" ht="16.5">
-      <c r="C13" s="1" t="s">
+    <row r="13" ht="16.5" spans="3:4">
+      <c r="C13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="6"/>
-    </row>
-    <row r="14" spans="2:42">
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
+      <c r="D13" s="7"/>
+    </row>
+    <row r="14" spans="8:9">
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
     </row>
     <row r="15" spans="2:42">
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="10"/>
+      <c r="J15" s="3">
+        <v>3187.37350119904</v>
+      </c>
+      <c r="K15" s="3">
+        <v>27.3274638993844</v>
+      </c>
+      <c r="O15" s="3">
+        <v>4300.88148148148</v>
+      </c>
+      <c r="P15" s="3">
+        <v>24.9543206630919</v>
+      </c>
+      <c r="T15" s="3">
+        <v>5367.57046979866</v>
+      </c>
+      <c r="U15" s="3">
+        <v>23.8170592974345</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>6237.76911314985</v>
+      </c>
+      <c r="Z15" s="3">
+        <v>19.6181020116152</v>
+      </c>
+      <c r="AI15" s="5">
+        <v>8135.18888888889</v>
+      </c>
+      <c r="AJ15" s="5">
+        <v>43.8301806094172</v>
+      </c>
+      <c r="AO15" s="6">
+        <v>1.017</v>
+      </c>
+      <c r="AP15" s="2">
+        <v>-339</v>
+      </c>
+    </row>
+    <row r="16" ht="16.5" spans="3:15">
+      <c r="C16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="O16" s="2"/>
+    </row>
+    <row r="18" spans="2:42">
+      <c r="B18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="10"/>
+      <c r="I18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J18" s="3">
+        <v>3445.12881464825</v>
+      </c>
+      <c r="K18" s="3">
+        <v>16.5636063343433</v>
+      </c>
+      <c r="N18" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="9"/>
-      <c r="J15" s="2">
-        <v>3187.3735011990402</v>
-      </c>
-      <c r="K15" s="2">
-        <v>27.327463899384401</v>
-      </c>
-      <c r="O15" s="2">
-        <v>4300.8814814814796</v>
-      </c>
-      <c r="P15" s="2">
-        <v>24.954320663091899</v>
-      </c>
-      <c r="T15" s="2">
-        <v>5367.5704697986603</v>
-      </c>
-      <c r="U15" s="2">
-        <v>23.817059297434501</v>
-      </c>
-      <c r="Y15" s="2">
-        <v>6237.7691131498505</v>
-      </c>
-      <c r="Z15" s="2">
-        <v>19.6181020116152</v>
-      </c>
-      <c r="AI15" s="4">
-        <v>8135.1888888888898</v>
-      </c>
-      <c r="AJ15" s="4">
-        <v>43.830180609417198</v>
-      </c>
-      <c r="AO15" s="5">
-        <v>1.0169999999999999</v>
-      </c>
-      <c r="AP15" s="1">
-        <v>-339</v>
-      </c>
-    </row>
-    <row r="16" spans="2:42" ht="16.5">
-      <c r="C16" s="1" t="s">
+      <c r="O18" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="T18" s="3">
+        <v>5582.21234567901</v>
+      </c>
+      <c r="U18" s="3">
+        <v>19.8668541452599</v>
+      </c>
+      <c r="Y18" s="3">
+        <v>6282.34305150632</v>
+      </c>
+      <c r="Z18" s="3">
+        <v>17.2493996549055</v>
+      </c>
+      <c r="AI18" s="5">
+        <v>8132.49187725632</v>
+      </c>
+      <c r="AJ18" s="5">
+        <v>28.5014857845756</v>
+      </c>
+      <c r="AN18" s="9">
+        <v>1</v>
+      </c>
+      <c r="AO18" s="11">
+        <v>1.074</v>
+      </c>
+      <c r="AP18" s="9">
+        <v>-796.4</v>
+      </c>
+    </row>
+    <row r="19" ht="16.5" spans="3:42">
+      <c r="C19" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="6"/>
-      <c r="O16" s="1"/>
-    </row>
-    <row r="18" spans="2:42">
-      <c r="B18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" s="9"/>
-      <c r="I18" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J18" s="2">
-        <v>3445.1288146482502</v>
-      </c>
-      <c r="K18" s="2">
-        <v>16.563606334343302</v>
-      </c>
-      <c r="N18" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="O18" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="T18" s="2">
-        <v>5582.2123456790096</v>
-      </c>
-      <c r="U18" s="2">
-        <v>19.8668541452599</v>
-      </c>
-      <c r="Y18" s="2">
-        <v>6282.3430515063201</v>
-      </c>
-      <c r="Z18" s="2">
-        <v>17.249399654905499</v>
-      </c>
-      <c r="AI18" s="4">
-        <v>8132.4918772563196</v>
-      </c>
-      <c r="AJ18" s="4">
-        <v>28.5014857845756</v>
-      </c>
-      <c r="AN18" s="8">
+      <c r="D19" s="7"/>
+      <c r="I19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J19" s="3">
+        <v>3327.86842105263</v>
+      </c>
+      <c r="K19" s="3">
+        <v>98.733560090703</v>
+      </c>
+      <c r="N19" s="2">
         <v>1</v>
       </c>
-      <c r="AO18" s="16">
-        <v>1.0740000000000001</v>
-      </c>
-      <c r="AP18" s="8">
-        <v>-796.4</v>
-      </c>
-    </row>
-    <row r="19" spans="2:42" ht="16.5">
-      <c r="C19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="6"/>
-      <c r="I19" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J19" s="2">
-        <v>3327.8684210526299</v>
-      </c>
-      <c r="K19" s="2">
-        <v>98.733560090702994</v>
-      </c>
-      <c r="N19" s="1">
-        <v>1</v>
-      </c>
-      <c r="O19" s="1">
-        <v>4476.0837438423596</v>
-      </c>
-      <c r="P19" s="2">
-        <v>26.092187654320998</v>
-      </c>
-      <c r="AN19" s="1">
+      <c r="O19" s="2">
+        <v>4476.08374384236</v>
+      </c>
+      <c r="P19" s="3">
+        <v>26.092187654321</v>
+      </c>
+      <c r="AN19" s="2">
         <v>2</v>
       </c>
-      <c r="AO19" s="5">
-        <v>1.0920000000000001</v>
-      </c>
-      <c r="AP19" s="1">
+      <c r="AO19" s="6">
+        <v>1.092</v>
+      </c>
+      <c r="AP19" s="2">
         <v>-946.9</v>
       </c>
     </row>
-    <row r="20" spans="2:42">
-      <c r="N20" s="1">
+    <row r="20" spans="14:16">
+      <c r="N20" s="2">
         <v>2</v>
       </c>
-      <c r="O20" s="2">
-        <v>4702.5697674418598</v>
-      </c>
-      <c r="P20" s="2">
-        <v>36.951135734071997</v>
-      </c>
-    </row>
-    <row r="22" spans="2:42" s="14" customFormat="1">
-      <c r="AO22" s="15"/>
-    </row>
-    <row r="26" spans="2:42">
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="4"/>
-    </row>
-    <row r="27" spans="2:42">
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="4"/>
-    </row>
-    <row r="28" spans="2:42">
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="4"/>
-    </row>
-    <row r="29" spans="2:42">
-      <c r="K29" s="1"/>
-      <c r="N29" s="4"/>
-    </row>
-    <row r="30" spans="2:42">
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="4"/>
-    </row>
-    <row r="31" spans="2:42">
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="4"/>
-    </row>
-    <row r="32" spans="2:42">
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="4"/>
-    </row>
-    <row r="33" spans="11:14">
-      <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
-      <c r="N33" s="4"/>
-    </row>
-    <row r="34" spans="11:14">
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="4"/>
-    </row>
-    <row r="35" spans="11:14">
-      <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
-      <c r="N35" s="4"/>
-    </row>
-    <row r="36" spans="11:14">
-      <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
-      <c r="N36" s="4"/>
-    </row>
-    <row r="37" spans="11:14">
-      <c r="L37" s="2"/>
-      <c r="M37" s="2"/>
-      <c r="N37" s="4"/>
-    </row>
-    <row r="38" spans="11:14">
-      <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
-      <c r="N38" s="4"/>
+      <c r="O20" s="3">
+        <v>4702.56976744186</v>
+      </c>
+      <c r="P20" s="3">
+        <v>36.951135734072</v>
+      </c>
+    </row>
+    <row r="22" s="1" customFormat="1" spans="41:41">
+      <c r="AO22" s="12"/>
+    </row>
+    <row r="26" spans="12:14">
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="5"/>
+    </row>
+    <row r="27" spans="12:14">
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="5"/>
+    </row>
+    <row r="28" spans="12:14">
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="5"/>
+    </row>
+    <row r="29" spans="11:14">
+      <c r="K29" s="2"/>
+      <c r="N29" s="5"/>
+    </row>
+    <row r="30" spans="12:14">
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="5"/>
+    </row>
+    <row r="31" spans="12:14">
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="5"/>
+    </row>
+    <row r="32" spans="12:14">
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="5"/>
+    </row>
+    <row r="33" spans="12:14">
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="5"/>
+    </row>
+    <row r="34" spans="12:14">
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="5"/>
+    </row>
+    <row r="35" spans="12:14">
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="5"/>
+    </row>
+    <row r="36" spans="12:14">
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="5"/>
+    </row>
+    <row r="37" spans="12:14">
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="5"/>
+    </row>
+    <row r="38" spans="12:14">
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="5"/>
     </row>
     <row r="39" spans="11:14">
-      <c r="K39" s="1"/>
-      <c r="L39" s="2"/>
-      <c r="M39" s="2"/>
-      <c r="N39" s="4"/>
-    </row>
-    <row r="40" spans="11:14">
-      <c r="L40" s="2"/>
-      <c r="M40" s="2"/>
-      <c r="N40" s="4"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="5"/>
+    </row>
+    <row r="40" spans="12:14">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="5"/>
     </row>
     <row r="41" spans="11:14">
-      <c r="K41" s="1"/>
-      <c r="L41" s="2"/>
-      <c r="M41" s="2"/>
-      <c r="N41" s="4"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="5"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.786805555555556" bottom="0.786805555555556" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/communicate_with_basis_station_in_matlab/calibrations/outdoor/OUTDOOR_MEASUREMENT_07_27_2017/outdoor_calibration_results.xlsx
+++ b/communicate_with_basis_station_in_matlab/calibrations/outdoor/OUTDOOR_MEASUREMENT_07_27_2017/outdoor_calibration_results.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Yitong\GitHub\thesis_indoorLocalization\communicate_with_basis_station_in_matlab\calibrations\outdoor\OUTDOOR_MEASUREMENT_07_27_2017\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="14295" windowHeight="12630" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14295" windowHeight="12630" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="38">
   <si>
     <t>x</t>
   </si>
@@ -311,18 +316,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -332,7 +331,7 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -341,150 +340,6 @@
       <color rgb="FF005CC5"/>
       <name val="Segoe UI"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -499,7 +354,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -514,7 +369,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799951170384838"/>
+        <fgColor theme="4" tint="0.79992065187536243"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -526,7 +381,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799951170384838"/>
+        <fgColor theme="7" tint="0.79992065187536243"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -542,194 +397,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -767,251 +436,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1036,61 +463,17 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+  <cellStyles count="1">
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1139,7 +522,7 @@
     </a:clrScheme>
     <a:fontScheme name="Larissa">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1174,7 +557,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1377,31 +760,31 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Z16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="5" max="5" width="13.8583333333333" customWidth="1"/>
-    <col min="6" max="6" width="12.5666666666667"/>
-    <col min="11" max="12" width="12.5666666666667"/>
-    <col min="14" max="16" width="12.5666666666667"/>
-    <col min="17" max="17" width="11.425"/>
-    <col min="20" max="20" width="12.5666666666667"/>
-    <col min="23" max="23" width="12.5666666666667"/>
-    <col min="26" max="26" width="9.14166666666667" style="13"/>
+    <col min="5" max="5" width="13.85546875" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125"/>
+    <col min="11" max="12" width="12.5703125"/>
+    <col min="14" max="16" width="12.5703125"/>
+    <col min="17" max="17" width="11.42578125"/>
+    <col min="20" max="20" width="12.5703125"/>
+    <col min="23" max="23" width="12.5703125"/>
+    <col min="26" max="26" width="9.140625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:23">
+    <row r="1" spans="2:26">
       <c r="C1" s="13" t="s">
         <v>0</v>
       </c>
@@ -1427,7 +810,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="2:24">
+    <row r="2" spans="2:26">
       <c r="B2" s="13" t="s">
         <v>8</v>
       </c>
@@ -1475,7 +858,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" ht="14.25" spans="2:26">
+    <row r="3" spans="2:26">
       <c r="B3" t="s">
         <v>11</v>
       </c>
@@ -1486,7 +869,7 @@
         <v>236.363636363636</v>
       </c>
       <c r="F3">
-        <v>4.37632135306554</v>
+        <v>4.3763213530655403</v>
       </c>
       <c r="K3">
         <v>491.787234042553</v>
@@ -1498,16 +881,16 @@
         <v>712.28</v>
       </c>
       <c r="R3">
-        <v>36.0433333333333</v>
+        <v>36.043333333333301</v>
       </c>
       <c r="T3">
-        <v>918.823529411765</v>
+        <v>918.82352941176498</v>
       </c>
       <c r="U3">
-        <v>62.5294117647059</v>
+        <v>62.529411764705898</v>
       </c>
       <c r="W3">
-        <v>1180.66666666667</v>
+        <v>1180.6666666666699</v>
       </c>
       <c r="X3">
         <v>24.3333333333333</v>
@@ -1516,7 +899,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" ht="62.25" spans="3:26">
+    <row r="4" spans="2:26" ht="76.5">
       <c r="C4" t="s">
         <v>14</v>
       </c>
@@ -1524,16 +907,16 @@
         <v>15</v>
       </c>
       <c r="E4" s="15">
-        <v>2.4339409209068</v>
+        <v>2.4339409209067999</v>
       </c>
       <c r="K4">
-        <v>5.00747842864033</v>
+        <v>5.0074784286403302</v>
       </c>
       <c r="Q4">
-        <v>7.22906801007557</v>
+        <v>7.2290680100755704</v>
       </c>
       <c r="T4">
-        <v>9.31011112757446</v>
+        <v>9.3101111275744604</v>
       </c>
       <c r="W4">
         <v>11.9483291351806</v>
@@ -1542,7 +925,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" ht="14.25" spans="2:15">
+    <row r="6" spans="2:26">
       <c r="B6" t="s">
         <v>17</v>
       </c>
@@ -1553,13 +936,13 @@
         <v>311.767441860465</v>
       </c>
       <c r="F6">
-        <v>49.2303433001107</v>
+        <v>49.230343300110697</v>
       </c>
       <c r="H6">
-        <v>349.263736263736</v>
+        <v>349.26373626373601</v>
       </c>
       <c r="I6">
-        <v>4.39633699633699</v>
+        <v>4.3963369963369896</v>
       </c>
       <c r="K6">
         <v>502.5</v>
@@ -1571,10 +954,10 @@
         <v>587.3125</v>
       </c>
       <c r="O6">
-        <v>35.4475806451613</v>
-      </c>
-    </row>
-    <row r="7" ht="62.25" spans="3:4">
+        <v>35.447580645161302</v>
+      </c>
+    </row>
+    <row r="7" spans="2:26" ht="76.5">
       <c r="C7" t="s">
         <v>14</v>
       </c>
@@ -1582,7 +965,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" ht="14.25" spans="2:15">
+    <row r="9" spans="2:26">
       <c r="B9" t="s">
         <v>19</v>
       </c>
@@ -1590,25 +973,25 @@
         <v>12</v>
       </c>
       <c r="E9" s="16">
-        <v>276.232558139534</v>
+        <v>276.23255813953398</v>
       </c>
       <c r="F9">
-        <v>3.70653377630122</v>
+        <v>3.7065337763012201</v>
       </c>
       <c r="K9">
-        <v>534.739130434783</v>
+        <v>534.73913043478296</v>
       </c>
       <c r="L9">
-        <v>43.3526570048309</v>
+        <v>43.352657004830903</v>
       </c>
       <c r="N9">
-        <v>683.708333333333</v>
+        <v>683.70833333333303</v>
       </c>
       <c r="O9">
-        <v>135.69384057971</v>
-      </c>
-    </row>
-    <row r="10" ht="62.25" spans="3:4">
+        <v>135.69384057971001</v>
+      </c>
+    </row>
+    <row r="10" spans="2:26" ht="91.5">
       <c r="C10" t="s">
         <v>14</v>
       </c>
@@ -1616,7 +999,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" ht="14.25" spans="2:15">
+    <row r="12" spans="2:26">
       <c r="B12" t="s">
         <v>21</v>
       </c>
@@ -1624,31 +1007,31 @@
         <v>12</v>
       </c>
       <c r="E12" s="16">
-        <v>273.558139534883</v>
+        <v>273.55813953488303</v>
       </c>
       <c r="F12">
-        <v>9.20487264673312</v>
+        <v>9.2048726467331203</v>
       </c>
       <c r="H12" s="16">
         <v>317.622641509434</v>
       </c>
       <c r="I12">
-        <v>6.69433962264151</v>
+        <v>6.6943396226415102</v>
       </c>
       <c r="K12">
-        <v>483.95652173913</v>
+        <v>483.95652173912998</v>
       </c>
       <c r="L12">
-        <v>619.909178743961</v>
+        <v>619.90917874396098</v>
       </c>
       <c r="N12">
-        <v>661.583333333333</v>
+        <v>661.58333333333303</v>
       </c>
       <c r="O12">
-        <v>74.8785714285714</v>
-      </c>
-    </row>
-    <row r="13" ht="62.25" spans="3:4">
+        <v>74.878571428571405</v>
+      </c>
+    </row>
+    <row r="13" spans="2:26" ht="91.5">
       <c r="C13" t="s">
         <v>14</v>
       </c>
@@ -1656,7 +1039,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" ht="14.25" spans="2:15">
+    <row r="15" spans="2:26">
       <c r="B15" t="s">
         <v>23</v>
       </c>
@@ -1664,16 +1047,16 @@
         <v>12</v>
       </c>
       <c r="E15" s="16">
-        <v>289.976744186046</v>
+        <v>289.97674418604601</v>
       </c>
       <c r="F15">
         <v>12.9756367663344</v>
       </c>
       <c r="K15">
-        <v>471.239130434783</v>
+        <v>471.23913043478302</v>
       </c>
       <c r="L15">
-        <v>7.43043478260869</v>
+        <v>7.4304347826086898</v>
       </c>
       <c r="N15">
         <v>596.5625</v>
@@ -1682,7 +1065,7 @@
         <v>19.0625</v>
       </c>
     </row>
-    <row r="16" ht="62.25" spans="3:4">
+    <row r="16" spans="2:26" ht="76.5">
       <c r="C16" t="s">
         <v>14</v>
       </c>
@@ -1691,55 +1074,53 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AP16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="3" width="9.14166666666667" style="2"/>
-    <col min="4" max="4" width="2.14166666666667" style="2" customWidth="1"/>
-    <col min="5" max="5" width="8.425" style="2" customWidth="1"/>
-    <col min="6" max="6" width="4.425" style="2" customWidth="1"/>
-    <col min="7" max="7" width="3.56666666666667" style="2" customWidth="1"/>
-    <col min="8" max="9" width="9.14166666666667" style="2"/>
-    <col min="10" max="10" width="11.425" style="3"/>
-    <col min="11" max="11" width="9.14166666666667" style="3"/>
-    <col min="12" max="12" width="3.425" style="2" customWidth="1"/>
-    <col min="13" max="14" width="9.14166666666667" style="2"/>
-    <col min="15" max="16" width="9.14166666666667" style="3"/>
-    <col min="17" max="17" width="3.70833333333333" style="2" customWidth="1"/>
-    <col min="18" max="19" width="9.14166666666667" style="2"/>
-    <col min="20" max="21" width="9.14166666666667" style="3"/>
-    <col min="22" max="22" width="2.85833333333333" style="2" customWidth="1"/>
-    <col min="23" max="24" width="9.14166666666667" style="2"/>
-    <col min="25" max="26" width="9.14166666666667" style="3"/>
+    <col min="1" max="3" width="9.140625" style="2"/>
+    <col min="4" max="4" width="2.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="4.42578125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="3.5703125" style="2" customWidth="1"/>
+    <col min="8" max="9" width="9.140625" style="2"/>
+    <col min="10" max="10" width="11.42578125" style="3"/>
+    <col min="11" max="11" width="9.140625" style="3"/>
+    <col min="12" max="12" width="3.42578125" style="2" customWidth="1"/>
+    <col min="13" max="14" width="9.140625" style="2"/>
+    <col min="15" max="16" width="9.140625" style="3"/>
+    <col min="17" max="17" width="3.7109375" style="2" customWidth="1"/>
+    <col min="18" max="19" width="9.140625" style="2"/>
+    <col min="20" max="21" width="9.140625" style="3"/>
+    <col min="22" max="22" width="2.85546875" style="2" customWidth="1"/>
+    <col min="23" max="24" width="9.140625" style="2"/>
+    <col min="25" max="26" width="9.140625" style="3"/>
     <col min="27" max="27" width="5" style="4" customWidth="1"/>
-    <col min="28" max="28" width="9.14166666666667" style="4"/>
-    <col min="29" max="29" width="9.14166666666667" style="2"/>
-    <col min="30" max="31" width="9.14166666666667" style="5"/>
+    <col min="28" max="28" width="9.140625" style="4"/>
+    <col min="29" max="29" width="9.140625" style="2"/>
+    <col min="30" max="31" width="9.140625" style="5"/>
     <col min="32" max="32" width="5" style="2" customWidth="1"/>
-    <col min="33" max="34" width="9.14166666666667" style="2"/>
-    <col min="35" max="36" width="9.14166666666667" style="5"/>
-    <col min="37" max="37" width="1.28333333333333" style="2" customWidth="1"/>
-    <col min="38" max="39" width="9.14166666666667" style="2"/>
-    <col min="40" max="40" width="1.14166666666667" style="2" customWidth="1"/>
-    <col min="41" max="41" width="9.14166666666667" style="6"/>
-    <col min="42" max="16384" width="9.14166666666667" style="2"/>
+    <col min="33" max="34" width="9.140625" style="2"/>
+    <col min="35" max="36" width="9.140625" style="5"/>
+    <col min="37" max="37" width="1.28515625" style="2" customWidth="1"/>
+    <col min="38" max="39" width="9.140625" style="2"/>
+    <col min="40" max="40" width="1.140625" style="2" customWidth="1"/>
+    <col min="41" max="41" width="9.140625" style="6"/>
+    <col min="42" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:38">
+    <row r="1" spans="2:42">
       <c r="C1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1768,7 +1149,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="2:41">
+    <row r="2" spans="2:42">
       <c r="B2" s="6" t="s">
         <v>8</v>
       </c>
@@ -1869,40 +1250,40 @@
         <v>12</v>
       </c>
       <c r="J3" s="3">
-        <v>333.603773584906</v>
+        <v>333.60377358490598</v>
       </c>
       <c r="K3" s="3">
-        <v>1.50703820741166</v>
+        <v>1.5070382074116599</v>
       </c>
       <c r="O3" s="3">
-        <v>434.447916666667</v>
+        <v>434.44791666666703</v>
       </c>
       <c r="P3" s="3">
-        <v>1.90121039515842</v>
+        <v>1.9012103951584201</v>
       </c>
       <c r="T3" s="3">
-        <v>533.493927125506</v>
+        <v>533.49392712550605</v>
       </c>
       <c r="U3" s="3">
-        <v>2.46693553719008</v>
+        <v>2.4669355371900799</v>
       </c>
       <c r="Y3" s="3">
-        <v>626.151898734177</v>
+        <v>626.15189873417705</v>
       </c>
       <c r="Z3" s="3">
-        <v>3.57167393314837</v>
+        <v>3.5716739331483698</v>
       </c>
       <c r="AD3" s="5">
-        <v>724.064377682404</v>
+        <v>724.06437768240403</v>
       </c>
       <c r="AE3" s="5">
         <v>1.87045512142037</v>
       </c>
       <c r="AI3" s="5">
-        <v>846.405247813411</v>
+        <v>846.40524781341105</v>
       </c>
       <c r="AJ3" s="5">
-        <v>4.13904561142454</v>
+        <v>4.1390456114245398</v>
       </c>
       <c r="AO3" s="6" t="s">
         <v>30</v>
@@ -1911,7 +1292,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" ht="16.5" spans="3:42">
+    <row r="4" spans="2:42" ht="16.5">
       <c r="C4" s="2" t="s">
         <v>14</v>
       </c>
@@ -1920,11 +1301,11 @@
       <c r="X4" s="4"/>
       <c r="AP4" s="6"/>
     </row>
-    <row r="5" spans="8:9">
+    <row r="5" spans="2:42">
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
     </row>
-    <row r="6" spans="2:36">
+    <row r="6" spans="2:42">
       <c r="B6" s="2" t="s">
         <v>17</v>
       </c>
@@ -1933,53 +1314,53 @@
       </c>
       <c r="E6" s="10"/>
       <c r="J6" s="3">
-        <v>318.792452830189</v>
+        <v>318.79245283018901</v>
       </c>
       <c r="K6" s="3">
-        <v>2.61936225222637</v>
+        <v>2.6193622522263702</v>
       </c>
       <c r="O6" s="2">
-        <v>428.416666666667</v>
+        <v>428.41666666666703</v>
       </c>
       <c r="P6" s="3">
-        <v>8.1441794232823</v>
+        <v>8.1441794232822993</v>
       </c>
       <c r="T6" s="2">
-        <v>529.374545454546</v>
+        <v>529.37454545454602</v>
       </c>
       <c r="U6" s="3">
-        <v>2.57952163396936</v>
+        <v>2.5795216339693599</v>
       </c>
       <c r="Y6" s="2">
-        <v>624.740384615385</v>
+        <v>624.74038461538498</v>
       </c>
       <c r="Z6" s="3">
-        <v>4.24338585017836</v>
+        <v>4.2433858501783597</v>
       </c>
       <c r="AD6" s="5">
-        <v>718.655844155844</v>
+        <v>718.65584415584397</v>
       </c>
       <c r="AE6" s="5">
-        <v>2.83965397923876</v>
+        <v>2.8396539792387601</v>
       </c>
       <c r="AI6" s="5">
-        <v>820.031496062992</v>
+        <v>820.03149606299201</v>
       </c>
       <c r="AJ6" s="5">
-        <v>5.43433428901967</v>
-      </c>
-    </row>
-    <row r="7" ht="16.5" spans="3:4">
+        <v>5.4343342890196702</v>
+      </c>
+    </row>
+    <row r="7" spans="2:42" ht="16.5">
       <c r="C7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D7" s="7"/>
     </row>
-    <row r="8" spans="8:9">
+    <row r="8" spans="2:42">
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
     </row>
-    <row r="9" spans="2:36">
+    <row r="9" spans="2:42">
       <c r="B9" s="2" t="s">
         <v>19</v>
       </c>
@@ -1988,53 +1369,53 @@
       </c>
       <c r="E9" s="10"/>
       <c r="J9" s="3">
-        <v>322.584905660377</v>
+        <v>322.58490566037699</v>
       </c>
       <c r="K9" s="3">
-        <v>1.22263717322609</v>
+        <v>1.2226371732260899</v>
       </c>
       <c r="O9" s="3">
         <v>433.96875</v>
       </c>
       <c r="P9" s="3">
-        <v>1.50943396226415</v>
+        <v>1.5094339622641499</v>
       </c>
       <c r="T9" s="3">
         <v>539.638783269962</v>
       </c>
       <c r="U9" s="3">
-        <v>1.46692448368648</v>
+        <v>1.4669244836864801</v>
       </c>
       <c r="Y9" s="3">
-        <v>631.833333333333</v>
+        <v>631.83333333333303</v>
       </c>
       <c r="Z9" s="3">
-        <v>3.43603814801002</v>
+        <v>3.4360381480100202</v>
       </c>
       <c r="AD9" s="5">
-        <v>718.249011857708</v>
+        <v>718.24901185770796</v>
       </c>
       <c r="AE9" s="5">
         <v>2.39381466800066</v>
       </c>
       <c r="AI9" s="5">
-        <v>838.077639751553</v>
+        <v>838.07763975155297</v>
       </c>
       <c r="AJ9" s="5">
-        <v>3.70796791610749</v>
-      </c>
-    </row>
-    <row r="10" ht="16.5" spans="3:4">
+        <v>3.7079679161074899</v>
+      </c>
+    </row>
+    <row r="10" spans="2:42" ht="16.5">
       <c r="C10" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D10" s="7"/>
     </row>
-    <row r="11" spans="8:9">
+    <row r="11" spans="2:42">
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
     </row>
-    <row r="12" spans="2:36">
+    <row r="12" spans="2:42">
       <c r="B12" s="2" t="s">
         <v>21</v>
       </c>
@@ -2043,53 +1424,53 @@
       </c>
       <c r="E12" s="10"/>
       <c r="J12" s="3">
-        <v>352.117647058824</v>
+        <v>352.11764705882399</v>
       </c>
       <c r="K12" s="3">
-        <v>4.72329947676208</v>
+        <v>4.7232994767620804</v>
       </c>
       <c r="O12" s="3">
-        <v>467.354166666667</v>
+        <v>467.35416666666703</v>
       </c>
       <c r="P12" s="3">
-        <v>3.63011747953008</v>
+        <v>3.6301174795300799</v>
       </c>
       <c r="T12" s="3">
-        <v>523.479853479853</v>
+        <v>523.47985347985298</v>
       </c>
       <c r="U12" s="3">
-        <v>2.43945582677079</v>
+        <v>2.4394558267707902</v>
       </c>
       <c r="Y12" s="3">
-        <v>627.411764705882</v>
+        <v>627.41176470588198</v>
       </c>
       <c r="Z12" s="3">
         <v>8.30193909275933</v>
       </c>
       <c r="AD12" s="5">
-        <v>744.07874015748</v>
+        <v>744.07874015747996</v>
       </c>
       <c r="AE12" s="5">
         <v>2.62091947085157</v>
       </c>
       <c r="AI12" s="5">
-        <v>858.652421652422</v>
+        <v>858.65242165242205</v>
       </c>
       <c r="AJ12" s="5">
-        <v>7.21756137126261</v>
-      </c>
-    </row>
-    <row r="13" ht="16.5" spans="3:4">
+        <v>7.2175613712626099</v>
+      </c>
+    </row>
+    <row r="13" spans="2:42" ht="16.5">
       <c r="C13" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D13" s="7"/>
     </row>
-    <row r="14" spans="8:9">
+    <row r="14" spans="2:42">
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
     </row>
-    <row r="15" spans="2:36">
+    <row r="15" spans="2:42">
       <c r="B15" s="2" t="s">
         <v>23</v>
       </c>
@@ -2098,98 +1479,96 @@
       </c>
       <c r="E15" s="10"/>
       <c r="J15" s="3">
-        <v>322.22641509434</v>
+        <v>322.22641509433998</v>
       </c>
       <c r="K15" s="3">
-        <v>1.48750359092215</v>
+        <v>1.4875035909221499</v>
       </c>
       <c r="O15" s="3">
-        <v>419.572916666667</v>
+        <v>419.57291666666703</v>
       </c>
       <c r="P15" s="3">
         <v>1.82912068351727</v>
       </c>
       <c r="T15" s="3">
-        <v>510.621621621622</v>
+        <v>510.62162162162201</v>
       </c>
       <c r="U15" s="3">
         <v>2.95508625817966</v>
       </c>
       <c r="Y15" s="3">
-        <v>616.188976377953</v>
+        <v>616.18897637795305</v>
       </c>
       <c r="Z15" s="3">
-        <v>4.47220964740205</v>
+        <v>4.4722096474020496</v>
       </c>
       <c r="AD15" s="5">
         <v>707.2578125</v>
       </c>
       <c r="AE15" s="5">
-        <v>2.55613965483038</v>
+        <v>2.5561396548303801</v>
       </c>
       <c r="AI15" s="5">
-        <v>825.232258064516</v>
+        <v>825.23225806451603</v>
       </c>
       <c r="AJ15" s="5">
-        <v>4.51521935246751</v>
-      </c>
-    </row>
-    <row r="16" ht="16.5" spans="3:4">
+        <v>4.5152193524675104</v>
+      </c>
+    </row>
+    <row r="16" spans="2:42" ht="16.5">
       <c r="C16" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D16" s="7"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.786805555555556" bottom="0.786805555555556" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.78680555555555598" bottom="0.78680555555555598" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AP41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
-      <selection activeCell="AO10" sqref="AO10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3" style="2" customWidth="1"/>
-    <col min="2" max="3" width="9.14166666666667" style="2"/>
-    <col min="4" max="4" width="2.14166666666667" style="2" customWidth="1"/>
-    <col min="5" max="5" width="8.425" style="2" customWidth="1"/>
-    <col min="6" max="6" width="4.425" style="2" customWidth="1"/>
-    <col min="7" max="7" width="3.56666666666667" style="2" customWidth="1"/>
-    <col min="8" max="9" width="9.14166666666667" style="2"/>
-    <col min="10" max="11" width="9.14166666666667" style="3"/>
-    <col min="12" max="12" width="3.425" style="2" customWidth="1"/>
-    <col min="13" max="14" width="9.14166666666667" style="2"/>
-    <col min="15" max="16" width="9.14166666666667" style="3"/>
-    <col min="17" max="17" width="1.28333333333333" style="2" customWidth="1"/>
-    <col min="18" max="19" width="9.14166666666667" style="2"/>
-    <col min="20" max="21" width="9.14166666666667" style="3"/>
-    <col min="22" max="22" width="2.85833333333333" style="2" customWidth="1"/>
-    <col min="23" max="24" width="9.14166666666667" style="2"/>
-    <col min="25" max="26" width="9.14166666666667" style="3"/>
-    <col min="27" max="27" width="2.425" style="4" customWidth="1"/>
-    <col min="28" max="28" width="9.14166666666667" style="4"/>
-    <col min="29" max="29" width="9.14166666666667" style="2"/>
-    <col min="30" max="31" width="9.14166666666667" style="5"/>
-    <col min="32" max="32" width="1.70833333333333" style="2" customWidth="1"/>
-    <col min="33" max="34" width="9.14166666666667" style="2"/>
-    <col min="35" max="36" width="9.14166666666667" style="5"/>
-    <col min="37" max="37" width="1.28333333333333" style="2" customWidth="1"/>
-    <col min="38" max="39" width="9.14166666666667" style="2"/>
-    <col min="40" max="40" width="3.28333333333333" style="2" customWidth="1"/>
-    <col min="41" max="41" width="9.14166666666667" style="6"/>
-    <col min="42" max="16384" width="9.14166666666667" style="2"/>
+    <col min="2" max="3" width="9.140625" style="2"/>
+    <col min="4" max="4" width="2.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="4.42578125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="3.5703125" style="2" customWidth="1"/>
+    <col min="8" max="9" width="9.140625" style="2"/>
+    <col min="10" max="11" width="9.140625" style="3"/>
+    <col min="12" max="12" width="3.42578125" style="2" customWidth="1"/>
+    <col min="13" max="14" width="9.140625" style="2"/>
+    <col min="15" max="16" width="9.140625" style="3"/>
+    <col min="17" max="17" width="1.28515625" style="2" customWidth="1"/>
+    <col min="18" max="19" width="9.140625" style="2"/>
+    <col min="20" max="21" width="9.140625" style="3"/>
+    <col min="22" max="22" width="2.85546875" style="2" customWidth="1"/>
+    <col min="23" max="24" width="9.140625" style="2"/>
+    <col min="25" max="26" width="9.140625" style="3"/>
+    <col min="27" max="27" width="2.42578125" style="4" customWidth="1"/>
+    <col min="28" max="28" width="9.140625" style="4"/>
+    <col min="29" max="29" width="9.140625" style="2"/>
+    <col min="30" max="31" width="9.140625" style="5"/>
+    <col min="32" max="32" width="1.7109375" style="2" customWidth="1"/>
+    <col min="33" max="34" width="9.140625" style="2"/>
+    <col min="35" max="36" width="9.140625" style="5"/>
+    <col min="37" max="37" width="1.28515625" style="2" customWidth="1"/>
+    <col min="38" max="39" width="9.140625" style="2"/>
+    <col min="40" max="40" width="3.28515625" style="2" customWidth="1"/>
+    <col min="41" max="41" width="9.140625" style="6"/>
+    <col min="42" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:41">
+    <row r="1" spans="2:42">
       <c r="C1" s="6" t="s">
         <v>0</v>
       </c>
@@ -2325,43 +1704,43 @@
         <v>12</v>
       </c>
       <c r="J3" s="3">
-        <v>3158.83333333333</v>
+        <v>3158.8333333333298</v>
       </c>
       <c r="K3" s="3">
-        <v>35.2456574394463</v>
+        <v>35.245657439446298</v>
       </c>
       <c r="O3" s="3">
-        <v>4237.25222551929</v>
+        <v>4237.2522255192898</v>
       </c>
       <c r="P3" s="3">
-        <v>17.6589226666667</v>
+        <v>17.658922666666701</v>
       </c>
       <c r="T3" s="3">
-        <v>5428.47858942066</v>
+        <v>5428.4785894206598</v>
       </c>
       <c r="U3" s="3">
-        <v>23.1500557895116</v>
+        <v>23.150055789511601</v>
       </c>
       <c r="Y3" s="3">
-        <v>6453.11788617886</v>
+        <v>6453.1178861788603</v>
       </c>
       <c r="Z3" s="3">
         <v>27.2390838786438</v>
       </c>
       <c r="AI3" s="5">
-        <v>8251.85582010582</v>
+        <v>8251.8558201058204</v>
       </c>
       <c r="AJ3" s="5">
-        <v>38.2388500921202</v>
+        <v>38.238850092120202</v>
       </c>
       <c r="AO3" s="6">
-        <v>0.9734</v>
+        <v>0.97340000000000004</v>
       </c>
       <c r="AP3" s="2">
         <v>-159.5</v>
       </c>
     </row>
-    <row r="4" ht="16.5" spans="3:42">
+    <row r="4" spans="2:42" ht="16.5">
       <c r="C4" s="2" t="s">
         <v>14</v>
       </c>
@@ -2370,7 +1749,7 @@
       <c r="X4" s="4"/>
       <c r="AP4" s="6"/>
     </row>
-    <row r="5" spans="8:9">
+    <row r="5" spans="2:42">
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
     </row>
@@ -2383,7 +1762,7 @@
       </c>
       <c r="E6" s="10"/>
       <c r="J6" s="3">
-        <v>3235.05586942875</v>
+        <v>3235.0558694287502</v>
       </c>
       <c r="K6" s="3">
         <v>20.6112700692651</v>
@@ -2392,28 +1771,28 @@
         <v>32</v>
       </c>
       <c r="O6" s="2">
-        <v>4101.38095238095</v>
+        <v>4101.3809523809496</v>
       </c>
       <c r="P6" s="3">
         <v>24.9340587524099</v>
       </c>
       <c r="T6" s="2">
-        <v>5217.82962962963</v>
+        <v>5217.8296296296303</v>
       </c>
       <c r="U6" s="3">
-        <v>22.452377323612</v>
+        <v>22.452377323612001</v>
       </c>
       <c r="Y6" s="2">
-        <v>5919.39164370983</v>
+        <v>5919.3916437098296</v>
       </c>
       <c r="Z6" s="3">
-        <v>30.0226901623314</v>
+        <v>30.022690162331401</v>
       </c>
       <c r="AI6" s="5">
-        <v>8081.34496996997</v>
+        <v>8081.3449699699704</v>
       </c>
       <c r="AJ6" s="5">
-        <v>25.5073933984663</v>
+        <v>25.507393398466299</v>
       </c>
       <c r="AN6" s="9">
         <v>1</v>
@@ -2425,19 +1804,19 @@
         <v>-291.3</v>
       </c>
     </row>
-    <row r="7" ht="16.5" spans="3:42">
+    <row r="7" spans="2:42" ht="16.5">
       <c r="C7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D7" s="7"/>
-      <c r="N7" s="2">
+      <c r="N7" s="9">
         <v>1</v>
       </c>
       <c r="O7" s="3">
         <v>4109.42565597668</v>
       </c>
       <c r="P7" s="3">
-        <v>25.9468314492184</v>
+        <v>25.946831449218401</v>
       </c>
       <c r="AN7" s="2">
         <v>2</v>
@@ -2446,17 +1825,17 @@
         <v>1.032</v>
       </c>
       <c r="AP7" s="2">
-        <v>-276.4</v>
-      </c>
-    </row>
-    <row r="8" spans="8:42">
+        <v>-276.39999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="2:42">
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
       <c r="N8" s="2">
         <v>2</v>
       </c>
       <c r="O8" s="3">
-        <v>4088.33497536946</v>
+        <v>4088.3349753694602</v>
       </c>
       <c r="P8" s="3">
         <v>19.5649185185185</v>
@@ -2465,10 +1844,10 @@
         <v>32</v>
       </c>
       <c r="AO8" s="6">
-        <v>1.033</v>
+        <v>1.0329999999999999</v>
       </c>
       <c r="AP8" s="2">
-        <v>-285.6</v>
+        <v>-285.60000000000002</v>
       </c>
     </row>
     <row r="9" spans="2:42">
@@ -2480,49 +1859,49 @@
       </c>
       <c r="E9" s="10"/>
       <c r="J9" s="3">
-        <v>3337.36094674556</v>
+        <v>3337.3609467455599</v>
       </c>
       <c r="K9" s="3">
         <v>14.7810943866003</v>
       </c>
       <c r="O9" s="3">
-        <v>4308.78734177215</v>
+        <v>4308.7873417721503</v>
       </c>
       <c r="P9" s="3">
         <v>28.318761318175</v>
       </c>
       <c r="T9" s="3">
-        <v>5137.60891089109</v>
+        <v>5137.6089108910901</v>
       </c>
       <c r="U9" s="3">
-        <v>20.1601961096939</v>
+        <v>20.160196109693899</v>
       </c>
       <c r="Y9" s="3">
-        <v>6208.8702435312</v>
+        <v>6208.8702435311998</v>
       </c>
       <c r="Z9" s="3">
-        <v>24.999786545318</v>
+        <v>24.999786545317999</v>
       </c>
       <c r="AI9" s="5">
-        <v>8390.27577216206</v>
+        <v>8390.2757721620601</v>
       </c>
       <c r="AJ9" s="5">
         <v>60.5598701924986</v>
       </c>
       <c r="AO9" s="6">
-        <v>0.9893</v>
+        <v>0.98929999999999996</v>
       </c>
       <c r="AP9" s="2">
         <v>-218.1</v>
       </c>
     </row>
-    <row r="10" ht="16.5" spans="3:4">
+    <row r="10" spans="2:42" ht="16.5">
       <c r="C10" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D10" s="7"/>
     </row>
-    <row r="11" spans="8:9">
+    <row r="11" spans="2:42">
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
     </row>
@@ -2535,34 +1914,34 @@
       </c>
       <c r="E12" s="10"/>
       <c r="J12" s="3">
-        <v>3274.36011904762</v>
+        <v>3274.3601190476202</v>
       </c>
       <c r="K12" s="3">
-        <v>13.7975635562927</v>
+        <v>13.797563556292699</v>
       </c>
       <c r="O12" s="3">
-        <v>4701.51351351351</v>
+        <v>4701.5135135135097</v>
       </c>
       <c r="P12" s="3">
-        <v>19.7969609506393</v>
+        <v>19.796960950639299</v>
       </c>
       <c r="T12" s="3">
-        <v>5407.78325123153</v>
+        <v>5407.7832512315299</v>
       </c>
       <c r="U12" s="3">
         <v>23.5817507244107</v>
       </c>
       <c r="Y12" s="3">
-        <v>6566.58201058201</v>
+        <v>6566.5820105820103</v>
       </c>
       <c r="Z12" s="3">
-        <v>32.8796825396825</v>
+        <v>32.879682539682499</v>
       </c>
       <c r="AI12" s="5">
-        <v>8048.37884914464</v>
+        <v>8048.3788491446403</v>
       </c>
       <c r="AJ12" s="5">
-        <v>36.3142070449019</v>
+        <v>36.314207044901899</v>
       </c>
       <c r="AO12" s="6">
         <v>1.052</v>
@@ -2571,13 +1950,13 @@
         <v>-688.6</v>
       </c>
     </row>
-    <row r="13" ht="16.5" spans="3:4">
+    <row r="13" spans="2:42" ht="16.5">
       <c r="C13" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D13" s="7"/>
     </row>
-    <row r="14" spans="8:9">
+    <row r="14" spans="2:42">
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
     </row>
@@ -2590,43 +1969,43 @@
       </c>
       <c r="E15" s="10"/>
       <c r="J15" s="3">
-        <v>3187.37350119904</v>
+        <v>3187.3735011990402</v>
       </c>
       <c r="K15" s="3">
-        <v>27.3274638993844</v>
+        <v>27.327463899384401</v>
       </c>
       <c r="O15" s="3">
-        <v>4300.88148148148</v>
+        <v>4300.8814814814796</v>
       </c>
       <c r="P15" s="3">
-        <v>24.9543206630919</v>
+        <v>24.954320663091899</v>
       </c>
       <c r="T15" s="3">
-        <v>5367.57046979866</v>
+        <v>5367.5704697986603</v>
       </c>
       <c r="U15" s="3">
-        <v>23.8170592974345</v>
+        <v>23.817059297434501</v>
       </c>
       <c r="Y15" s="3">
-        <v>6237.76911314985</v>
+        <v>6237.7691131498505</v>
       </c>
       <c r="Z15" s="3">
         <v>19.6181020116152</v>
       </c>
       <c r="AI15" s="5">
-        <v>8135.18888888889</v>
+        <v>8135.1888888888898</v>
       </c>
       <c r="AJ15" s="5">
-        <v>43.8301806094172</v>
+        <v>43.830180609417198</v>
       </c>
       <c r="AO15" s="6">
-        <v>1.017</v>
+        <v>1.0169999999999999</v>
       </c>
       <c r="AP15" s="2">
         <v>-339</v>
       </c>
     </row>
-    <row r="16" ht="16.5" spans="3:15">
+    <row r="16" spans="2:42" ht="16.5">
       <c r="C16" s="2" t="s">
         <v>14</v>
       </c>
@@ -2645,10 +2024,10 @@
         <v>34</v>
       </c>
       <c r="J18" s="3">
-        <v>3445.12881464825</v>
+        <v>3445.1288146482502</v>
       </c>
       <c r="K18" s="3">
-        <v>16.5636063343433</v>
+        <v>16.563606334343302</v>
       </c>
       <c r="N18" s="2" t="s">
         <v>35</v>
@@ -2657,19 +2036,19 @@
         <v>36</v>
       </c>
       <c r="T18" s="3">
-        <v>5582.21234567901</v>
+        <v>5582.2123456790096</v>
       </c>
       <c r="U18" s="3">
         <v>19.8668541452599</v>
       </c>
       <c r="Y18" s="3">
-        <v>6282.34305150632</v>
+        <v>6282.3430515063201</v>
       </c>
       <c r="Z18" s="3">
-        <v>17.2493996549055</v>
+        <v>17.249399654905499</v>
       </c>
       <c r="AI18" s="5">
-        <v>8132.49187725632</v>
+        <v>8132.4918772563196</v>
       </c>
       <c r="AJ18" s="5">
         <v>28.5014857845756</v>
@@ -2678,13 +2057,13 @@
         <v>1</v>
       </c>
       <c r="AO18" s="11">
-        <v>1.074</v>
+        <v>1.0740000000000001</v>
       </c>
       <c r="AP18" s="9">
         <v>-796.4</v>
       </c>
     </row>
-    <row r="19" ht="16.5" spans="3:42">
+    <row r="19" spans="2:42" ht="16.5">
       <c r="C19" s="2" t="s">
         <v>14</v>
       </c>
@@ -2693,104 +2072,104 @@
         <v>37</v>
       </c>
       <c r="J19" s="3">
-        <v>3327.86842105263</v>
+        <v>3333.8056994818699</v>
       </c>
       <c r="K19" s="3">
-        <v>98.733560090703</v>
-      </c>
-      <c r="N19" s="2">
+        <v>132.316796226744</v>
+      </c>
+      <c r="N19" s="9">
         <v>1</v>
       </c>
       <c r="O19" s="2">
-        <v>4476.08374384236</v>
+        <v>4476.0837438423596</v>
       </c>
       <c r="P19" s="3">
-        <v>26.092187654321</v>
+        <v>26.092187654320998</v>
       </c>
       <c r="AN19" s="2">
         <v>2</v>
       </c>
       <c r="AO19" s="6">
-        <v>1.092</v>
+        <v>1.0920000000000001</v>
       </c>
       <c r="AP19" s="2">
         <v>-946.9</v>
       </c>
     </row>
-    <row r="20" spans="14:16">
+    <row r="20" spans="2:42">
       <c r="N20" s="2">
         <v>2</v>
       </c>
       <c r="O20" s="3">
-        <v>4702.56976744186</v>
+        <v>4702.5697674418598</v>
       </c>
       <c r="P20" s="3">
-        <v>36.951135734072</v>
-      </c>
-    </row>
-    <row r="22" s="1" customFormat="1" spans="41:41">
+        <v>36.951135734071997</v>
+      </c>
+    </row>
+    <row r="22" spans="2:42" s="1" customFormat="1">
       <c r="AO22" s="12"/>
     </row>
-    <row r="26" spans="12:14">
+    <row r="26" spans="2:42">
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
       <c r="N26" s="5"/>
     </row>
-    <row r="27" spans="12:14">
+    <row r="27" spans="2:42">
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
       <c r="N27" s="5"/>
     </row>
-    <row r="28" spans="12:14">
+    <row r="28" spans="2:42">
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
       <c r="N28" s="5"/>
     </row>
-    <row r="29" spans="11:14">
+    <row r="29" spans="2:42">
       <c r="K29" s="2"/>
       <c r="N29" s="5"/>
     </row>
-    <row r="30" spans="12:14">
+    <row r="30" spans="2:42">
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
       <c r="N30" s="5"/>
     </row>
-    <row r="31" spans="12:14">
+    <row r="31" spans="2:42">
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
       <c r="N31" s="5"/>
     </row>
-    <row r="32" spans="12:14">
+    <row r="32" spans="2:42">
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
       <c r="N32" s="5"/>
     </row>
-    <row r="33" spans="12:14">
+    <row r="33" spans="11:14">
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
       <c r="N33" s="5"/>
     </row>
-    <row r="34" spans="12:14">
+    <row r="34" spans="11:14">
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
       <c r="N34" s="5"/>
     </row>
-    <row r="35" spans="12:14">
+    <row r="35" spans="11:14">
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
       <c r="N35" s="5"/>
     </row>
-    <row r="36" spans="12:14">
+    <row r="36" spans="11:14">
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
       <c r="N36" s="5"/>
     </row>
-    <row r="37" spans="12:14">
+    <row r="37" spans="11:14">
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
       <c r="N37" s="5"/>
     </row>
-    <row r="38" spans="12:14">
+    <row r="38" spans="11:14">
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
       <c r="N38" s="5"/>
@@ -2801,7 +2180,7 @@
       <c r="M39" s="3"/>
       <c r="N39" s="5"/>
     </row>
-    <row r="40" spans="12:14">
+    <row r="40" spans="11:14">
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="5"/>
@@ -2813,7 +2192,6 @@
       <c r="N41" s="5"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.786805555555556" bottom="0.786805555555556" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.78680555555555598" bottom="0.78680555555555598" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/communicate_with_basis_station_in_matlab/calibrations/outdoor/OUTDOOR_MEASUREMENT_07_27_2017/outdoor_calibration_results.xlsx
+++ b/communicate_with_basis_station_in_matlab/calibrations/outdoor/OUTDOOR_MEASUREMENT_07_27_2017/outdoor_calibration_results.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Yitong\GitHub\thesis_indoorLocalization\communicate_with_basis_station_in_matlab\calibrations\outdoor\OUTDOOR_MEASUREMENT_07_27_2017\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14295" windowHeight="12630" activeTab="2"/>
+    <workbookView windowWidth="19095" windowHeight="12210" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -21,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43">
   <si>
     <t>x</t>
   </si>
@@ -312,16 +307,37 @@
   <si>
     <t>LESS DATA 1</t>
   </si>
+  <si>
+    <t>´3m</t>
+  </si>
+  <si>
+    <t>4m</t>
+  </si>
+  <si>
+    <t>5m</t>
+  </si>
+  <si>
+    <t>6m</t>
+  </si>
+  <si>
+    <t>8m</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -331,7 +347,7 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -340,6 +356,150 @@
       <color rgb="FF005CC5"/>
       <name val="Segoe UI"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -354,7 +514,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -369,7 +529,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79992065187536243"/>
+        <fgColor theme="4" tint="0.799920651875362"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -381,7 +541,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79992065187536243"/>
+        <fgColor theme="7" tint="0.799920651875362"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -397,8 +557,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -436,9 +782,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="37" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -463,17 +1051,61 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -522,7 +1154,7 @@
     </a:clrScheme>
     <a:fontScheme name="Larissa">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -557,7 +1189,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -760,31 +1392,31 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="B1:Z16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="13.5"/>
   <cols>
-    <col min="5" max="5" width="13.85546875" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125"/>
-    <col min="11" max="12" width="12.5703125"/>
-    <col min="14" max="16" width="12.5703125"/>
-    <col min="17" max="17" width="11.42578125"/>
-    <col min="20" max="20" width="12.5703125"/>
-    <col min="23" max="23" width="12.5703125"/>
-    <col min="26" max="26" width="9.140625" style="13"/>
+    <col min="5" max="5" width="13.8583333333333" customWidth="1"/>
+    <col min="6" max="6" width="12.5666666666667"/>
+    <col min="11" max="12" width="12.5666666666667"/>
+    <col min="14" max="16" width="12.5666666666667"/>
+    <col min="17" max="17" width="11.425"/>
+    <col min="20" max="20" width="12.5666666666667"/>
+    <col min="23" max="23" width="12.5666666666667"/>
+    <col min="26" max="26" width="9.14166666666667" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:26">
+    <row r="1" spans="3:23">
       <c r="C1" s="13" t="s">
         <v>0</v>
       </c>
@@ -810,7 +1442,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="2:26">
+    <row r="2" spans="2:24">
       <c r="B2" s="13" t="s">
         <v>8</v>
       </c>
@@ -858,7 +1490,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:26">
+    <row r="3" ht="14.25" spans="2:26">
       <c r="B3" t="s">
         <v>11</v>
       </c>
@@ -869,7 +1501,7 @@
         <v>236.363636363636</v>
       </c>
       <c r="F3">
-        <v>4.3763213530655403</v>
+        <v>4.37632135306554</v>
       </c>
       <c r="K3">
         <v>491.787234042553</v>
@@ -881,16 +1513,16 @@
         <v>712.28</v>
       </c>
       <c r="R3">
-        <v>36.043333333333301</v>
+        <v>36.0433333333333</v>
       </c>
       <c r="T3">
-        <v>918.82352941176498</v>
+        <v>918.823529411765</v>
       </c>
       <c r="U3">
-        <v>62.529411764705898</v>
+        <v>62.5294117647059</v>
       </c>
       <c r="W3">
-        <v>1180.6666666666699</v>
+        <v>1180.66666666667</v>
       </c>
       <c r="X3">
         <v>24.3333333333333</v>
@@ -899,7 +1531,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="2:26" ht="76.5">
+    <row r="4" ht="62.25" spans="3:26">
       <c r="C4" t="s">
         <v>14</v>
       </c>
@@ -907,16 +1539,16 @@
         <v>15</v>
       </c>
       <c r="E4" s="15">
-        <v>2.4339409209067999</v>
+        <v>2.4339409209068</v>
       </c>
       <c r="K4">
-        <v>5.0074784286403302</v>
+        <v>5.00747842864033</v>
       </c>
       <c r="Q4">
-        <v>7.2290680100755704</v>
+        <v>7.22906801007557</v>
       </c>
       <c r="T4">
-        <v>9.3101111275744604</v>
+        <v>9.31011112757446</v>
       </c>
       <c r="W4">
         <v>11.9483291351806</v>
@@ -925,7 +1557,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="2:26">
+    <row r="6" ht="14.25" spans="2:15">
       <c r="B6" t="s">
         <v>17</v>
       </c>
@@ -936,13 +1568,13 @@
         <v>311.767441860465</v>
       </c>
       <c r="F6">
-        <v>49.230343300110697</v>
+        <v>49.2303433001107</v>
       </c>
       <c r="H6">
-        <v>349.26373626373601</v>
+        <v>349.263736263736</v>
       </c>
       <c r="I6">
-        <v>4.3963369963369896</v>
+        <v>4.39633699633699</v>
       </c>
       <c r="K6">
         <v>502.5</v>
@@ -954,10 +1586,10 @@
         <v>587.3125</v>
       </c>
       <c r="O6">
-        <v>35.447580645161302</v>
-      </c>
-    </row>
-    <row r="7" spans="2:26" ht="76.5">
+        <v>35.4475806451613</v>
+      </c>
+    </row>
+    <row r="7" ht="62.25" spans="3:4">
       <c r="C7" t="s">
         <v>14</v>
       </c>
@@ -965,7 +1597,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="2:26">
+    <row r="9" ht="14.25" spans="2:15">
       <c r="B9" t="s">
         <v>19</v>
       </c>
@@ -973,25 +1605,25 @@
         <v>12</v>
       </c>
       <c r="E9" s="16">
-        <v>276.23255813953398</v>
+        <v>276.232558139534</v>
       </c>
       <c r="F9">
-        <v>3.7065337763012201</v>
+        <v>3.70653377630122</v>
       </c>
       <c r="K9">
-        <v>534.73913043478296</v>
+        <v>534.739130434783</v>
       </c>
       <c r="L9">
-        <v>43.352657004830903</v>
+        <v>43.3526570048309</v>
       </c>
       <c r="N9">
-        <v>683.70833333333303</v>
+        <v>683.708333333333</v>
       </c>
       <c r="O9">
-        <v>135.69384057971001</v>
-      </c>
-    </row>
-    <row r="10" spans="2:26" ht="91.5">
+        <v>135.69384057971</v>
+      </c>
+    </row>
+    <row r="10" ht="62.25" spans="3:4">
       <c r="C10" t="s">
         <v>14</v>
       </c>
@@ -999,7 +1631,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="2:26">
+    <row r="12" ht="14.25" spans="2:15">
       <c r="B12" t="s">
         <v>21</v>
       </c>
@@ -1007,31 +1639,31 @@
         <v>12</v>
       </c>
       <c r="E12" s="16">
-        <v>273.55813953488303</v>
+        <v>273.558139534883</v>
       </c>
       <c r="F12">
-        <v>9.2048726467331203</v>
+        <v>9.20487264673312</v>
       </c>
       <c r="H12" s="16">
         <v>317.622641509434</v>
       </c>
       <c r="I12">
-        <v>6.6943396226415102</v>
+        <v>6.69433962264151</v>
       </c>
       <c r="K12">
-        <v>483.95652173912998</v>
+        <v>483.95652173913</v>
       </c>
       <c r="L12">
-        <v>619.90917874396098</v>
+        <v>619.909178743961</v>
       </c>
       <c r="N12">
-        <v>661.58333333333303</v>
+        <v>661.583333333333</v>
       </c>
       <c r="O12">
-        <v>74.878571428571405</v>
-      </c>
-    </row>
-    <row r="13" spans="2:26" ht="91.5">
+        <v>74.8785714285714</v>
+      </c>
+    </row>
+    <row r="13" ht="62.25" spans="3:4">
       <c r="C13" t="s">
         <v>14</v>
       </c>
@@ -1039,7 +1671,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="2:26">
+    <row r="15" ht="14.25" spans="2:15">
       <c r="B15" t="s">
         <v>23</v>
       </c>
@@ -1047,16 +1679,16 @@
         <v>12</v>
       </c>
       <c r="E15" s="16">
-        <v>289.97674418604601</v>
+        <v>289.976744186046</v>
       </c>
       <c r="F15">
         <v>12.9756367663344</v>
       </c>
       <c r="K15">
-        <v>471.23913043478302</v>
+        <v>471.239130434783</v>
       </c>
       <c r="L15">
-        <v>7.4304347826086898</v>
+        <v>7.43043478260869</v>
       </c>
       <c r="N15">
         <v>596.5625</v>
@@ -1065,7 +1697,7 @@
         <v>19.0625</v>
       </c>
     </row>
-    <row r="16" spans="2:26" ht="76.5">
+    <row r="16" ht="62.25" spans="3:4">
       <c r="C16" t="s">
         <v>14</v>
       </c>
@@ -1074,53 +1706,55 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="B1:AP16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="3" width="9.140625" style="2"/>
-    <col min="4" max="4" width="2.140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="4.42578125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="3.5703125" style="2" customWidth="1"/>
-    <col min="8" max="9" width="9.140625" style="2"/>
-    <col min="10" max="10" width="11.42578125" style="3"/>
-    <col min="11" max="11" width="9.140625" style="3"/>
-    <col min="12" max="12" width="3.42578125" style="2" customWidth="1"/>
-    <col min="13" max="14" width="9.140625" style="2"/>
-    <col min="15" max="16" width="9.140625" style="3"/>
-    <col min="17" max="17" width="3.7109375" style="2" customWidth="1"/>
-    <col min="18" max="19" width="9.140625" style="2"/>
-    <col min="20" max="21" width="9.140625" style="3"/>
-    <col min="22" max="22" width="2.85546875" style="2" customWidth="1"/>
-    <col min="23" max="24" width="9.140625" style="2"/>
-    <col min="25" max="26" width="9.140625" style="3"/>
+    <col min="1" max="3" width="9.14166666666667" style="2"/>
+    <col min="4" max="4" width="2.14166666666667" style="2" customWidth="1"/>
+    <col min="5" max="5" width="8.425" style="2" customWidth="1"/>
+    <col min="6" max="6" width="4.425" style="2" customWidth="1"/>
+    <col min="7" max="7" width="3.56666666666667" style="2" customWidth="1"/>
+    <col min="8" max="9" width="9.14166666666667" style="2"/>
+    <col min="10" max="10" width="11.425" style="3"/>
+    <col min="11" max="11" width="9.14166666666667" style="3"/>
+    <col min="12" max="12" width="3.425" style="2" customWidth="1"/>
+    <col min="13" max="14" width="9.14166666666667" style="2"/>
+    <col min="15" max="16" width="9.14166666666667" style="3"/>
+    <col min="17" max="17" width="3.70833333333333" style="2" customWidth="1"/>
+    <col min="18" max="19" width="9.14166666666667" style="2"/>
+    <col min="20" max="21" width="9.14166666666667" style="3"/>
+    <col min="22" max="22" width="2.85833333333333" style="2" customWidth="1"/>
+    <col min="23" max="24" width="9.14166666666667" style="2"/>
+    <col min="25" max="26" width="9.14166666666667" style="3"/>
     <col min="27" max="27" width="5" style="4" customWidth="1"/>
-    <col min="28" max="28" width="9.140625" style="4"/>
-    <col min="29" max="29" width="9.140625" style="2"/>
-    <col min="30" max="31" width="9.140625" style="5"/>
+    <col min="28" max="28" width="9.14166666666667" style="4"/>
+    <col min="29" max="29" width="9.14166666666667" style="2"/>
+    <col min="30" max="31" width="9.14166666666667" style="5"/>
     <col min="32" max="32" width="5" style="2" customWidth="1"/>
-    <col min="33" max="34" width="9.140625" style="2"/>
-    <col min="35" max="36" width="9.140625" style="5"/>
-    <col min="37" max="37" width="1.28515625" style="2" customWidth="1"/>
-    <col min="38" max="39" width="9.140625" style="2"/>
-    <col min="40" max="40" width="1.140625" style="2" customWidth="1"/>
-    <col min="41" max="41" width="9.140625" style="6"/>
-    <col min="42" max="16384" width="9.140625" style="2"/>
+    <col min="33" max="34" width="9.14166666666667" style="2"/>
+    <col min="35" max="36" width="9.14166666666667" style="5"/>
+    <col min="37" max="37" width="1.28333333333333" style="2" customWidth="1"/>
+    <col min="38" max="39" width="9.14166666666667" style="2"/>
+    <col min="40" max="40" width="1.14166666666667" style="2" customWidth="1"/>
+    <col min="41" max="41" width="9.14166666666667" style="6"/>
+    <col min="42" max="16384" width="9.14166666666667" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:42">
+    <row r="1" spans="3:38">
       <c r="C1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1149,7 +1783,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="2:42">
+    <row r="2" spans="2:41">
       <c r="B2" s="6" t="s">
         <v>8</v>
       </c>
@@ -1250,40 +1884,40 @@
         <v>12</v>
       </c>
       <c r="J3" s="3">
-        <v>333.60377358490598</v>
+        <v>333.603773584906</v>
       </c>
       <c r="K3" s="3">
-        <v>1.5070382074116599</v>
+        <v>1.50703820741166</v>
       </c>
       <c r="O3" s="3">
-        <v>434.44791666666703</v>
+        <v>434.447916666667</v>
       </c>
       <c r="P3" s="3">
-        <v>1.9012103951584201</v>
+        <v>1.90121039515842</v>
       </c>
       <c r="T3" s="3">
-        <v>533.49392712550605</v>
+        <v>533.493927125506</v>
       </c>
       <c r="U3" s="3">
-        <v>2.4669355371900799</v>
+        <v>2.46693553719008</v>
       </c>
       <c r="Y3" s="3">
-        <v>626.15189873417705</v>
+        <v>626.151898734177</v>
       </c>
       <c r="Z3" s="3">
-        <v>3.5716739331483698</v>
+        <v>3.57167393314837</v>
       </c>
       <c r="AD3" s="5">
-        <v>724.06437768240403</v>
+        <v>724.064377682404</v>
       </c>
       <c r="AE3" s="5">
         <v>1.87045512142037</v>
       </c>
       <c r="AI3" s="5">
-        <v>846.40524781341105</v>
+        <v>846.405247813411</v>
       </c>
       <c r="AJ3" s="5">
-        <v>4.1390456114245398</v>
+        <v>4.13904561142454</v>
       </c>
       <c r="AO3" s="6" t="s">
         <v>30</v>
@@ -1292,7 +1926,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="2:42" ht="16.5">
+    <row r="4" ht="16.5" spans="3:42">
       <c r="C4" s="2" t="s">
         <v>14</v>
       </c>
@@ -1301,11 +1935,11 @@
       <c r="X4" s="4"/>
       <c r="AP4" s="6"/>
     </row>
-    <row r="5" spans="2:42">
+    <row r="5" spans="8:9">
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
     </row>
-    <row r="6" spans="2:42">
+    <row r="6" spans="2:36">
       <c r="B6" s="2" t="s">
         <v>17</v>
       </c>
@@ -1314,53 +1948,53 @@
       </c>
       <c r="E6" s="10"/>
       <c r="J6" s="3">
-        <v>318.79245283018901</v>
+        <v>318.792452830189</v>
       </c>
       <c r="K6" s="3">
-        <v>2.6193622522263702</v>
+        <v>2.61936225222637</v>
       </c>
       <c r="O6" s="2">
-        <v>428.41666666666703</v>
+        <v>428.416666666667</v>
       </c>
       <c r="P6" s="3">
-        <v>8.1441794232822993</v>
+        <v>8.1441794232823</v>
       </c>
       <c r="T6" s="2">
-        <v>529.37454545454602</v>
+        <v>529.374545454546</v>
       </c>
       <c r="U6" s="3">
-        <v>2.5795216339693599</v>
+        <v>2.57952163396936</v>
       </c>
       <c r="Y6" s="2">
-        <v>624.74038461538498</v>
+        <v>624.740384615385</v>
       </c>
       <c r="Z6" s="3">
-        <v>4.2433858501783597</v>
+        <v>4.24338585017836</v>
       </c>
       <c r="AD6" s="5">
-        <v>718.65584415584397</v>
+        <v>718.655844155844</v>
       </c>
       <c r="AE6" s="5">
-        <v>2.8396539792387601</v>
+        <v>2.83965397923876</v>
       </c>
       <c r="AI6" s="5">
-        <v>820.03149606299201</v>
+        <v>820.031496062992</v>
       </c>
       <c r="AJ6" s="5">
-        <v>5.4343342890196702</v>
-      </c>
-    </row>
-    <row r="7" spans="2:42" ht="16.5">
+        <v>5.43433428901967</v>
+      </c>
+    </row>
+    <row r="7" ht="16.5" spans="3:4">
       <c r="C7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D7" s="7"/>
     </row>
-    <row r="8" spans="2:42">
+    <row r="8" spans="8:9">
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
     </row>
-    <row r="9" spans="2:42">
+    <row r="9" spans="2:36">
       <c r="B9" s="2" t="s">
         <v>19</v>
       </c>
@@ -1369,53 +2003,53 @@
       </c>
       <c r="E9" s="10"/>
       <c r="J9" s="3">
-        <v>322.58490566037699</v>
+        <v>322.584905660377</v>
       </c>
       <c r="K9" s="3">
-        <v>1.2226371732260899</v>
+        <v>1.22263717322609</v>
       </c>
       <c r="O9" s="3">
         <v>433.96875</v>
       </c>
       <c r="P9" s="3">
-        <v>1.5094339622641499</v>
+        <v>1.50943396226415</v>
       </c>
       <c r="T9" s="3">
         <v>539.638783269962</v>
       </c>
       <c r="U9" s="3">
-        <v>1.4669244836864801</v>
+        <v>1.46692448368648</v>
       </c>
       <c r="Y9" s="3">
-        <v>631.83333333333303</v>
+        <v>631.833333333333</v>
       </c>
       <c r="Z9" s="3">
-        <v>3.4360381480100202</v>
+        <v>3.43603814801002</v>
       </c>
       <c r="AD9" s="5">
-        <v>718.24901185770796</v>
+        <v>718.249011857708</v>
       </c>
       <c r="AE9" s="5">
         <v>2.39381466800066</v>
       </c>
       <c r="AI9" s="5">
-        <v>838.07763975155297</v>
+        <v>838.077639751553</v>
       </c>
       <c r="AJ9" s="5">
-        <v>3.7079679161074899</v>
-      </c>
-    </row>
-    <row r="10" spans="2:42" ht="16.5">
+        <v>3.70796791610749</v>
+      </c>
+    </row>
+    <row r="10" ht="16.5" spans="3:4">
       <c r="C10" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D10" s="7"/>
     </row>
-    <row r="11" spans="2:42">
+    <row r="11" spans="8:9">
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
     </row>
-    <row r="12" spans="2:42">
+    <row r="12" spans="2:36">
       <c r="B12" s="2" t="s">
         <v>21</v>
       </c>
@@ -1424,53 +2058,53 @@
       </c>
       <c r="E12" s="10"/>
       <c r="J12" s="3">
-        <v>352.11764705882399</v>
+        <v>352.117647058824</v>
       </c>
       <c r="K12" s="3">
-        <v>4.7232994767620804</v>
+        <v>4.72329947676208</v>
       </c>
       <c r="O12" s="3">
-        <v>467.35416666666703</v>
+        <v>467.354166666667</v>
       </c>
       <c r="P12" s="3">
-        <v>3.6301174795300799</v>
+        <v>3.63011747953008</v>
       </c>
       <c r="T12" s="3">
-        <v>523.47985347985298</v>
+        <v>523.479853479853</v>
       </c>
       <c r="U12" s="3">
-        <v>2.4394558267707902</v>
+        <v>2.43945582677079</v>
       </c>
       <c r="Y12" s="3">
-        <v>627.41176470588198</v>
+        <v>627.411764705882</v>
       </c>
       <c r="Z12" s="3">
         <v>8.30193909275933</v>
       </c>
       <c r="AD12" s="5">
-        <v>744.07874015747996</v>
+        <v>744.07874015748</v>
       </c>
       <c r="AE12" s="5">
         <v>2.62091947085157</v>
       </c>
       <c r="AI12" s="5">
-        <v>858.65242165242205</v>
+        <v>858.652421652422</v>
       </c>
       <c r="AJ12" s="5">
-        <v>7.2175613712626099</v>
-      </c>
-    </row>
-    <row r="13" spans="2:42" ht="16.5">
+        <v>7.21756137126261</v>
+      </c>
+    </row>
+    <row r="13" ht="16.5" spans="3:4">
       <c r="C13" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D13" s="7"/>
     </row>
-    <row r="14" spans="2:42">
+    <row r="14" spans="8:9">
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
     </row>
-    <row r="15" spans="2:42">
+    <row r="15" spans="2:36">
       <c r="B15" s="2" t="s">
         <v>23</v>
       </c>
@@ -1479,96 +2113,99 @@
       </c>
       <c r="E15" s="10"/>
       <c r="J15" s="3">
-        <v>322.22641509433998</v>
+        <v>322.22641509434</v>
       </c>
       <c r="K15" s="3">
-        <v>1.4875035909221499</v>
+        <v>1.48750359092215</v>
       </c>
       <c r="O15" s="3">
-        <v>419.57291666666703</v>
+        <v>419.572916666667</v>
       </c>
       <c r="P15" s="3">
         <v>1.82912068351727</v>
       </c>
       <c r="T15" s="3">
-        <v>510.62162162162201</v>
+        <v>510.621621621622</v>
       </c>
       <c r="U15" s="3">
         <v>2.95508625817966</v>
       </c>
       <c r="Y15" s="3">
-        <v>616.18897637795305</v>
+        <v>616.188976377953</v>
       </c>
       <c r="Z15" s="3">
-        <v>4.4722096474020496</v>
+        <v>4.47220964740205</v>
       </c>
       <c r="AD15" s="5">
         <v>707.2578125</v>
       </c>
       <c r="AE15" s="5">
-        <v>2.5561396548303801</v>
+        <v>2.55613965483038</v>
       </c>
       <c r="AI15" s="5">
-        <v>825.23225806451603</v>
+        <v>825.232258064516</v>
       </c>
       <c r="AJ15" s="5">
-        <v>4.5152193524675104</v>
-      </c>
-    </row>
-    <row r="16" spans="2:42" ht="16.5">
+        <v>4.51521935246751</v>
+      </c>
+    </row>
+    <row r="16" ht="16.5" spans="3:4">
       <c r="C16" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D16" s="7"/>
     </row>
   </sheetData>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.78680555555555598" bottom="0.78680555555555598" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.786805555555556" bottom="0.786805555555556" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:AP41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B1:AP44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+    <sheetView tabSelected="1" topLeftCell="H10" workbookViewId="0">
+      <selection activeCell="T21" sqref="T21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3" style="2" customWidth="1"/>
-    <col min="2" max="3" width="9.140625" style="2"/>
-    <col min="4" max="4" width="2.140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="4.42578125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="3.5703125" style="2" customWidth="1"/>
-    <col min="8" max="9" width="9.140625" style="2"/>
-    <col min="10" max="11" width="9.140625" style="3"/>
-    <col min="12" max="12" width="3.42578125" style="2" customWidth="1"/>
-    <col min="13" max="14" width="9.140625" style="2"/>
-    <col min="15" max="16" width="9.140625" style="3"/>
-    <col min="17" max="17" width="1.28515625" style="2" customWidth="1"/>
-    <col min="18" max="19" width="9.140625" style="2"/>
-    <col min="20" max="21" width="9.140625" style="3"/>
-    <col min="22" max="22" width="2.85546875" style="2" customWidth="1"/>
-    <col min="23" max="24" width="9.140625" style="2"/>
-    <col min="25" max="26" width="9.140625" style="3"/>
-    <col min="27" max="27" width="2.42578125" style="4" customWidth="1"/>
-    <col min="28" max="28" width="9.140625" style="4"/>
-    <col min="29" max="29" width="9.140625" style="2"/>
-    <col min="30" max="31" width="9.140625" style="5"/>
-    <col min="32" max="32" width="1.7109375" style="2" customWidth="1"/>
-    <col min="33" max="34" width="9.140625" style="2"/>
-    <col min="35" max="36" width="9.140625" style="5"/>
-    <col min="37" max="37" width="1.28515625" style="2" customWidth="1"/>
-    <col min="38" max="39" width="9.140625" style="2"/>
-    <col min="40" max="40" width="3.28515625" style="2" customWidth="1"/>
-    <col min="41" max="41" width="9.140625" style="6"/>
-    <col min="42" max="16384" width="9.140625" style="2"/>
+    <col min="2" max="3" width="9.14166666666667" style="2"/>
+    <col min="4" max="4" width="2.14166666666667" style="2" customWidth="1"/>
+    <col min="5" max="5" width="8.425" style="2" customWidth="1"/>
+    <col min="6" max="6" width="4.425" style="2" customWidth="1"/>
+    <col min="7" max="7" width="3.56666666666667" style="2" customWidth="1"/>
+    <col min="8" max="9" width="9.14166666666667" style="2"/>
+    <col min="10" max="11" width="9.14166666666667" style="3"/>
+    <col min="12" max="12" width="3.425" style="2" customWidth="1"/>
+    <col min="13" max="14" width="9.14166666666667" style="2"/>
+    <col min="15" max="16" width="9.14166666666667" style="3"/>
+    <col min="17" max="17" width="1.28333333333333" style="2" customWidth="1"/>
+    <col min="18" max="19" width="9.14166666666667" style="2"/>
+    <col min="20" max="21" width="9.14166666666667" style="3"/>
+    <col min="22" max="22" width="2.85833333333333" style="2" customWidth="1"/>
+    <col min="23" max="23" width="12.625" style="2"/>
+    <col min="24" max="24" width="9.14166666666667" style="2"/>
+    <col min="25" max="26" width="9.14166666666667" style="3"/>
+    <col min="27" max="27" width="2.425" style="4" customWidth="1"/>
+    <col min="28" max="28" width="9.14166666666667" style="4"/>
+    <col min="29" max="29" width="9.14166666666667" style="2"/>
+    <col min="30" max="31" width="9.14166666666667" style="5"/>
+    <col min="32" max="32" width="1.70833333333333" style="2" customWidth="1"/>
+    <col min="33" max="34" width="9.14166666666667" style="2"/>
+    <col min="35" max="36" width="9.14166666666667" style="5"/>
+    <col min="37" max="37" width="1.28333333333333" style="2" customWidth="1"/>
+    <col min="38" max="39" width="9.14166666666667" style="2"/>
+    <col min="40" max="40" width="3.28333333333333" style="2" customWidth="1"/>
+    <col min="41" max="41" width="9.14166666666667" style="6"/>
+    <col min="42" max="16384" width="9.14166666666667" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:42">
+    <row r="1" spans="3:41">
       <c r="C1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1704,43 +2341,43 @@
         <v>12</v>
       </c>
       <c r="J3" s="3">
-        <v>3158.8333333333298</v>
+        <v>3158.83333333333</v>
       </c>
       <c r="K3" s="3">
-        <v>35.245657439446298</v>
+        <v>35.2456574394463</v>
       </c>
       <c r="O3" s="3">
-        <v>4237.2522255192898</v>
+        <v>4237.25222551929</v>
       </c>
       <c r="P3" s="3">
-        <v>17.658922666666701</v>
+        <v>17.6589226666667</v>
       </c>
       <c r="T3" s="3">
-        <v>5428.4785894206598</v>
+        <v>5428.47858942066</v>
       </c>
       <c r="U3" s="3">
-        <v>23.150055789511601</v>
+        <v>23.1500557895116</v>
       </c>
       <c r="Y3" s="3">
-        <v>6453.1178861788603</v>
+        <v>6453.11788617886</v>
       </c>
       <c r="Z3" s="3">
         <v>27.2390838786438</v>
       </c>
       <c r="AI3" s="5">
-        <v>8251.8558201058204</v>
+        <v>8251.85582010582</v>
       </c>
       <c r="AJ3" s="5">
-        <v>38.238850092120202</v>
+        <v>38.2388500921202</v>
       </c>
       <c r="AO3" s="6">
-        <v>0.97340000000000004</v>
+        <v>0.9734</v>
       </c>
       <c r="AP3" s="2">
         <v>-159.5</v>
       </c>
     </row>
-    <row r="4" spans="2:42" ht="16.5">
+    <row r="4" ht="16.5" spans="3:42">
       <c r="C4" s="2" t="s">
         <v>14</v>
       </c>
@@ -1749,7 +2386,7 @@
       <c r="X4" s="4"/>
       <c r="AP4" s="6"/>
     </row>
-    <row r="5" spans="2:42">
+    <row r="5" spans="8:9">
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
     </row>
@@ -1762,7 +2399,7 @@
       </c>
       <c r="E6" s="10"/>
       <c r="J6" s="3">
-        <v>3235.0558694287502</v>
+        <v>3235.05586942875</v>
       </c>
       <c r="K6" s="3">
         <v>20.6112700692651</v>
@@ -1771,28 +2408,28 @@
         <v>32</v>
       </c>
       <c r="O6" s="2">
-        <v>4101.3809523809496</v>
+        <v>4101.38095238095</v>
       </c>
       <c r="P6" s="3">
         <v>24.9340587524099</v>
       </c>
       <c r="T6" s="2">
-        <v>5217.8296296296303</v>
+        <v>5217.82962962963</v>
       </c>
       <c r="U6" s="3">
-        <v>22.452377323612001</v>
+        <v>22.452377323612</v>
       </c>
       <c r="Y6" s="2">
-        <v>5919.3916437098296</v>
+        <v>5919.39164370983</v>
       </c>
       <c r="Z6" s="3">
-        <v>30.022690162331401</v>
+        <v>30.0226901623314</v>
       </c>
       <c r="AI6" s="5">
-        <v>8081.3449699699704</v>
+        <v>8081.34496996997</v>
       </c>
       <c r="AJ6" s="5">
-        <v>25.507393398466299</v>
+        <v>25.5073933984663</v>
       </c>
       <c r="AN6" s="9">
         <v>1</v>
@@ -1804,7 +2441,7 @@
         <v>-291.3</v>
       </c>
     </row>
-    <row r="7" spans="2:42" ht="16.5">
+    <row r="7" ht="16.5" spans="3:42">
       <c r="C7" s="2" t="s">
         <v>14</v>
       </c>
@@ -1816,7 +2453,7 @@
         <v>4109.42565597668</v>
       </c>
       <c r="P7" s="3">
-        <v>25.946831449218401</v>
+        <v>25.9468314492184</v>
       </c>
       <c r="AN7" s="2">
         <v>2</v>
@@ -1825,17 +2462,17 @@
         <v>1.032</v>
       </c>
       <c r="AP7" s="2">
-        <v>-276.39999999999998</v>
-      </c>
-    </row>
-    <row r="8" spans="2:42">
+        <v>-276.4</v>
+      </c>
+    </row>
+    <row r="8" spans="8:42">
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
       <c r="N8" s="2">
         <v>2</v>
       </c>
       <c r="O8" s="3">
-        <v>4088.3349753694602</v>
+        <v>4088.33497536946</v>
       </c>
       <c r="P8" s="3">
         <v>19.5649185185185</v>
@@ -1844,10 +2481,10 @@
         <v>32</v>
       </c>
       <c r="AO8" s="6">
-        <v>1.0329999999999999</v>
+        <v>1.033</v>
       </c>
       <c r="AP8" s="2">
-        <v>-285.60000000000002</v>
+        <v>-285.6</v>
       </c>
     </row>
     <row r="9" spans="2:42">
@@ -1859,49 +2496,49 @@
       </c>
       <c r="E9" s="10"/>
       <c r="J9" s="3">
-        <v>3337.3609467455599</v>
+        <v>3337.36094674556</v>
       </c>
       <c r="K9" s="3">
         <v>14.7810943866003</v>
       </c>
       <c r="O9" s="3">
-        <v>4308.7873417721503</v>
+        <v>4308.78734177215</v>
       </c>
       <c r="P9" s="3">
         <v>28.318761318175</v>
       </c>
       <c r="T9" s="3">
-        <v>5137.6089108910901</v>
+        <v>5137.60891089109</v>
       </c>
       <c r="U9" s="3">
-        <v>20.160196109693899</v>
+        <v>20.1601961096939</v>
       </c>
       <c r="Y9" s="3">
-        <v>6208.8702435311998</v>
+        <v>6208.8702435312</v>
       </c>
       <c r="Z9" s="3">
-        <v>24.999786545317999</v>
+        <v>24.999786545318</v>
       </c>
       <c r="AI9" s="5">
-        <v>8390.2757721620601</v>
+        <v>8390.27577216206</v>
       </c>
       <c r="AJ9" s="5">
         <v>60.5598701924986</v>
       </c>
       <c r="AO9" s="6">
-        <v>0.98929999999999996</v>
+        <v>0.9893</v>
       </c>
       <c r="AP9" s="2">
         <v>-218.1</v>
       </c>
     </row>
-    <row r="10" spans="2:42" ht="16.5">
+    <row r="10" ht="16.5" spans="3:4">
       <c r="C10" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D10" s="7"/>
     </row>
-    <row r="11" spans="2:42">
+    <row r="11" spans="8:9">
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
     </row>
@@ -1914,34 +2551,34 @@
       </c>
       <c r="E12" s="10"/>
       <c r="J12" s="3">
-        <v>3274.3601190476202</v>
+        <v>3274.36011904762</v>
       </c>
       <c r="K12" s="3">
-        <v>13.797563556292699</v>
+        <v>13.7975635562927</v>
       </c>
       <c r="O12" s="3">
-        <v>4701.5135135135097</v>
+        <v>4701.51351351351</v>
       </c>
       <c r="P12" s="3">
-        <v>19.796960950639299</v>
+        <v>19.7969609506393</v>
       </c>
       <c r="T12" s="3">
-        <v>5407.7832512315299</v>
+        <v>5407.78325123153</v>
       </c>
       <c r="U12" s="3">
         <v>23.5817507244107</v>
       </c>
       <c r="Y12" s="3">
-        <v>6566.5820105820103</v>
+        <v>6566.58201058201</v>
       </c>
       <c r="Z12" s="3">
-        <v>32.879682539682499</v>
+        <v>32.8796825396825</v>
       </c>
       <c r="AI12" s="5">
-        <v>8048.3788491446403</v>
+        <v>8048.37884914464</v>
       </c>
       <c r="AJ12" s="5">
-        <v>36.314207044901899</v>
+        <v>36.3142070449019</v>
       </c>
       <c r="AO12" s="6">
         <v>1.052</v>
@@ -1950,13 +2587,13 @@
         <v>-688.6</v>
       </c>
     </row>
-    <row r="13" spans="2:42" ht="16.5">
+    <row r="13" ht="16.5" spans="3:4">
       <c r="C13" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D13" s="7"/>
     </row>
-    <row r="14" spans="2:42">
+    <row r="14" spans="8:9">
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
     </row>
@@ -1969,43 +2606,43 @@
       </c>
       <c r="E15" s="10"/>
       <c r="J15" s="3">
-        <v>3187.3735011990402</v>
+        <v>3187.37350119904</v>
       </c>
       <c r="K15" s="3">
-        <v>27.327463899384401</v>
+        <v>27.3274638993844</v>
       </c>
       <c r="O15" s="3">
-        <v>4300.8814814814796</v>
+        <v>4300.88148148148</v>
       </c>
       <c r="P15" s="3">
-        <v>24.954320663091899</v>
+        <v>24.9543206630919</v>
       </c>
       <c r="T15" s="3">
-        <v>5367.5704697986603</v>
+        <v>5367.57046979866</v>
       </c>
       <c r="U15" s="3">
-        <v>23.817059297434501</v>
+        <v>23.8170592974345</v>
       </c>
       <c r="Y15" s="3">
-        <v>6237.7691131498505</v>
+        <v>6237.76911314985</v>
       </c>
       <c r="Z15" s="3">
         <v>19.6181020116152</v>
       </c>
       <c r="AI15" s="5">
-        <v>8135.1888888888898</v>
+        <v>8135.18888888889</v>
       </c>
       <c r="AJ15" s="5">
-        <v>43.830180609417198</v>
+        <v>43.8301806094172</v>
       </c>
       <c r="AO15" s="6">
-        <v>1.0169999999999999</v>
+        <v>1.017</v>
       </c>
       <c r="AP15" s="2">
         <v>-339</v>
       </c>
     </row>
-    <row r="16" spans="2:42" ht="16.5">
+    <row r="16" ht="16.5" spans="3:15">
       <c r="C16" s="2" t="s">
         <v>14</v>
       </c>
@@ -2024,10 +2661,10 @@
         <v>34</v>
       </c>
       <c r="J18" s="3">
-        <v>3445.1288146482502</v>
+        <v>3445.12881464825</v>
       </c>
       <c r="K18" s="3">
-        <v>16.563606334343302</v>
+        <v>16.5636063343433</v>
       </c>
       <c r="N18" s="2" t="s">
         <v>35</v>
@@ -2036,19 +2673,19 @@
         <v>36</v>
       </c>
       <c r="T18" s="3">
-        <v>5582.2123456790096</v>
+        <v>5582.21234567901</v>
       </c>
       <c r="U18" s="3">
         <v>19.8668541452599</v>
       </c>
       <c r="Y18" s="3">
-        <v>6282.3430515063201</v>
+        <v>6282.34305150632</v>
       </c>
       <c r="Z18" s="3">
-        <v>17.249399654905499</v>
+        <v>17.2493996549055</v>
       </c>
       <c r="AI18" s="5">
-        <v>8132.4918772563196</v>
+        <v>8132.49187725632</v>
       </c>
       <c r="AJ18" s="5">
         <v>28.5014857845756</v>
@@ -2057,13 +2694,13 @@
         <v>1</v>
       </c>
       <c r="AO18" s="11">
-        <v>1.0740000000000001</v>
+        <v>1.074</v>
       </c>
       <c r="AP18" s="9">
         <v>-796.4</v>
       </c>
     </row>
-    <row r="19" spans="2:42" ht="16.5">
+    <row r="19" ht="16.5" spans="3:42">
       <c r="C19" s="2" t="s">
         <v>14</v>
       </c>
@@ -2072,7 +2709,7 @@
         <v>37</v>
       </c>
       <c r="J19" s="3">
-        <v>3333.8056994818699</v>
+        <v>3333.80569948187</v>
       </c>
       <c r="K19" s="3">
         <v>132.316796226744</v>
@@ -2081,117 +2718,290 @@
         <v>1</v>
       </c>
       <c r="O19" s="2">
-        <v>4476.0837438423596</v>
+        <v>4476.08374384236</v>
       </c>
       <c r="P19" s="3">
-        <v>26.092187654320998</v>
+        <v>26.092187654321</v>
       </c>
       <c r="AN19" s="2">
         <v>2</v>
       </c>
       <c r="AO19" s="6">
-        <v>1.0920000000000001</v>
+        <v>1.092</v>
       </c>
       <c r="AP19" s="2">
         <v>-946.9</v>
       </c>
     </row>
-    <row r="20" spans="2:42">
+    <row r="20" spans="14:16">
       <c r="N20" s="2">
         <v>2</v>
       </c>
       <c r="O20" s="3">
-        <v>4702.5697674418598</v>
+        <v>4702.56976744186</v>
       </c>
       <c r="P20" s="3">
-        <v>36.951135734071997</v>
-      </c>
-    </row>
-    <row r="22" spans="2:42" s="1" customFormat="1">
+        <v>36.951135734072</v>
+      </c>
+    </row>
+    <row r="22" s="1" customFormat="1" spans="41:41">
       <c r="AO22" s="12"/>
     </row>
-    <row r="26" spans="2:42">
+    <row r="26" spans="12:14">
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
       <c r="N26" s="5"/>
     </row>
-    <row r="27" spans="2:42">
+    <row r="27" spans="12:23">
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
       <c r="N27" s="5"/>
-    </row>
-    <row r="28" spans="2:42">
+      <c r="P27" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="R27" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="S27" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="T27" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="U27" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="V27" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="W27" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="12:23">
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
       <c r="N28" s="5"/>
-    </row>
-    <row r="29" spans="2:42">
+      <c r="R28" s="3">
+        <v>35.2456574394463</v>
+      </c>
+      <c r="S28" s="3">
+        <v>17.6589226666667</v>
+      </c>
+      <c r="T28" s="3">
+        <v>23.1500557895116</v>
+      </c>
+      <c r="U28" s="3">
+        <v>27.2390838786438</v>
+      </c>
+      <c r="V28" s="5">
+        <v>38.2388500921202</v>
+      </c>
+      <c r="W28" s="2">
+        <f>AVERAGE(R28,S28,T28,U28,V28)</f>
+        <v>28.3065139732777</v>
+      </c>
+    </row>
+    <row r="29" spans="11:22">
       <c r="K29" s="2"/>
       <c r="N29" s="5"/>
-    </row>
-    <row r="30" spans="2:42">
+      <c r="R29" s="3"/>
+      <c r="S29" s="3"/>
+      <c r="V29" s="5"/>
+    </row>
+    <row r="30" spans="12:22">
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
       <c r="N30" s="5"/>
-    </row>
-    <row r="31" spans="2:42">
+      <c r="R30" s="3"/>
+      <c r="S30" s="3"/>
+      <c r="V30" s="5"/>
+    </row>
+    <row r="31" spans="12:23">
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
       <c r="N31" s="5"/>
-    </row>
-    <row r="32" spans="2:42">
+      <c r="R31" s="3">
+        <v>20.6112700692651</v>
+      </c>
+      <c r="S31" s="3">
+        <v>24.9340587524099</v>
+      </c>
+      <c r="T31" s="3">
+        <v>22.452377323612</v>
+      </c>
+      <c r="U31" s="3">
+        <v>30.0226901623314</v>
+      </c>
+      <c r="V31" s="5">
+        <v>25.5073933984663</v>
+      </c>
+      <c r="W31" s="2">
+        <f>AVERAGE(R31,S31,T31,U31,V31)</f>
+        <v>24.7055579412169</v>
+      </c>
+    </row>
+    <row r="32" spans="12:22">
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
       <c r="N32" s="5"/>
-    </row>
-    <row r="33" spans="11:14">
+      <c r="R32" s="3"/>
+      <c r="S32" s="3"/>
+      <c r="V32" s="5"/>
+    </row>
+    <row r="33" spans="12:22">
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
       <c r="N33" s="5"/>
-    </row>
-    <row r="34" spans="11:14">
+      <c r="R33" s="3"/>
+      <c r="S33" s="3"/>
+      <c r="V33" s="5"/>
+    </row>
+    <row r="34" spans="12:23">
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
       <c r="N34" s="5"/>
-    </row>
-    <row r="35" spans="11:14">
+      <c r="R34" s="3">
+        <v>14.7810943866003</v>
+      </c>
+      <c r="S34" s="3">
+        <v>28.318761318175</v>
+      </c>
+      <c r="T34" s="3">
+        <v>20.1601961096939</v>
+      </c>
+      <c r="U34" s="3">
+        <v>24.999786545318</v>
+      </c>
+      <c r="V34" s="5">
+        <v>60.5598701924986</v>
+      </c>
+      <c r="W34" s="2">
+        <f>AVERAGE(R34,S34,T34,U34,V34)</f>
+        <v>29.7639417104572</v>
+      </c>
+    </row>
+    <row r="35" spans="12:22">
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
       <c r="N35" s="5"/>
-    </row>
-    <row r="36" spans="11:14">
+      <c r="R35" s="3"/>
+      <c r="S35" s="3"/>
+      <c r="V35" s="5"/>
+    </row>
+    <row r="36" spans="12:22">
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
       <c r="N36" s="5"/>
-    </row>
-    <row r="37" spans="11:14">
+      <c r="R36" s="3"/>
+      <c r="S36" s="3"/>
+      <c r="V36" s="5"/>
+    </row>
+    <row r="37" spans="12:23">
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
       <c r="N37" s="5"/>
-    </row>
-    <row r="38" spans="11:14">
+      <c r="R37" s="3">
+        <v>13.7975635562927</v>
+      </c>
+      <c r="S37" s="3">
+        <v>19.7969609506393</v>
+      </c>
+      <c r="T37" s="3">
+        <v>23.5817507244107</v>
+      </c>
+      <c r="U37" s="3">
+        <v>32.8796825396825</v>
+      </c>
+      <c r="V37" s="5">
+        <v>36.3142070449019</v>
+      </c>
+      <c r="W37" s="2">
+        <f>AVERAGE(R37,S37,T37,U37,V37)</f>
+        <v>25.2740329631854</v>
+      </c>
+    </row>
+    <row r="38" spans="12:22">
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
       <c r="N38" s="5"/>
-    </row>
-    <row r="39" spans="11:14">
+      <c r="R38" s="3"/>
+      <c r="S38" s="3"/>
+      <c r="V38" s="5"/>
+    </row>
+    <row r="39" spans="11:22">
       <c r="K39" s="2"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="5"/>
-    </row>
-    <row r="40" spans="11:14">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+      <c r="V39" s="5"/>
+    </row>
+    <row r="40" spans="12:23">
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="5"/>
-    </row>
-    <row r="41" spans="11:14">
+      <c r="R40" s="3">
+        <v>27.3274638993844</v>
+      </c>
+      <c r="S40" s="3">
+        <v>24.9543206630919</v>
+      </c>
+      <c r="T40" s="3">
+        <v>23.8170592974345</v>
+      </c>
+      <c r="U40" s="3">
+        <v>19.6181020116152</v>
+      </c>
+      <c r="V40" s="5">
+        <v>43.8301806094172</v>
+      </c>
+      <c r="W40" s="2">
+        <f>AVERAGE(R40,S40,T40,U40,V40)</f>
+        <v>27.9094252961886</v>
+      </c>
+    </row>
+    <row r="41" spans="11:22">
       <c r="K41" s="2"/>
       <c r="L41" s="3"/>
       <c r="M41" s="3"/>
       <c r="N41" s="5"/>
+      <c r="R41" s="3"/>
+      <c r="S41" s="3"/>
+      <c r="V41" s="5"/>
+    </row>
+    <row r="42" spans="18:22">
+      <c r="R42" s="3"/>
+      <c r="S42" s="3"/>
+      <c r="V42" s="5"/>
+    </row>
+    <row r="43" spans="18:23">
+      <c r="R43" s="3">
+        <v>16.5636063343433</v>
+      </c>
+      <c r="S43" s="3">
+        <v>26.092187654321</v>
+      </c>
+      <c r="T43" s="3">
+        <v>19.8668541452599</v>
+      </c>
+      <c r="U43" s="3">
+        <v>17.2493996549055</v>
+      </c>
+      <c r="V43" s="5">
+        <v>28.5014857845756</v>
+      </c>
+      <c r="W43" s="2">
+        <f>AVERAGE(R43,S43,T43,U43,V43)</f>
+        <v>21.6547067146811</v>
+      </c>
+    </row>
+    <row r="44" spans="19:19">
+      <c r="S44" s="3"/>
     </row>
   </sheetData>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.78680555555555598" bottom="0.78680555555555598" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.786805555555556" bottom="0.786805555555556" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/communicate_with_basis_station_in_matlab/calibrations/outdoor/OUTDOOR_MEASUREMENT_07_27_2017/outdoor_calibration_results.xlsx
+++ b/communicate_with_basis_station_in_matlab/calibrations/outdoor/OUTDOOR_MEASUREMENT_07_27_2017/outdoor_calibration_results.xlsx
@@ -329,9 +329,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -359,6 +359,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -366,7 +373,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -389,15 +396,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -405,28 +412,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -440,9 +425,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -450,40 +442,9 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -503,6 +464,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -514,7 +514,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -559,6 +559,150 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -571,7 +715,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -583,163 +727,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -794,44 +788,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -852,16 +811,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -880,151 +848,177 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="37" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2165,10 +2159,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:AP44"/>
+  <dimension ref="B1:AP41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H10" workbookViewId="0">
-      <selection activeCell="T21" sqref="T21"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="Y28" sqref="Y28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="13.5"/>
@@ -2183,14 +2177,14 @@
     <col min="10" max="11" width="9.14166666666667" style="3"/>
     <col min="12" max="12" width="3.425" style="2" customWidth="1"/>
     <col min="13" max="14" width="9.14166666666667" style="2"/>
-    <col min="15" max="16" width="9.14166666666667" style="3"/>
+    <col min="15" max="16" width="12.625" style="3"/>
     <col min="17" max="17" width="1.28333333333333" style="2" customWidth="1"/>
-    <col min="18" max="19" width="9.14166666666667" style="2"/>
-    <col min="20" max="21" width="9.14166666666667" style="3"/>
-    <col min="22" max="22" width="2.85833333333333" style="2" customWidth="1"/>
+    <col min="18" max="19" width="12.625" style="2"/>
+    <col min="20" max="21" width="12.625" style="3"/>
+    <col min="22" max="22" width="6" style="2" customWidth="1"/>
     <col min="23" max="23" width="12.625" style="2"/>
     <col min="24" max="24" width="9.14166666666667" style="2"/>
-    <col min="25" max="26" width="9.14166666666667" style="3"/>
+    <col min="25" max="26" width="12.625" style="3"/>
     <col min="27" max="27" width="2.425" style="4" customWidth="1"/>
     <col min="28" max="28" width="9.14166666666667" style="4"/>
     <col min="29" max="29" width="9.14166666666667" style="2"/>
@@ -2747,35 +2741,50 @@
     <row r="22" s="1" customFormat="1" spans="41:41">
       <c r="AO22" s="12"/>
     </row>
-    <row r="26" spans="12:14">
+    <row r="26" spans="12:23">
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
       <c r="N26" s="5"/>
-    </row>
-    <row r="27" spans="12:23">
+      <c r="R26" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="S26" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="T26" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="U26" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="V26" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="W26" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="12:22">
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
       <c r="N27" s="5"/>
       <c r="P27" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="R27" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="S27" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="T27" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="U27" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="V27" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="W27" s="2" t="s">
-        <v>9</v>
+      <c r="R27" s="2">
+        <v>3</v>
+      </c>
+      <c r="S27" s="2">
+        <v>4</v>
+      </c>
+      <c r="T27" s="3">
+        <v>5</v>
+      </c>
+      <c r="U27" s="3">
+        <v>6</v>
+      </c>
+      <c r="V27" s="2">
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="12:23">
@@ -2802,203 +2811,167 @@
         <v>28.3065139732777</v>
       </c>
     </row>
-    <row r="29" spans="11:22">
+    <row r="29" spans="11:23">
       <c r="K29" s="2"/>
       <c r="N29" s="5"/>
-      <c r="R29" s="3"/>
-      <c r="S29" s="3"/>
-      <c r="V29" s="5"/>
-    </row>
-    <row r="30" spans="12:22">
+      <c r="R29" s="3">
+        <v>20.6112700692651</v>
+      </c>
+      <c r="S29" s="3">
+        <v>24.9340587524099</v>
+      </c>
+      <c r="T29" s="3">
+        <v>22.452377323612</v>
+      </c>
+      <c r="U29" s="3">
+        <v>30.0226901623314</v>
+      </c>
+      <c r="V29" s="5">
+        <v>25.5073933984663</v>
+      </c>
+      <c r="W29" s="2">
+        <f>AVERAGE(R29,S29,T29,U29,V29)</f>
+        <v>24.7055579412169</v>
+      </c>
+    </row>
+    <row r="30" spans="12:23">
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
       <c r="N30" s="5"/>
-      <c r="R30" s="3"/>
-      <c r="S30" s="3"/>
-      <c r="V30" s="5"/>
+      <c r="R30" s="3">
+        <v>14.7810943866003</v>
+      </c>
+      <c r="S30" s="3">
+        <v>28.318761318175</v>
+      </c>
+      <c r="T30" s="3">
+        <v>20.1601961096939</v>
+      </c>
+      <c r="U30" s="3">
+        <v>24.999786545318</v>
+      </c>
+      <c r="V30" s="5">
+        <v>60.5598701924986</v>
+      </c>
+      <c r="W30" s="2">
+        <f>AVERAGE(R30,S30,T30,U30,V30)</f>
+        <v>29.7639417104572</v>
+      </c>
     </row>
     <row r="31" spans="12:23">
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
       <c r="N31" s="5"/>
       <c r="R31" s="3">
-        <v>20.6112700692651</v>
+        <v>13.7975635562927</v>
       </c>
       <c r="S31" s="3">
-        <v>24.9340587524099</v>
+        <v>19.7969609506393</v>
       </c>
       <c r="T31" s="3">
-        <v>22.452377323612</v>
+        <v>23.5817507244107</v>
       </c>
       <c r="U31" s="3">
-        <v>30.0226901623314</v>
+        <v>32.8796825396825</v>
       </c>
       <c r="V31" s="5">
-        <v>25.5073933984663</v>
+        <v>36.3142070449019</v>
       </c>
       <c r="W31" s="2">
         <f>AVERAGE(R31,S31,T31,U31,V31)</f>
-        <v>24.7055579412169</v>
-      </c>
-    </row>
-    <row r="32" spans="12:22">
+        <v>25.2740329631854</v>
+      </c>
+    </row>
+    <row r="32" spans="12:23">
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
       <c r="N32" s="5"/>
-      <c r="R32" s="3"/>
-      <c r="S32" s="3"/>
-      <c r="V32" s="5"/>
-    </row>
-    <row r="33" spans="12:22">
+      <c r="R32" s="3">
+        <v>27.3274638993844</v>
+      </c>
+      <c r="S32" s="3">
+        <v>24.9543206630919</v>
+      </c>
+      <c r="T32" s="3">
+        <v>23.8170592974345</v>
+      </c>
+      <c r="U32" s="3">
+        <v>19.6181020116152</v>
+      </c>
+      <c r="V32" s="5">
+        <v>43.8301806094172</v>
+      </c>
+      <c r="W32" s="2">
+        <f>AVERAGE(R32,S32,T32,U32,V32)</f>
+        <v>27.9094252961886</v>
+      </c>
+    </row>
+    <row r="33" spans="12:23">
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
       <c r="N33" s="5"/>
-      <c r="R33" s="3"/>
-      <c r="S33" s="3"/>
-      <c r="V33" s="5"/>
-    </row>
-    <row r="34" spans="12:23">
+      <c r="R33" s="3">
+        <v>16.5636063343433</v>
+      </c>
+      <c r="S33" s="3">
+        <v>26.092187654321</v>
+      </c>
+      <c r="T33" s="3">
+        <v>19.8668541452599</v>
+      </c>
+      <c r="U33" s="3">
+        <v>17.2493996549055</v>
+      </c>
+      <c r="V33" s="5">
+        <v>28.5014857845756</v>
+      </c>
+      <c r="W33" s="2">
+        <f>AVERAGE(R33,S33,T33,U33,V33)</f>
+        <v>21.6547067146811</v>
+      </c>
+    </row>
+    <row r="34" spans="12:19">
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
       <c r="N34" s="5"/>
-      <c r="R34" s="3">
-        <v>14.7810943866003</v>
-      </c>
-      <c r="S34" s="3">
-        <v>28.318761318175</v>
-      </c>
-      <c r="T34" s="3">
-        <v>20.1601961096939</v>
-      </c>
-      <c r="U34" s="3">
-        <v>24.999786545318</v>
-      </c>
-      <c r="V34" s="5">
-        <v>60.5598701924986</v>
-      </c>
-      <c r="W34" s="2">
-        <f>AVERAGE(R34,S34,T34,U34,V34)</f>
-        <v>29.7639417104572</v>
-      </c>
-    </row>
-    <row r="35" spans="12:22">
+      <c r="S34" s="3"/>
+    </row>
+    <row r="35" spans="12:14">
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
       <c r="N35" s="5"/>
-      <c r="R35" s="3"/>
-      <c r="S35" s="3"/>
-      <c r="V35" s="5"/>
-    </row>
-    <row r="36" spans="12:22">
+    </row>
+    <row r="36" spans="12:14">
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
       <c r="N36" s="5"/>
-      <c r="R36" s="3"/>
-      <c r="S36" s="3"/>
-      <c r="V36" s="5"/>
-    </row>
-    <row r="37" spans="12:23">
+    </row>
+    <row r="37" spans="12:14">
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
       <c r="N37" s="5"/>
-      <c r="R37" s="3">
-        <v>13.7975635562927</v>
-      </c>
-      <c r="S37" s="3">
-        <v>19.7969609506393</v>
-      </c>
-      <c r="T37" s="3">
-        <v>23.5817507244107</v>
-      </c>
-      <c r="U37" s="3">
-        <v>32.8796825396825</v>
-      </c>
-      <c r="V37" s="5">
-        <v>36.3142070449019</v>
-      </c>
-      <c r="W37" s="2">
-        <f>AVERAGE(R37,S37,T37,U37,V37)</f>
-        <v>25.2740329631854</v>
-      </c>
-    </row>
-    <row r="38" spans="12:22">
+    </row>
+    <row r="38" spans="12:14">
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
       <c r="N38" s="5"/>
-      <c r="R38" s="3"/>
-      <c r="S38" s="3"/>
-      <c r="V38" s="5"/>
-    </row>
-    <row r="39" spans="11:22">
+    </row>
+    <row r="39" spans="11:14">
       <c r="K39" s="2"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="5"/>
-      <c r="R39" s="3"/>
-      <c r="S39" s="3"/>
-      <c r="V39" s="5"/>
-    </row>
-    <row r="40" spans="12:23">
+    </row>
+    <row r="40" spans="12:14">
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="5"/>
-      <c r="R40" s="3">
-        <v>27.3274638993844</v>
-      </c>
-      <c r="S40" s="3">
-        <v>24.9543206630919</v>
-      </c>
-      <c r="T40" s="3">
-        <v>23.8170592974345</v>
-      </c>
-      <c r="U40" s="3">
-        <v>19.6181020116152</v>
-      </c>
-      <c r="V40" s="5">
-        <v>43.8301806094172</v>
-      </c>
-      <c r="W40" s="2">
-        <f>AVERAGE(R40,S40,T40,U40,V40)</f>
-        <v>27.9094252961886</v>
-      </c>
-    </row>
-    <row r="41" spans="11:22">
+    </row>
+    <row r="41" spans="11:14">
       <c r="K41" s="2"/>
       <c r="L41" s="3"/>
       <c r="M41" s="3"/>
       <c r="N41" s="5"/>
-      <c r="R41" s="3"/>
-      <c r="S41" s="3"/>
-      <c r="V41" s="5"/>
-    </row>
-    <row r="42" spans="18:22">
-      <c r="R42" s="3"/>
-      <c r="S42" s="3"/>
-      <c r="V42" s="5"/>
-    </row>
-    <row r="43" spans="18:23">
-      <c r="R43" s="3">
-        <v>16.5636063343433</v>
-      </c>
-      <c r="S43" s="3">
-        <v>26.092187654321</v>
-      </c>
-      <c r="T43" s="3">
-        <v>19.8668541452599</v>
-      </c>
-      <c r="U43" s="3">
-        <v>17.2493996549055</v>
-      </c>
-      <c r="V43" s="5">
-        <v>28.5014857845756</v>
-      </c>
-      <c r="W43" s="2">
-        <f>AVERAGE(R43,S43,T43,U43,V43)</f>
-        <v>21.6547067146811</v>
-      </c>
-    </row>
-    <row r="44" spans="19:19">
-      <c r="S44" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.786805555555556" bottom="0.786805555555556" header="0.3" footer="0.3"/>

--- a/communicate_with_basis_station_in_matlab/calibrations/outdoor/OUTDOOR_MEASUREMENT_07_27_2017/outdoor_calibration_results.xlsx
+++ b/communicate_with_basis_station_in_matlab/calibrations/outdoor/OUTDOOR_MEASUREMENT_07_27_2017/outdoor_calibration_results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19095" windowHeight="12210" activeTab="2"/>
+    <workbookView windowWidth="28080" windowHeight="13050" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -328,10 +328,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -359,13 +359,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -373,17 +366,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -402,6 +387,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -412,6 +412,67 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -433,72 +494,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -559,19 +559,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -583,157 +691,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -780,71 +780,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -866,6 +803,69 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -877,148 +877,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2162,7 +2162,7 @@
   <dimension ref="B1:AP41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="Y28" sqref="Y28"/>
+      <selection activeCell="R26" sqref="R26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="13.5"/>
@@ -2807,7 +2807,7 @@
         <v>38.2388500921202</v>
       </c>
       <c r="W28" s="2">
-        <f>AVERAGE(R28,S28,T28,U28,V28)</f>
+        <f t="shared" ref="W28:W33" si="0">AVERAGE(R28,S28,T28,U28,V28)</f>
         <v>28.3065139732777</v>
       </c>
     </row>
@@ -2830,7 +2830,7 @@
         <v>25.5073933984663</v>
       </c>
       <c r="W29" s="2">
-        <f>AVERAGE(R29,S29,T29,U29,V29)</f>
+        <f t="shared" si="0"/>
         <v>24.7055579412169</v>
       </c>
     </row>
@@ -2854,7 +2854,7 @@
         <v>60.5598701924986</v>
       </c>
       <c r="W30" s="2">
-        <f>AVERAGE(R30,S30,T30,U30,V30)</f>
+        <f t="shared" si="0"/>
         <v>29.7639417104572</v>
       </c>
     </row>
@@ -2878,7 +2878,7 @@
         <v>36.3142070449019</v>
       </c>
       <c r="W31" s="2">
-        <f>AVERAGE(R31,S31,T31,U31,V31)</f>
+        <f t="shared" si="0"/>
         <v>25.2740329631854</v>
       </c>
     </row>
@@ -2902,7 +2902,7 @@
         <v>43.8301806094172</v>
       </c>
       <c r="W32" s="2">
-        <f>AVERAGE(R32,S32,T32,U32,V32)</f>
+        <f t="shared" si="0"/>
         <v>27.9094252961886</v>
       </c>
     </row>
@@ -2926,7 +2926,7 @@
         <v>28.5014857845756</v>
       </c>
       <c r="W33" s="2">
-        <f>AVERAGE(R33,S33,T33,U33,V33)</f>
+        <f t="shared" si="0"/>
         <v>21.6547067146811</v>
       </c>
     </row>

--- a/communicate_with_basis_station_in_matlab/calibrations/outdoor/OUTDOOR_MEASUREMENT_07_27_2017/outdoor_calibration_results.xlsx
+++ b/communicate_with_basis_station_in_matlab/calibrations/outdoor/OUTDOOR_MEASUREMENT_07_27_2017/outdoor_calibration_results.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13050" activeTab="2"/>
+    <workbookView windowWidth="24735" windowHeight="12630" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
     <sheet name="outdoor" sheetId="2" r:id="rId2"/>
     <sheet name="outdoor_1_by_1" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45">
   <si>
     <t>x</t>
   </si>
@@ -308,7 +309,7 @@
     <t>LESS DATA 1</t>
   </si>
   <si>
-    <t>´3m</t>
+    <t>3m</t>
   </si>
   <si>
     <t>4m</t>
@@ -322,6 +323,12 @@
   <si>
     <t>8m</t>
   </si>
+  <si>
+    <t>trimmean</t>
+  </si>
+  <si>
+    <t>mad</t>
+  </si>
 </sst>
 </file>
 
@@ -330,8 +337,8 @@
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -358,6 +365,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -372,39 +387,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -424,16 +409,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -442,6 +427,36 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -463,16 +478,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -480,14 +487,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -496,7 +503,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -523,13 +530,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.499984740745262"/>
+        <fgColor theme="4" tint="0.799920651875362"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799920651875362"/>
+        <fgColor theme="7" tint="0.799920651875362"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -541,37 +560,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799920651875362"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -583,7 +590,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -595,19 +602,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -625,13 +626,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -643,7 +674,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -655,7 +698,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -667,19 +710,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -691,49 +734,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -777,26 +784,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -819,21 +841,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -849,21 +856,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -874,16 +866,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -892,157 +899,157 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1717,437 +1724,437 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="3" width="9.14166666666667" style="2"/>
-    <col min="4" max="4" width="2.14166666666667" style="2" customWidth="1"/>
-    <col min="5" max="5" width="8.425" style="2" customWidth="1"/>
-    <col min="6" max="6" width="4.425" style="2" customWidth="1"/>
-    <col min="7" max="7" width="3.56666666666667" style="2" customWidth="1"/>
-    <col min="8" max="9" width="9.14166666666667" style="2"/>
-    <col min="10" max="10" width="11.425" style="3"/>
-    <col min="11" max="11" width="9.14166666666667" style="3"/>
-    <col min="12" max="12" width="3.425" style="2" customWidth="1"/>
-    <col min="13" max="14" width="9.14166666666667" style="2"/>
-    <col min="15" max="16" width="9.14166666666667" style="3"/>
-    <col min="17" max="17" width="3.70833333333333" style="2" customWidth="1"/>
-    <col min="18" max="19" width="9.14166666666667" style="2"/>
-    <col min="20" max="21" width="9.14166666666667" style="3"/>
-    <col min="22" max="22" width="2.85833333333333" style="2" customWidth="1"/>
-    <col min="23" max="24" width="9.14166666666667" style="2"/>
-    <col min="25" max="26" width="9.14166666666667" style="3"/>
-    <col min="27" max="27" width="5" style="4" customWidth="1"/>
-    <col min="28" max="28" width="9.14166666666667" style="4"/>
-    <col min="29" max="29" width="9.14166666666667" style="2"/>
-    <col min="30" max="31" width="9.14166666666667" style="5"/>
-    <col min="32" max="32" width="5" style="2" customWidth="1"/>
-    <col min="33" max="34" width="9.14166666666667" style="2"/>
-    <col min="35" max="36" width="9.14166666666667" style="5"/>
-    <col min="37" max="37" width="1.28333333333333" style="2" customWidth="1"/>
-    <col min="38" max="39" width="9.14166666666667" style="2"/>
-    <col min="40" max="40" width="1.14166666666667" style="2" customWidth="1"/>
-    <col min="41" max="41" width="9.14166666666667" style="6"/>
-    <col min="42" max="16384" width="9.14166666666667" style="2"/>
+    <col min="1" max="3" width="9.14166666666667" style="1"/>
+    <col min="4" max="4" width="2.14166666666667" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.425" style="1" customWidth="1"/>
+    <col min="6" max="6" width="4.425" style="1" customWidth="1"/>
+    <col min="7" max="7" width="3.56666666666667" style="1" customWidth="1"/>
+    <col min="8" max="9" width="9.14166666666667" style="1"/>
+    <col min="10" max="10" width="11.425" style="2"/>
+    <col min="11" max="11" width="9.14166666666667" style="2"/>
+    <col min="12" max="12" width="3.425" style="1" customWidth="1"/>
+    <col min="13" max="14" width="9.14166666666667" style="1"/>
+    <col min="15" max="16" width="9.14166666666667" style="2"/>
+    <col min="17" max="17" width="3.70833333333333" style="1" customWidth="1"/>
+    <col min="18" max="19" width="9.14166666666667" style="1"/>
+    <col min="20" max="21" width="9.14166666666667" style="2"/>
+    <col min="22" max="22" width="2.85833333333333" style="1" customWidth="1"/>
+    <col min="23" max="24" width="9.14166666666667" style="1"/>
+    <col min="25" max="26" width="9.14166666666667" style="2"/>
+    <col min="27" max="27" width="5" style="8" customWidth="1"/>
+    <col min="28" max="28" width="9.14166666666667" style="8"/>
+    <col min="29" max="29" width="9.14166666666667" style="1"/>
+    <col min="30" max="31" width="9.14166666666667" style="4"/>
+    <col min="32" max="32" width="5" style="1" customWidth="1"/>
+    <col min="33" max="34" width="9.14166666666667" style="1"/>
+    <col min="35" max="36" width="9.14166666666667" style="4"/>
+    <col min="37" max="37" width="1.28333333333333" style="1" customWidth="1"/>
+    <col min="38" max="39" width="9.14166666666667" style="1"/>
+    <col min="40" max="40" width="1.14166666666667" style="1" customWidth="1"/>
+    <col min="41" max="41" width="9.14166666666667" style="3"/>
+    <col min="42" max="16384" width="9.14166666666667" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:38">
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="W1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AB1" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AG1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AL1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="2:41">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="E2" s="2" t="s">
+      <c r="C2" s="3"/>
+      <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="O2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="P2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="R2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="S2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="T2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="U2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="W2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="X2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Y2" s="3" t="s">
+      <c r="Y2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="Z2" s="3" t="s">
+      <c r="Z2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AB2" s="4" t="s">
+      <c r="AB2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="AC2" s="2" t="s">
+      <c r="AC2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="AD2" s="5" t="s">
+      <c r="AD2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AE2" s="5" t="s">
+      <c r="AE2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="AG2" s="2" t="s">
+      <c r="AG2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="AH2" s="2" t="s">
+      <c r="AH2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="AI2" s="5" t="s">
+      <c r="AI2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AJ2" s="5" t="s">
+      <c r="AJ2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="AL2" s="2" t="s">
+      <c r="AL2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="AM2" s="2" t="s">
+      <c r="AM2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="AO2" s="6" t="s">
+      <c r="AO2" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="3" spans="2:42">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="2">
         <v>333.603773584906</v>
       </c>
-      <c r="K3" s="3">
+      <c r="K3" s="2">
         <v>1.50703820741166</v>
       </c>
-      <c r="O3" s="3">
+      <c r="O3" s="2">
         <v>434.447916666667</v>
       </c>
-      <c r="P3" s="3">
+      <c r="P3" s="2">
         <v>1.90121039515842</v>
       </c>
-      <c r="T3" s="3">
+      <c r="T3" s="2">
         <v>533.493927125506</v>
       </c>
-      <c r="U3" s="3">
+      <c r="U3" s="2">
         <v>2.46693553719008</v>
       </c>
-      <c r="Y3" s="3">
+      <c r="Y3" s="2">
         <v>626.151898734177</v>
       </c>
-      <c r="Z3" s="3">
+      <c r="Z3" s="2">
         <v>3.57167393314837</v>
       </c>
-      <c r="AD3" s="5">
+      <c r="AD3" s="4">
         <v>724.064377682404</v>
       </c>
-      <c r="AE3" s="5">
+      <c r="AE3" s="4">
         <v>1.87045512142037</v>
       </c>
-      <c r="AI3" s="5">
+      <c r="AI3" s="4">
         <v>846.405247813411</v>
       </c>
-      <c r="AJ3" s="5">
+      <c r="AJ3" s="4">
         <v>4.13904561142454</v>
       </c>
-      <c r="AO3" s="6" t="s">
+      <c r="AO3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AP3" s="6" t="s">
+      <c r="AP3" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="4" ht="16.5" spans="3:42">
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="8"/>
-      <c r="X4" s="4"/>
-      <c r="AP4" s="6"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="10"/>
+      <c r="X4" s="8"/>
+      <c r="AP4" s="3"/>
     </row>
     <row r="5" spans="8:9">
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
     </row>
     <row r="6" spans="2:36">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="J6" s="3">
+      <c r="E6" s="11"/>
+      <c r="J6" s="2">
         <v>318.792452830189</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K6" s="2">
         <v>2.61936225222637</v>
       </c>
-      <c r="O6" s="2">
+      <c r="O6" s="1">
         <v>428.416666666667</v>
       </c>
-      <c r="P6" s="3">
+      <c r="P6" s="2">
         <v>8.1441794232823</v>
       </c>
-      <c r="T6" s="2">
+      <c r="T6" s="1">
         <v>529.374545454546</v>
       </c>
-      <c r="U6" s="3">
+      <c r="U6" s="2">
         <v>2.57952163396936</v>
       </c>
-      <c r="Y6" s="2">
+      <c r="Y6" s="1">
         <v>624.740384615385</v>
       </c>
-      <c r="Z6" s="3">
+      <c r="Z6" s="2">
         <v>4.24338585017836</v>
       </c>
-      <c r="AD6" s="5">
+      <c r="AD6" s="4">
         <v>718.655844155844</v>
       </c>
-      <c r="AE6" s="5">
+      <c r="AE6" s="4">
         <v>2.83965397923876</v>
       </c>
-      <c r="AI6" s="5">
+      <c r="AI6" s="4">
         <v>820.031496062992</v>
       </c>
-      <c r="AJ6" s="5">
+      <c r="AJ6" s="4">
         <v>5.43433428901967</v>
       </c>
     </row>
     <row r="7" ht="16.5" spans="3:4">
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="7"/>
+      <c r="D7" s="9"/>
     </row>
     <row r="8" spans="8:9">
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
     </row>
     <row r="9" spans="2:36">
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="10"/>
-      <c r="J9" s="3">
+      <c r="E9" s="11"/>
+      <c r="J9" s="2">
         <v>322.584905660377</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9" s="2">
         <v>1.22263717322609</v>
       </c>
-      <c r="O9" s="3">
+      <c r="O9" s="2">
         <v>433.96875</v>
       </c>
-      <c r="P9" s="3">
+      <c r="P9" s="2">
         <v>1.50943396226415</v>
       </c>
-      <c r="T9" s="3">
+      <c r="T9" s="2">
         <v>539.638783269962</v>
       </c>
-      <c r="U9" s="3">
+      <c r="U9" s="2">
         <v>1.46692448368648</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Y9" s="2">
         <v>631.833333333333</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="Z9" s="2">
         <v>3.43603814801002</v>
       </c>
-      <c r="AD9" s="5">
+      <c r="AD9" s="4">
         <v>718.249011857708</v>
       </c>
-      <c r="AE9" s="5">
+      <c r="AE9" s="4">
         <v>2.39381466800066</v>
       </c>
-      <c r="AI9" s="5">
+      <c r="AI9" s="4">
         <v>838.077639751553</v>
       </c>
-      <c r="AJ9" s="5">
+      <c r="AJ9" s="4">
         <v>3.70796791610749</v>
       </c>
     </row>
     <row r="10" ht="16.5" spans="3:4">
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="7"/>
+      <c r="D10" s="9"/>
     </row>
     <row r="11" spans="8:9">
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
     </row>
     <row r="12" spans="2:36">
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="10"/>
-      <c r="J12" s="3">
+      <c r="E12" s="11"/>
+      <c r="J12" s="2">
         <v>352.117647058824</v>
       </c>
-      <c r="K12" s="3">
+      <c r="K12" s="2">
         <v>4.72329947676208</v>
       </c>
-      <c r="O12" s="3">
+      <c r="O12" s="2">
         <v>467.354166666667</v>
       </c>
-      <c r="P12" s="3">
+      <c r="P12" s="2">
         <v>3.63011747953008</v>
       </c>
-      <c r="T12" s="3">
+      <c r="T12" s="2">
         <v>523.479853479853</v>
       </c>
-      <c r="U12" s="3">
+      <c r="U12" s="2">
         <v>2.43945582677079</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Y12" s="2">
         <v>627.411764705882</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="Z12" s="2">
         <v>8.30193909275933</v>
       </c>
-      <c r="AD12" s="5">
+      <c r="AD12" s="4">
         <v>744.07874015748</v>
       </c>
-      <c r="AE12" s="5">
+      <c r="AE12" s="4">
         <v>2.62091947085157</v>
       </c>
-      <c r="AI12" s="5">
+      <c r="AI12" s="4">
         <v>858.652421652422</v>
       </c>
-      <c r="AJ12" s="5">
+      <c r="AJ12" s="4">
         <v>7.21756137126261</v>
       </c>
     </row>
     <row r="13" ht="16.5" spans="3:4">
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="7"/>
+      <c r="D13" s="9"/>
     </row>
     <row r="14" spans="8:9">
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
     </row>
     <row r="15" spans="2:36">
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="10"/>
-      <c r="J15" s="3">
+      <c r="E15" s="11"/>
+      <c r="J15" s="2">
         <v>322.22641509434</v>
       </c>
-      <c r="K15" s="3">
+      <c r="K15" s="2">
         <v>1.48750359092215</v>
       </c>
-      <c r="O15" s="3">
+      <c r="O15" s="2">
         <v>419.572916666667</v>
       </c>
-      <c r="P15" s="3">
+      <c r="P15" s="2">
         <v>1.82912068351727</v>
       </c>
-      <c r="T15" s="3">
+      <c r="T15" s="2">
         <v>510.621621621622</v>
       </c>
-      <c r="U15" s="3">
+      <c r="U15" s="2">
         <v>2.95508625817966</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Y15" s="2">
         <v>616.188976377953</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="Z15" s="2">
         <v>4.47220964740205</v>
       </c>
-      <c r="AD15" s="5">
+      <c r="AD15" s="4">
         <v>707.2578125</v>
       </c>
-      <c r="AE15" s="5">
+      <c r="AE15" s="4">
         <v>2.55613965483038</v>
       </c>
-      <c r="AI15" s="5">
+      <c r="AI15" s="4">
         <v>825.232258064516</v>
       </c>
-      <c r="AJ15" s="5">
+      <c r="AJ15" s="4">
         <v>4.51521935246751</v>
       </c>
     </row>
     <row r="16" ht="16.5" spans="3:4">
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="7"/>
+      <c r="D16" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.786805555555556" bottom="0.786805555555556" header="0.3" footer="0.3"/>
@@ -2159,822 +2166,2350 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:AP41"/>
+  <dimension ref="A1:AP55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="R26" sqref="R26"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="F11" workbookViewId="0">
+      <selection activeCell="A36" sqref="$A36:$XFD53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="3" style="2" customWidth="1"/>
-    <col min="2" max="3" width="9.14166666666667" style="2"/>
-    <col min="4" max="4" width="2.14166666666667" style="2" customWidth="1"/>
-    <col min="5" max="5" width="8.425" style="2" customWidth="1"/>
-    <col min="6" max="6" width="4.425" style="2" customWidth="1"/>
-    <col min="7" max="7" width="3.56666666666667" style="2" customWidth="1"/>
-    <col min="8" max="9" width="9.14166666666667" style="2"/>
-    <col min="10" max="11" width="9.14166666666667" style="3"/>
-    <col min="12" max="12" width="3.425" style="2" customWidth="1"/>
-    <col min="13" max="14" width="9.14166666666667" style="2"/>
-    <col min="15" max="16" width="12.625" style="3"/>
-    <col min="17" max="17" width="1.28333333333333" style="2" customWidth="1"/>
-    <col min="18" max="19" width="12.625" style="2"/>
-    <col min="20" max="21" width="12.625" style="3"/>
-    <col min="22" max="22" width="6" style="2" customWidth="1"/>
-    <col min="23" max="23" width="12.625" style="2"/>
-    <col min="24" max="24" width="9.14166666666667" style="2"/>
-    <col min="25" max="26" width="12.625" style="3"/>
-    <col min="27" max="27" width="2.425" style="4" customWidth="1"/>
-    <col min="28" max="28" width="9.14166666666667" style="4"/>
-    <col min="29" max="29" width="9.14166666666667" style="2"/>
-    <col min="30" max="31" width="9.14166666666667" style="5"/>
-    <col min="32" max="32" width="1.70833333333333" style="2" customWidth="1"/>
-    <col min="33" max="34" width="9.14166666666667" style="2"/>
-    <col min="35" max="36" width="9.14166666666667" style="5"/>
-    <col min="37" max="37" width="1.28333333333333" style="2" customWidth="1"/>
-    <col min="38" max="39" width="9.14166666666667" style="2"/>
-    <col min="40" max="40" width="3.28333333333333" style="2" customWidth="1"/>
-    <col min="41" max="41" width="9.14166666666667" style="6"/>
-    <col min="42" max="16384" width="9.14166666666667" style="2"/>
+    <col min="1" max="1" width="3" style="1" customWidth="1"/>
+    <col min="2" max="3" width="9.14166666666667" style="1"/>
+    <col min="4" max="4" width="2.14166666666667" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.425" style="1" customWidth="1"/>
+    <col min="6" max="6" width="4.425" style="1" customWidth="1"/>
+    <col min="7" max="7" width="3.56666666666667" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.14166666666667" style="1"/>
+    <col min="9" max="9" width="12.625" style="1"/>
+    <col min="10" max="10" width="12.625" style="2"/>
+    <col min="11" max="11" width="9.14166666666667" style="2"/>
+    <col min="12" max="12" width="3.425" style="1" customWidth="1"/>
+    <col min="13" max="13" width="9.14166666666667" style="1"/>
+    <col min="14" max="14" width="12.625" style="1"/>
+    <col min="15" max="16" width="12.625" style="2"/>
+    <col min="17" max="17" width="1.28333333333333" style="1" customWidth="1"/>
+    <col min="18" max="19" width="12.625" style="1"/>
+    <col min="20" max="21" width="12.625" style="2"/>
+    <col min="22" max="22" width="6" style="1" customWidth="1"/>
+    <col min="23" max="24" width="12.625" style="1"/>
+    <col min="25" max="26" width="12.625" style="2"/>
+    <col min="27" max="27" width="2.425" style="8" customWidth="1"/>
+    <col min="28" max="28" width="9.14166666666667" style="8"/>
+    <col min="29" max="29" width="9.14166666666667" style="1"/>
+    <col min="30" max="31" width="9.14166666666667" style="4"/>
+    <col min="32" max="32" width="1.70833333333333" style="1" customWidth="1"/>
+    <col min="33" max="33" width="9.14166666666667" style="1"/>
+    <col min="34" max="34" width="11.5" style="1"/>
+    <col min="35" max="35" width="12.625" style="4"/>
+    <col min="36" max="36" width="9.14166666666667" style="4"/>
+    <col min="37" max="37" width="1.28333333333333" style="1" customWidth="1"/>
+    <col min="38" max="39" width="9.14166666666667" style="1"/>
+    <col min="40" max="40" width="3.28333333333333" style="1" customWidth="1"/>
+    <col min="41" max="41" width="9.14166666666667" style="3"/>
+    <col min="42" max="16384" width="9.14166666666667" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:41">
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="W1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AB1" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AG1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AL1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="AO1" s="6" t="s">
+      <c r="AO1" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="2" spans="2:42">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="E2" s="2" t="s">
+      <c r="C2" s="3"/>
+      <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="O2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="P2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="R2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="S2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="T2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="U2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="W2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="X2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Y2" s="3" t="s">
+      <c r="Y2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="Z2" s="3" t="s">
+      <c r="Z2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AB2" s="4" t="s">
+      <c r="AB2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="AC2" s="2" t="s">
+      <c r="AC2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="AD2" s="5" t="s">
+      <c r="AD2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AE2" s="5" t="s">
+      <c r="AE2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="AG2" s="2" t="s">
+      <c r="AG2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="AH2" s="2" t="s">
+      <c r="AH2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="AI2" s="5" t="s">
+      <c r="AI2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AJ2" s="5" t="s">
+      <c r="AJ2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="AL2" s="2" t="s">
+      <c r="AL2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="AM2" s="2" t="s">
+      <c r="AM2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="AO2" s="6" t="s">
+      <c r="AO2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AP2" s="6" t="s">
+      <c r="AP2" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="3" spans="2:42">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="2">
         <v>3158.83333333333</v>
       </c>
-      <c r="K3" s="3">
+      <c r="K3" s="2">
         <v>35.2456574394463</v>
       </c>
-      <c r="O3" s="3">
+      <c r="O3" s="2">
         <v>4237.25222551929</v>
       </c>
-      <c r="P3" s="3">
+      <c r="P3" s="2">
         <v>17.6589226666667</v>
       </c>
-      <c r="T3" s="3">
+      <c r="T3" s="2">
         <v>5428.47858942066</v>
       </c>
-      <c r="U3" s="3">
+      <c r="U3" s="2">
         <v>23.1500557895116</v>
       </c>
-      <c r="Y3" s="3">
+      <c r="Y3" s="2">
         <v>6453.11788617886</v>
       </c>
-      <c r="Z3" s="3">
+      <c r="Z3" s="2">
         <v>27.2390838786438</v>
       </c>
-      <c r="AI3" s="5">
+      <c r="AI3" s="4">
         <v>8251.85582010582</v>
       </c>
-      <c r="AJ3" s="5">
+      <c r="AJ3" s="4">
         <v>38.2388500921202</v>
       </c>
-      <c r="AO3" s="6">
+      <c r="AO3" s="3">
         <v>0.9734</v>
       </c>
-      <c r="AP3" s="2">
+      <c r="AP3" s="1">
         <v>-159.5</v>
       </c>
     </row>
     <row r="4" ht="16.5" spans="3:42">
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="8"/>
-      <c r="X4" s="4"/>
-      <c r="AP4" s="6"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="10"/>
+      <c r="X4" s="8"/>
+      <c r="AP4" s="3"/>
     </row>
     <row r="5" spans="8:9">
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
     </row>
     <row r="6" spans="2:42">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="J6" s="3">
+      <c r="E6" s="11"/>
+      <c r="J6" s="2">
         <v>3235.05586942875</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K6" s="2">
         <v>20.6112700692651</v>
       </c>
-      <c r="N6" s="2" t="s">
+      <c r="N6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="O6" s="2">
+      <c r="O6" s="1">
         <v>4101.38095238095</v>
       </c>
-      <c r="P6" s="3">
+      <c r="P6" s="2">
         <v>24.9340587524099</v>
       </c>
-      <c r="T6" s="2">
+      <c r="T6" s="1">
         <v>5217.82962962963</v>
       </c>
-      <c r="U6" s="3">
+      <c r="U6" s="2">
         <v>22.452377323612</v>
       </c>
-      <c r="Y6" s="2">
+      <c r="Y6" s="1">
         <v>5919.39164370983</v>
       </c>
-      <c r="Z6" s="3">
+      <c r="Z6" s="2">
         <v>30.0226901623314</v>
       </c>
-      <c r="AI6" s="5">
+      <c r="AI6" s="4">
         <v>8081.34496996997</v>
       </c>
-      <c r="AJ6" s="5">
+      <c r="AJ6" s="4">
         <v>25.5073933984663</v>
       </c>
-      <c r="AN6" s="9">
+      <c r="AN6" s="5">
         <v>1</v>
       </c>
-      <c r="AO6" s="11">
+      <c r="AO6" s="6">
         <v>1.034</v>
       </c>
-      <c r="AP6" s="9">
+      <c r="AP6" s="5">
         <v>-291.3</v>
       </c>
     </row>
     <row r="7" ht="16.5" spans="3:42">
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="N7" s="9">
+      <c r="D7" s="9"/>
+      <c r="N7" s="5">
         <v>1</v>
       </c>
-      <c r="O7" s="3">
+      <c r="O7" s="2">
         <v>4109.42565597668</v>
       </c>
-      <c r="P7" s="3">
+      <c r="P7" s="2">
         <v>25.9468314492184</v>
       </c>
-      <c r="AN7" s="2">
+      <c r="AN7" s="1">
         <v>2</v>
       </c>
-      <c r="AO7" s="6">
+      <c r="AO7" s="3">
         <v>1.032</v>
       </c>
-      <c r="AP7" s="2">
+      <c r="AP7" s="1">
         <v>-276.4</v>
       </c>
     </row>
     <row r="8" spans="8:42">
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="N8" s="2">
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="N8" s="1">
         <v>2</v>
       </c>
-      <c r="O8" s="3">
+      <c r="O8" s="2">
         <v>4088.33497536946</v>
       </c>
-      <c r="P8" s="3">
+      <c r="P8" s="2">
         <v>19.5649185185185</v>
       </c>
-      <c r="AN8" s="2" t="s">
+      <c r="AN8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AO8" s="6">
+      <c r="AO8" s="3">
         <v>1.033</v>
       </c>
-      <c r="AP8" s="2">
+      <c r="AP8" s="1">
         <v>-285.6</v>
       </c>
     </row>
     <row r="9" spans="2:42">
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="10"/>
-      <c r="J9" s="3">
+      <c r="E9" s="11"/>
+      <c r="J9" s="2">
         <v>3337.36094674556</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9" s="2">
         <v>14.7810943866003</v>
       </c>
-      <c r="O9" s="3">
+      <c r="O9" s="2">
         <v>4308.78734177215</v>
       </c>
-      <c r="P9" s="3">
+      <c r="P9" s="2">
         <v>28.318761318175</v>
       </c>
-      <c r="T9" s="3">
+      <c r="T9" s="2">
         <v>5137.60891089109</v>
       </c>
-      <c r="U9" s="3">
+      <c r="U9" s="2">
         <v>20.1601961096939</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Y9" s="2">
         <v>6208.8702435312</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="Z9" s="2">
         <v>24.999786545318</v>
       </c>
-      <c r="AI9" s="5">
+      <c r="AI9" s="4">
         <v>8390.27577216206</v>
       </c>
-      <c r="AJ9" s="5">
+      <c r="AJ9" s="4">
         <v>60.5598701924986</v>
       </c>
-      <c r="AO9" s="6">
+      <c r="AO9" s="3">
         <v>0.9893</v>
       </c>
-      <c r="AP9" s="2">
+      <c r="AP9" s="1">
         <v>-218.1</v>
       </c>
     </row>
     <row r="10" ht="16.5" spans="3:4">
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="7"/>
+      <c r="D10" s="9"/>
     </row>
     <row r="11" spans="8:9">
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
     </row>
     <row r="12" spans="2:42">
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="10"/>
-      <c r="J12" s="3">
+      <c r="E12" s="11"/>
+      <c r="J12" s="2">
         <v>3274.36011904762</v>
       </c>
-      <c r="K12" s="3">
+      <c r="K12" s="2">
         <v>13.7975635562927</v>
       </c>
-      <c r="O12" s="3">
+      <c r="O12" s="2">
         <v>4701.51351351351</v>
       </c>
-      <c r="P12" s="3">
+      <c r="P12" s="2">
         <v>19.7969609506393</v>
       </c>
-      <c r="T12" s="3">
+      <c r="T12" s="2">
         <v>5407.78325123153</v>
       </c>
-      <c r="U12" s="3">
+      <c r="U12" s="2">
         <v>23.5817507244107</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Y12" s="2">
         <v>6566.58201058201</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="Z12" s="2">
         <v>32.8796825396825</v>
       </c>
-      <c r="AI12" s="5">
+      <c r="AI12" s="4">
         <v>8048.37884914464</v>
       </c>
-      <c r="AJ12" s="5">
+      <c r="AJ12" s="4">
         <v>36.3142070449019</v>
       </c>
-      <c r="AO12" s="6">
+      <c r="AO12" s="3">
         <v>1.052</v>
       </c>
-      <c r="AP12" s="2">
+      <c r="AP12" s="1">
         <v>-688.6</v>
       </c>
     </row>
     <row r="13" ht="16.5" spans="3:4">
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="7"/>
+      <c r="D13" s="9"/>
     </row>
     <row r="14" spans="8:9">
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
     </row>
     <row r="15" spans="2:42">
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="10"/>
-      <c r="J15" s="3">
+      <c r="E15" s="11"/>
+      <c r="J15" s="2">
         <v>3187.37350119904</v>
       </c>
-      <c r="K15" s="3">
+      <c r="K15" s="2">
         <v>27.3274638993844</v>
       </c>
-      <c r="O15" s="3">
+      <c r="O15" s="2">
         <v>4300.88148148148</v>
       </c>
-      <c r="P15" s="3">
+      <c r="P15" s="2">
         <v>24.9543206630919</v>
       </c>
-      <c r="T15" s="3">
+      <c r="T15" s="2">
         <v>5367.57046979866</v>
       </c>
-      <c r="U15" s="3">
+      <c r="U15" s="2">
         <v>23.8170592974345</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Y15" s="2">
         <v>6237.76911314985</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="Z15" s="2">
         <v>19.6181020116152</v>
       </c>
-      <c r="AI15" s="5">
+      <c r="AI15" s="4">
         <v>8135.18888888889</v>
       </c>
-      <c r="AJ15" s="5">
+      <c r="AJ15" s="4">
         <v>43.8301806094172</v>
       </c>
-      <c r="AO15" s="6">
+      <c r="AO15" s="3">
         <v>1.017</v>
       </c>
-      <c r="AP15" s="2">
+      <c r="AP15" s="1">
         <v>-339</v>
       </c>
     </row>
     <row r="16" ht="16.5" spans="3:15">
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="7"/>
-      <c r="O16" s="2"/>
+      <c r="D16" s="9"/>
+      <c r="O16" s="1"/>
     </row>
     <row r="18" spans="2:42">
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="10"/>
-      <c r="I18" s="2" t="s">
+      <c r="E18" s="11"/>
+      <c r="I18" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J18" s="3">
+      <c r="J18" s="2">
         <v>3445.12881464825</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K18" s="2">
         <v>16.5636063343433</v>
       </c>
-      <c r="N18" s="2" t="s">
+      <c r="N18" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="O18" s="3" t="s">
+      <c r="O18" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="T18" s="3">
+      <c r="T18" s="2">
         <v>5582.21234567901</v>
       </c>
-      <c r="U18" s="3">
+      <c r="U18" s="2">
         <v>19.8668541452599</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Y18" s="2">
         <v>6282.34305150632</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="Z18" s="2">
         <v>17.2493996549055</v>
       </c>
-      <c r="AI18" s="5">
+      <c r="AI18" s="4">
         <v>8132.49187725632</v>
       </c>
-      <c r="AJ18" s="5">
+      <c r="AJ18" s="4">
         <v>28.5014857845756</v>
       </c>
-      <c r="AN18" s="9">
+      <c r="AN18" s="5">
         <v>1</v>
       </c>
-      <c r="AO18" s="11">
+      <c r="AO18" s="6">
         <v>1.074</v>
       </c>
-      <c r="AP18" s="9">
+      <c r="AP18" s="5">
         <v>-796.4</v>
       </c>
     </row>
     <row r="19" ht="16.5" spans="3:42">
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="7"/>
-      <c r="I19" s="2" t="s">
+      <c r="D19" s="9"/>
+      <c r="I19" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J19" s="3">
+      <c r="J19" s="2">
         <v>3333.80569948187</v>
       </c>
-      <c r="K19" s="3">
+      <c r="K19" s="2">
         <v>132.316796226744</v>
       </c>
-      <c r="N19" s="9">
+      <c r="N19" s="5">
         <v>1</v>
       </c>
-      <c r="O19" s="2">
+      <c r="O19" s="1">
         <v>4476.08374384236</v>
       </c>
-      <c r="P19" s="3">
+      <c r="P19" s="2">
         <v>26.092187654321</v>
       </c>
-      <c r="AN19" s="2">
+      <c r="AN19" s="1">
         <v>2</v>
       </c>
-      <c r="AO19" s="6">
+      <c r="AO19" s="3">
         <v>1.092</v>
       </c>
-      <c r="AP19" s="2">
+      <c r="AP19" s="1">
         <v>-946.9</v>
       </c>
     </row>
     <row r="20" spans="14:16">
-      <c r="N20" s="2">
+      <c r="N20" s="1">
         <v>2</v>
       </c>
-      <c r="O20" s="3">
+      <c r="O20" s="2">
         <v>4702.56976744186</v>
       </c>
-      <c r="P20" s="3">
+      <c r="P20" s="2">
         <v>36.951135734072</v>
       </c>
     </row>
-    <row r="22" s="1" customFormat="1" spans="41:41">
+    <row r="22" s="7" customFormat="1" spans="41:41">
       <c r="AO22" s="12"/>
     </row>
-    <row r="26" spans="12:23">
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="5"/>
-      <c r="R26" s="2" t="s">
+    <row r="25" spans="1:1">
+      <c r="A25" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="4"/>
+      <c r="R26" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="S26" s="2" t="s">
+      <c r="S26" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="T26" s="3" t="s">
+      <c r="T26" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="U26" s="3" t="s">
+      <c r="U26" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="V26" s="2" t="s">
+      <c r="V26" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="W26" s="2" t="s">
+      <c r="W26" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="12:22">
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="5"/>
-      <c r="P27" s="3" t="s">
+    <row r="27" spans="1:22">
+      <c r="A27" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="4"/>
+      <c r="P27" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="R27" s="2">
+      <c r="R27" s="1">
         <v>3</v>
       </c>
-      <c r="S27" s="2">
+      <c r="S27" s="1">
         <v>4</v>
       </c>
-      <c r="T27" s="3">
+      <c r="T27" s="2">
         <v>5</v>
       </c>
-      <c r="U27" s="3">
+      <c r="U27" s="2">
         <v>6</v>
       </c>
-      <c r="V27" s="2">
+      <c r="V27" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="12:23">
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="5"/>
-      <c r="R28" s="3">
+    <row r="28" spans="1:23">
+      <c r="A28" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="4"/>
+      <c r="R28" s="2">
         <v>35.2456574394463</v>
       </c>
-      <c r="S28" s="3">
+      <c r="S28" s="2">
         <v>17.6589226666667</v>
       </c>
-      <c r="T28" s="3">
+      <c r="T28" s="2">
         <v>23.1500557895116</v>
       </c>
-      <c r="U28" s="3">
+      <c r="U28" s="2">
         <v>27.2390838786438</v>
       </c>
-      <c r="V28" s="5">
+      <c r="V28" s="4">
         <v>38.2388500921202</v>
       </c>
-      <c r="W28" s="2">
+      <c r="W28" s="1">
         <f t="shared" ref="W28:W33" si="0">AVERAGE(R28,S28,T28,U28,V28)</f>
         <v>28.3065139732777</v>
       </c>
     </row>
-    <row r="29" spans="11:23">
-      <c r="K29" s="2"/>
-      <c r="N29" s="5"/>
-      <c r="R29" s="3">
+    <row r="29" spans="1:23">
+      <c r="A29" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K29" s="1"/>
+      <c r="N29" s="4"/>
+      <c r="R29" s="2">
         <v>20.6112700692651</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="2">
         <v>24.9340587524099</v>
       </c>
-      <c r="T29" s="3">
+      <c r="T29" s="2">
         <v>22.452377323612</v>
       </c>
-      <c r="U29" s="3">
+      <c r="U29" s="2">
         <v>30.0226901623314</v>
       </c>
-      <c r="V29" s="5">
+      <c r="V29" s="4">
         <v>25.5073933984663</v>
       </c>
-      <c r="W29" s="2">
+      <c r="W29" s="1">
         <f t="shared" si="0"/>
         <v>24.7055579412169</v>
       </c>
     </row>
-    <row r="30" spans="12:23">
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="5"/>
-      <c r="R30" s="3">
+    <row r="30" spans="1:23">
+      <c r="A30" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="4"/>
+      <c r="R30" s="2">
         <v>14.7810943866003</v>
       </c>
-      <c r="S30" s="3">
+      <c r="S30" s="2">
         <v>28.318761318175</v>
       </c>
-      <c r="T30" s="3">
+      <c r="T30" s="2">
         <v>20.1601961096939</v>
       </c>
-      <c r="U30" s="3">
+      <c r="U30" s="2">
         <v>24.999786545318</v>
       </c>
-      <c r="V30" s="5">
+      <c r="V30" s="4">
         <v>60.5598701924986</v>
       </c>
-      <c r="W30" s="2">
+      <c r="W30" s="1">
         <f t="shared" si="0"/>
         <v>29.7639417104572</v>
       </c>
     </row>
     <row r="31" spans="12:23">
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
-      <c r="N31" s="5"/>
-      <c r="R31" s="3">
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="4"/>
+      <c r="R31" s="2">
         <v>13.7975635562927</v>
       </c>
-      <c r="S31" s="3">
+      <c r="S31" s="2">
         <v>19.7969609506393</v>
       </c>
-      <c r="T31" s="3">
+      <c r="T31" s="2">
         <v>23.5817507244107</v>
       </c>
-      <c r="U31" s="3">
+      <c r="U31" s="2">
         <v>32.8796825396825</v>
       </c>
-      <c r="V31" s="5">
+      <c r="V31" s="4">
         <v>36.3142070449019</v>
       </c>
-      <c r="W31" s="2">
+      <c r="W31" s="1">
         <f t="shared" si="0"/>
         <v>25.2740329631854</v>
       </c>
     </row>
     <row r="32" spans="12:23">
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
-      <c r="N32" s="5"/>
-      <c r="R32" s="3">
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="4"/>
+      <c r="R32" s="2">
         <v>27.3274638993844</v>
       </c>
-      <c r="S32" s="3">
+      <c r="S32" s="2">
         <v>24.9543206630919</v>
       </c>
-      <c r="T32" s="3">
+      <c r="T32" s="2">
         <v>23.8170592974345</v>
       </c>
-      <c r="U32" s="3">
+      <c r="U32" s="2">
         <v>19.6181020116152</v>
       </c>
-      <c r="V32" s="5">
+      <c r="V32" s="4">
         <v>43.8301806094172</v>
       </c>
-      <c r="W32" s="2">
+      <c r="W32" s="1">
         <f t="shared" si="0"/>
         <v>27.9094252961886</v>
       </c>
     </row>
     <row r="33" spans="12:23">
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="5"/>
-      <c r="R33" s="3">
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="4"/>
+      <c r="R33" s="2">
         <v>16.5636063343433</v>
       </c>
-      <c r="S33" s="3">
+      <c r="S33" s="2">
         <v>26.092187654321</v>
       </c>
-      <c r="T33" s="3">
+      <c r="T33" s="2">
         <v>19.8668541452599</v>
       </c>
-      <c r="U33" s="3">
+      <c r="U33" s="2">
         <v>17.2493996549055</v>
       </c>
-      <c r="V33" s="5">
+      <c r="V33" s="4">
         <v>28.5014857845756</v>
       </c>
-      <c r="W33" s="2">
+      <c r="W33" s="1">
         <f t="shared" si="0"/>
         <v>21.6547067146811</v>
       </c>
     </row>
     <row r="34" spans="12:19">
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
-      <c r="N34" s="5"/>
-      <c r="S34" s="3"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="4"/>
+      <c r="S34" s="2"/>
     </row>
     <row r="35" spans="12:14">
-      <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
-      <c r="N35" s="5"/>
-    </row>
-    <row r="36" spans="12:14">
-      <c r="L36" s="3"/>
-      <c r="M36" s="3"/>
-      <c r="N36" s="5"/>
-    </row>
-    <row r="37" spans="12:14">
-      <c r="L37" s="3"/>
-      <c r="M37" s="3"/>
-      <c r="N37" s="5"/>
-    </row>
-    <row r="38" spans="12:14">
-      <c r="L38" s="3"/>
-      <c r="M38" s="3"/>
-      <c r="N38" s="5"/>
-    </row>
-    <row r="39" spans="11:14">
-      <c r="K39" s="2"/>
-      <c r="L39" s="3"/>
-      <c r="M39" s="3"/>
-      <c r="N39" s="5"/>
-    </row>
-    <row r="40" spans="12:14">
-      <c r="L40" s="3"/>
-      <c r="M40" s="3"/>
-      <c r="N40" s="5"/>
-    </row>
-    <row r="41" spans="11:14">
-      <c r="K41" s="2"/>
-      <c r="L41" s="3"/>
-      <c r="M41" s="3"/>
-      <c r="N41" s="5"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="4"/>
+    </row>
+    <row r="36" spans="2:41">
+      <c r="B36" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I36" s="2"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M36" s="1"/>
+      <c r="N36" s="2"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S36" s="2"/>
+      <c r="U36" s="1"/>
+      <c r="V36" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="X36" s="2"/>
+      <c r="Z36" s="8"/>
+      <c r="AA36" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB36" s="1"/>
+      <c r="AC36" s="4"/>
+      <c r="AE36" s="1"/>
+      <c r="AF36" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH36" s="4"/>
+      <c r="AJ36" s="1"/>
+      <c r="AK36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AN36" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AO36" s="1"/>
+    </row>
+    <row r="37" spans="1:41">
+      <c r="A37" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" s="3"/>
+      <c r="G37" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N37" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O37" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R37" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S37" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="T37" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="U37" s="1"/>
+      <c r="V37" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="W37" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="X37" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y37" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z37" s="8"/>
+      <c r="AA37" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB37" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC37" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD37" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE37" s="1"/>
+      <c r="AF37" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG37" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH37" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AI37" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ37" s="1"/>
+      <c r="AK37" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL37" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN37" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AO37" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="1:41">
+      <c r="A38" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I38" s="2">
+        <v>3158.83333333333</v>
+      </c>
+      <c r="J38" s="2">
+        <v>35.2456574394463</v>
+      </c>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="2">
+        <v>4237.25222551929</v>
+      </c>
+      <c r="O38" s="2">
+        <v>17.6589226666667</v>
+      </c>
+      <c r="P38" s="1"/>
+      <c r="S38" s="2">
+        <v>5428.47858942066</v>
+      </c>
+      <c r="T38" s="2">
+        <v>23.1500557895116</v>
+      </c>
+      <c r="U38" s="1"/>
+      <c r="X38" s="2">
+        <v>6453.11788617886</v>
+      </c>
+      <c r="Y38" s="2">
+        <v>27.2390838786438</v>
+      </c>
+      <c r="Z38" s="8"/>
+      <c r="AB38" s="1"/>
+      <c r="AC38" s="4"/>
+      <c r="AE38" s="1"/>
+      <c r="AH38" s="4">
+        <v>8251.85582010582</v>
+      </c>
+      <c r="AI38" s="4">
+        <v>38.2388500921202</v>
+      </c>
+      <c r="AJ38" s="1"/>
+      <c r="AN38" s="3">
+        <v>0.9734</v>
+      </c>
+      <c r="AO38" s="1">
+        <v>-159.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:41">
+      <c r="A39" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" s="11"/>
+      <c r="I39" s="2">
+        <v>3235.05586942875</v>
+      </c>
+      <c r="J39" s="2">
+        <v>20.6112700692651</v>
+      </c>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N39" s="1">
+        <v>4101.38095238095</v>
+      </c>
+      <c r="O39" s="2">
+        <v>24.9340587524099</v>
+      </c>
+      <c r="P39" s="1"/>
+      <c r="S39" s="1">
+        <v>5217.82962962963</v>
+      </c>
+      <c r="T39" s="2">
+        <v>22.452377323612</v>
+      </c>
+      <c r="U39" s="1"/>
+      <c r="X39" s="1">
+        <v>5919.39164370983</v>
+      </c>
+      <c r="Y39" s="2">
+        <v>30.0226901623314</v>
+      </c>
+      <c r="Z39" s="8"/>
+      <c r="AB39" s="1"/>
+      <c r="AC39" s="4"/>
+      <c r="AE39" s="1"/>
+      <c r="AH39" s="4">
+        <v>8081.34496996997</v>
+      </c>
+      <c r="AI39" s="4">
+        <v>25.5073933984663</v>
+      </c>
+      <c r="AJ39" s="1"/>
+      <c r="AM39" s="5">
+        <v>1</v>
+      </c>
+      <c r="AN39" s="6">
+        <v>1.034</v>
+      </c>
+      <c r="AO39" s="5">
+        <v>-291.3</v>
+      </c>
+    </row>
+    <row r="40" ht="16.5" spans="2:41">
+      <c r="B40" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C40" s="9"/>
+      <c r="I40" s="2"/>
+      <c r="K40" s="1"/>
+      <c r="M40" s="5">
+        <v>1</v>
+      </c>
+      <c r="N40" s="2">
+        <v>4109.42565597668</v>
+      </c>
+      <c r="O40" s="2">
+        <v>25.9468314492184</v>
+      </c>
+      <c r="P40" s="1"/>
+      <c r="S40" s="2"/>
+      <c r="U40" s="1"/>
+      <c r="X40" s="2"/>
+      <c r="Z40" s="8"/>
+      <c r="AB40" s="1"/>
+      <c r="AC40" s="4"/>
+      <c r="AE40" s="1"/>
+      <c r="AH40" s="4"/>
+      <c r="AJ40" s="1"/>
+      <c r="AM40" s="1">
+        <v>2</v>
+      </c>
+      <c r="AN40" s="3">
+        <v>1.032</v>
+      </c>
+      <c r="AO40" s="1">
+        <v>-276.4</v>
+      </c>
+    </row>
+    <row r="41" spans="7:41">
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="2"/>
+      <c r="K41" s="1"/>
+      <c r="M41" s="1">
+        <v>2</v>
+      </c>
+      <c r="N41" s="2">
+        <v>4088.33497536946</v>
+      </c>
+      <c r="O41" s="2">
+        <v>19.5649185185185</v>
+      </c>
+      <c r="P41" s="1"/>
+      <c r="S41" s="2"/>
+      <c r="U41" s="1"/>
+      <c r="X41" s="2"/>
+      <c r="Z41" s="8"/>
+      <c r="AB41" s="1"/>
+      <c r="AC41" s="4"/>
+      <c r="AE41" s="1"/>
+      <c r="AH41" s="4"/>
+      <c r="AJ41" s="1"/>
+      <c r="AM41" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AN41" s="3">
+        <v>1.033</v>
+      </c>
+      <c r="AO41" s="1">
+        <v>-285.6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:41">
+      <c r="A42" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42" s="11"/>
+      <c r="I42" s="2">
+        <v>3337.36094674556</v>
+      </c>
+      <c r="J42" s="2">
+        <v>14.7810943866003</v>
+      </c>
+      <c r="K42" s="1"/>
+      <c r="N42" s="2">
+        <v>4308.78734177215</v>
+      </c>
+      <c r="O42" s="2">
+        <v>28.318761318175</v>
+      </c>
+      <c r="P42" s="1"/>
+      <c r="S42" s="2">
+        <v>5137.60891089109</v>
+      </c>
+      <c r="T42" s="2">
+        <v>20.1601961096939</v>
+      </c>
+      <c r="U42" s="1"/>
+      <c r="X42" s="2">
+        <v>6208.8702435312</v>
+      </c>
+      <c r="Y42" s="2">
+        <v>24.999786545318</v>
+      </c>
+      <c r="Z42" s="8"/>
+      <c r="AB42" s="1"/>
+      <c r="AC42" s="4"/>
+      <c r="AE42" s="1"/>
+      <c r="AH42" s="4">
+        <v>8390.27577216206</v>
+      </c>
+      <c r="AI42" s="4">
+        <v>60.5598701924986</v>
+      </c>
+      <c r="AJ42" s="1"/>
+      <c r="AN42" s="3">
+        <v>0.9893</v>
+      </c>
+      <c r="AO42" s="1">
+        <v>-218.1</v>
+      </c>
+    </row>
+    <row r="43" ht="16.5" spans="2:41">
+      <c r="B43" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43" s="9"/>
+      <c r="I43" s="2"/>
+      <c r="K43" s="1"/>
+      <c r="N43" s="2"/>
+      <c r="P43" s="1"/>
+      <c r="S43" s="2"/>
+      <c r="U43" s="1"/>
+      <c r="X43" s="2"/>
+      <c r="Z43" s="8"/>
+      <c r="AB43" s="1"/>
+      <c r="AC43" s="4"/>
+      <c r="AE43" s="1"/>
+      <c r="AH43" s="4"/>
+      <c r="AJ43" s="1"/>
+      <c r="AN43" s="3"/>
+      <c r="AO43" s="1"/>
+    </row>
+    <row r="44" spans="7:41">
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="2"/>
+      <c r="K44" s="1"/>
+      <c r="N44" s="2"/>
+      <c r="P44" s="1"/>
+      <c r="S44" s="2"/>
+      <c r="U44" s="1"/>
+      <c r="X44" s="2"/>
+      <c r="Z44" s="8"/>
+      <c r="AB44" s="1"/>
+      <c r="AC44" s="4"/>
+      <c r="AE44" s="1"/>
+      <c r="AH44" s="4"/>
+      <c r="AJ44" s="1"/>
+      <c r="AN44" s="3"/>
+      <c r="AO44" s="1"/>
+    </row>
+    <row r="45" spans="1:41">
+      <c r="A45" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45" s="11"/>
+      <c r="I45" s="2">
+        <v>3274.36011904762</v>
+      </c>
+      <c r="J45" s="2">
+        <v>13.7975635562927</v>
+      </c>
+      <c r="K45" s="1"/>
+      <c r="N45" s="2">
+        <v>4701.51351351351</v>
+      </c>
+      <c r="O45" s="2">
+        <v>19.7969609506393</v>
+      </c>
+      <c r="P45" s="1"/>
+      <c r="S45" s="2">
+        <v>5407.78325123153</v>
+      </c>
+      <c r="T45" s="2">
+        <v>23.5817507244107</v>
+      </c>
+      <c r="U45" s="1"/>
+      <c r="X45" s="2">
+        <v>6566.58201058201</v>
+      </c>
+      <c r="Y45" s="2">
+        <v>32.8796825396825</v>
+      </c>
+      <c r="Z45" s="8"/>
+      <c r="AB45" s="1"/>
+      <c r="AC45" s="4"/>
+      <c r="AE45" s="1"/>
+      <c r="AH45" s="4">
+        <v>8048.37884914464</v>
+      </c>
+      <c r="AI45" s="4">
+        <v>36.3142070449019</v>
+      </c>
+      <c r="AJ45" s="1"/>
+      <c r="AN45" s="3">
+        <v>1.052</v>
+      </c>
+      <c r="AO45" s="1">
+        <v>-688.6</v>
+      </c>
+    </row>
+    <row r="46" ht="16.5" spans="2:41">
+      <c r="B46" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C46" s="9"/>
+      <c r="I46" s="2"/>
+      <c r="K46" s="1"/>
+      <c r="N46" s="2"/>
+      <c r="P46" s="1"/>
+      <c r="S46" s="2"/>
+      <c r="U46" s="1"/>
+      <c r="X46" s="2"/>
+      <c r="Z46" s="8"/>
+      <c r="AB46" s="1"/>
+      <c r="AC46" s="4"/>
+      <c r="AE46" s="1"/>
+      <c r="AH46" s="4"/>
+      <c r="AJ46" s="1"/>
+      <c r="AN46" s="3"/>
+      <c r="AO46" s="1"/>
+    </row>
+    <row r="47" spans="7:41">
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="2"/>
+      <c r="K47" s="1"/>
+      <c r="N47" s="2"/>
+      <c r="P47" s="1"/>
+      <c r="S47" s="2"/>
+      <c r="U47" s="1"/>
+      <c r="X47" s="2"/>
+      <c r="Z47" s="8"/>
+      <c r="AB47" s="1"/>
+      <c r="AC47" s="4"/>
+      <c r="AE47" s="1"/>
+      <c r="AH47" s="4"/>
+      <c r="AJ47" s="1"/>
+      <c r="AN47" s="3"/>
+      <c r="AO47" s="1"/>
+    </row>
+    <row r="48" spans="1:41">
+      <c r="A48" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D48" s="11"/>
+      <c r="I48" s="2">
+        <v>3187.37350119904</v>
+      </c>
+      <c r="J48" s="2">
+        <v>27.3274638993844</v>
+      </c>
+      <c r="K48" s="1"/>
+      <c r="N48" s="2">
+        <v>4300.88148148148</v>
+      </c>
+      <c r="O48" s="2">
+        <v>24.9543206630919</v>
+      </c>
+      <c r="P48" s="1"/>
+      <c r="S48" s="2">
+        <v>5367.57046979866</v>
+      </c>
+      <c r="T48" s="2">
+        <v>23.8170592974345</v>
+      </c>
+      <c r="U48" s="1"/>
+      <c r="X48" s="2">
+        <v>6237.76911314985</v>
+      </c>
+      <c r="Y48" s="2">
+        <v>19.6181020116152</v>
+      </c>
+      <c r="Z48" s="8"/>
+      <c r="AB48" s="1"/>
+      <c r="AC48" s="4"/>
+      <c r="AE48" s="1"/>
+      <c r="AH48" s="4">
+        <v>8135.18888888889</v>
+      </c>
+      <c r="AI48" s="4">
+        <v>43.8301806094172</v>
+      </c>
+      <c r="AJ48" s="1"/>
+      <c r="AN48" s="3">
+        <v>1.017</v>
+      </c>
+      <c r="AO48" s="1">
+        <v>-339</v>
+      </c>
+    </row>
+    <row r="49" ht="16.5" spans="2:41">
+      <c r="B49" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49" s="9"/>
+      <c r="I49" s="2"/>
+      <c r="K49" s="1"/>
+      <c r="P49" s="1"/>
+      <c r="S49" s="2"/>
+      <c r="U49" s="1"/>
+      <c r="X49" s="2"/>
+      <c r="Z49" s="8"/>
+      <c r="AB49" s="1"/>
+      <c r="AC49" s="4"/>
+      <c r="AE49" s="1"/>
+      <c r="AH49" s="4"/>
+      <c r="AJ49" s="1"/>
+      <c r="AN49" s="3"/>
+      <c r="AO49" s="1"/>
+    </row>
+    <row r="50" spans="9:41">
+      <c r="I50" s="2"/>
+      <c r="K50" s="1"/>
+      <c r="N50" s="2"/>
+      <c r="P50" s="1"/>
+      <c r="S50" s="2"/>
+      <c r="U50" s="1"/>
+      <c r="X50" s="2"/>
+      <c r="Z50" s="8"/>
+      <c r="AB50" s="1"/>
+      <c r="AC50" s="4"/>
+      <c r="AE50" s="1"/>
+      <c r="AH50" s="4"/>
+      <c r="AJ50" s="1"/>
+      <c r="AN50" s="3"/>
+      <c r="AO50" s="1"/>
+    </row>
+    <row r="51" spans="1:41">
+      <c r="A51" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D51" s="11"/>
+      <c r="H51" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I51" s="2">
+        <v>3445.12881464825</v>
+      </c>
+      <c r="J51" s="2">
+        <v>16.5636063343433</v>
+      </c>
+      <c r="K51" s="1"/>
+      <c r="M51" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N51" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P51" s="1"/>
+      <c r="S51" s="2">
+        <v>5582.21234567901</v>
+      </c>
+      <c r="T51" s="2">
+        <v>19.8668541452599</v>
+      </c>
+      <c r="U51" s="1"/>
+      <c r="X51" s="2">
+        <v>6282.34305150632</v>
+      </c>
+      <c r="Y51" s="2">
+        <v>17.2493996549055</v>
+      </c>
+      <c r="Z51" s="8"/>
+      <c r="AB51" s="1"/>
+      <c r="AC51" s="4"/>
+      <c r="AE51" s="1"/>
+      <c r="AH51" s="4">
+        <v>8132.49187725632</v>
+      </c>
+      <c r="AI51" s="4">
+        <v>28.5014857845756</v>
+      </c>
+      <c r="AJ51" s="1"/>
+      <c r="AM51" s="5">
+        <v>1</v>
+      </c>
+      <c r="AN51" s="6">
+        <v>1.074</v>
+      </c>
+      <c r="AO51" s="5">
+        <v>-796.4</v>
+      </c>
+    </row>
+    <row r="52" ht="16.5" spans="2:41">
+      <c r="B52" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C52" s="9"/>
+      <c r="H52" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I52" s="2">
+        <v>3333.80569948187</v>
+      </c>
+      <c r="J52" s="2">
+        <v>132.316796226744</v>
+      </c>
+      <c r="K52" s="1"/>
+      <c r="M52" s="5">
+        <v>1</v>
+      </c>
+      <c r="N52" s="1">
+        <v>4476.08374384236</v>
+      </c>
+      <c r="O52" s="2">
+        <v>26.092187654321</v>
+      </c>
+      <c r="P52" s="1"/>
+      <c r="S52" s="2"/>
+      <c r="U52" s="1"/>
+      <c r="X52" s="2"/>
+      <c r="Z52" s="8"/>
+      <c r="AB52" s="1"/>
+      <c r="AC52" s="4"/>
+      <c r="AE52" s="1"/>
+      <c r="AH52" s="4"/>
+      <c r="AJ52" s="1"/>
+      <c r="AM52" s="1">
+        <v>2</v>
+      </c>
+      <c r="AN52" s="3">
+        <v>1.092</v>
+      </c>
+      <c r="AO52" s="1">
+        <v>-946.9</v>
+      </c>
+    </row>
+    <row r="53" spans="9:41">
+      <c r="I53" s="2"/>
+      <c r="K53" s="1"/>
+      <c r="M53" s="1">
+        <v>2</v>
+      </c>
+      <c r="N53" s="2">
+        <v>4702.56976744186</v>
+      </c>
+      <c r="O53" s="2">
+        <v>36.951135734072</v>
+      </c>
+      <c r="P53" s="1"/>
+      <c r="S53" s="2"/>
+      <c r="U53" s="1"/>
+      <c r="X53" s="2"/>
+      <c r="Z53" s="8"/>
+      <c r="AB53" s="1"/>
+      <c r="AC53" s="4"/>
+      <c r="AE53" s="1"/>
+      <c r="AH53" s="4"/>
+      <c r="AJ53" s="1"/>
+      <c r="AN53" s="3"/>
+      <c r="AO53" s="1"/>
+    </row>
+    <row r="54" spans="9:41">
+      <c r="I54" s="2"/>
+      <c r="K54" s="1"/>
+      <c r="N54" s="2"/>
+      <c r="P54" s="1"/>
+      <c r="S54" s="2"/>
+      <c r="U54" s="1"/>
+      <c r="X54" s="2"/>
+      <c r="Z54" s="8"/>
+      <c r="AB54" s="1"/>
+      <c r="AC54" s="4"/>
+      <c r="AE54" s="1"/>
+      <c r="AH54" s="4"/>
+      <c r="AJ54" s="1"/>
+      <c r="AN54" s="3"/>
+      <c r="AO54" s="1"/>
+    </row>
+    <row r="55" spans="1:41">
+      <c r="A55" s="7"/>
+      <c r="B55" s="7"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="7"/>
+      <c r="J55" s="7"/>
+      <c r="K55" s="7"/>
+      <c r="L55" s="7"/>
+      <c r="M55" s="7"/>
+      <c r="N55" s="7"/>
+      <c r="O55" s="7"/>
+      <c r="P55" s="7"/>
+      <c r="Q55" s="7"/>
+      <c r="R55" s="7"/>
+      <c r="S55" s="7"/>
+      <c r="T55" s="7"/>
+      <c r="U55" s="7"/>
+      <c r="V55" s="7"/>
+      <c r="W55" s="7"/>
+      <c r="X55" s="7"/>
+      <c r="Y55" s="7"/>
+      <c r="Z55" s="7"/>
+      <c r="AA55" s="7"/>
+      <c r="AB55" s="7"/>
+      <c r="AC55" s="7"/>
+      <c r="AD55" s="7"/>
+      <c r="AE55" s="7"/>
+      <c r="AF55" s="7"/>
+      <c r="AG55" s="7"/>
+      <c r="AH55" s="7"/>
+      <c r="AI55" s="7"/>
+      <c r="AJ55" s="7"/>
+      <c r="AK55" s="7"/>
+      <c r="AL55" s="7"/>
+      <c r="AM55" s="7"/>
+      <c r="AN55" s="12"/>
+      <c r="AO55" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.786805555555556" bottom="0.786805555555556" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:O30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26:I30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="11" width="12.625"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="2:13">
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2"/>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="2"/>
+      <c r="J1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="4"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:14">
+      <c r="A2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" s="1"/>
+      <c r="M2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:14">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2">
+        <v>3158.83333333333</v>
+      </c>
+      <c r="C3" s="2">
+        <v>35.2456574394463</v>
+      </c>
+      <c r="D3" s="2">
+        <v>4237.25222551929</v>
+      </c>
+      <c r="E3" s="2">
+        <v>17.6589226666667</v>
+      </c>
+      <c r="F3" s="2">
+        <v>5428.47858942066</v>
+      </c>
+      <c r="G3" s="2">
+        <v>23.1500557895116</v>
+      </c>
+      <c r="H3" s="2">
+        <v>6453.11788617886</v>
+      </c>
+      <c r="I3" s="2">
+        <v>27.2390838786438</v>
+      </c>
+      <c r="J3" s="4">
+        <v>8251.85582010582</v>
+      </c>
+      <c r="K3" s="4">
+        <v>38.2388500921202</v>
+      </c>
+      <c r="L3" s="1"/>
+      <c r="M3" s="3">
+        <v>0.9734</v>
+      </c>
+      <c r="N3" s="1">
+        <v>-159.5</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:14">
+      <c r="A4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="2">
+        <v>3235.05586942875</v>
+      </c>
+      <c r="C4" s="2">
+        <v>20.6112700692651</v>
+      </c>
+      <c r="D4" s="1">
+        <v>4101.38095238095</v>
+      </c>
+      <c r="E4" s="2">
+        <v>24.9340587524099</v>
+      </c>
+      <c r="F4" s="1">
+        <v>5217.82962962963</v>
+      </c>
+      <c r="G4" s="2">
+        <v>22.452377323612</v>
+      </c>
+      <c r="H4" s="1">
+        <v>5919.39164370983</v>
+      </c>
+      <c r="I4" s="2">
+        <v>30.0226901623314</v>
+      </c>
+      <c r="J4" s="4">
+        <v>8081.34496996997</v>
+      </c>
+      <c r="K4" s="4">
+        <v>25.5073933984663</v>
+      </c>
+      <c r="L4" s="5">
+        <v>1</v>
+      </c>
+      <c r="M4" s="6">
+        <v>1.034</v>
+      </c>
+      <c r="N4" s="5">
+        <v>-291.3</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:14">
+      <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="2">
+        <v>3337.36094674556</v>
+      </c>
+      <c r="C5" s="2">
+        <v>14.7810943866003</v>
+      </c>
+      <c r="D5" s="2">
+        <v>4308.78734177215</v>
+      </c>
+      <c r="E5" s="2">
+        <v>28.318761318175</v>
+      </c>
+      <c r="F5" s="2">
+        <v>5137.60891089109</v>
+      </c>
+      <c r="G5" s="2">
+        <v>20.1601961096939</v>
+      </c>
+      <c r="H5" s="2">
+        <v>6208.8702435312</v>
+      </c>
+      <c r="I5" s="2">
+        <v>24.999786545318</v>
+      </c>
+      <c r="J5" s="4">
+        <v>8390.27577216206</v>
+      </c>
+      <c r="K5" s="4">
+        <v>60.5598701924986</v>
+      </c>
+      <c r="L5" s="1"/>
+      <c r="M5" s="3">
+        <v>0.9893</v>
+      </c>
+      <c r="N5" s="1">
+        <v>-218.1</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="2:13">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="3"/>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="2:13">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="3"/>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="1:14">
+      <c r="A8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="2">
+        <v>3274.36011904762</v>
+      </c>
+      <c r="C8" s="2">
+        <v>13.7975635562927</v>
+      </c>
+      <c r="D8" s="2">
+        <v>4701.51351351351</v>
+      </c>
+      <c r="E8" s="2">
+        <v>19.7969609506393</v>
+      </c>
+      <c r="F8" s="2">
+        <v>5407.78325123153</v>
+      </c>
+      <c r="G8" s="2">
+        <v>23.5817507244107</v>
+      </c>
+      <c r="H8" s="2">
+        <v>6566.58201058201</v>
+      </c>
+      <c r="I8" s="2">
+        <v>32.8796825396825</v>
+      </c>
+      <c r="J8" s="4">
+        <v>8048.37884914464</v>
+      </c>
+      <c r="K8" s="4">
+        <v>36.3142070449019</v>
+      </c>
+      <c r="L8" s="1"/>
+      <c r="M8" s="3">
+        <v>1.052</v>
+      </c>
+      <c r="N8" s="1">
+        <v>-688.6</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="2:13">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" s="1" customFormat="1" spans="2:13">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="1:14">
+      <c r="A11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="2">
+        <v>3187.37350119904</v>
+      </c>
+      <c r="C11" s="2">
+        <v>27.3274638993844</v>
+      </c>
+      <c r="D11" s="2">
+        <v>4300.88148148148</v>
+      </c>
+      <c r="E11" s="2">
+        <v>24.9543206630919</v>
+      </c>
+      <c r="F11" s="2">
+        <v>5367.57046979866</v>
+      </c>
+      <c r="G11" s="2">
+        <v>23.8170592974345</v>
+      </c>
+      <c r="H11" s="2">
+        <v>6237.76911314985</v>
+      </c>
+      <c r="I11" s="2">
+        <v>19.6181020116152</v>
+      </c>
+      <c r="J11" s="4">
+        <v>8135.18888888889</v>
+      </c>
+      <c r="K11" s="4">
+        <v>43.8301806094172</v>
+      </c>
+      <c r="L11" s="1"/>
+      <c r="M11" s="3">
+        <v>1.017</v>
+      </c>
+      <c r="N11" s="1">
+        <v>-339</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="2:13">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" s="1" customFormat="1" spans="2:13">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" s="1" customFormat="1" spans="1:14">
+      <c r="A14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="2">
+        <v>3445.12881464825</v>
+      </c>
+      <c r="C14" s="2">
+        <v>16.5636063343433</v>
+      </c>
+      <c r="D14" s="2">
+        <v>4702.56976744186</v>
+      </c>
+      <c r="E14" s="2">
+        <v>36.951135734072</v>
+      </c>
+      <c r="F14" s="2">
+        <v>5582.21234567901</v>
+      </c>
+      <c r="G14" s="2">
+        <v>19.8668541452599</v>
+      </c>
+      <c r="H14" s="2">
+        <v>6282.34305150632</v>
+      </c>
+      <c r="I14" s="2">
+        <v>17.2493996549055</v>
+      </c>
+      <c r="J14" s="4">
+        <v>8132.49187725632</v>
+      </c>
+      <c r="K14" s="4">
+        <v>28.5014857845756</v>
+      </c>
+      <c r="L14" s="5">
+        <v>1</v>
+      </c>
+      <c r="M14" s="6">
+        <v>1.074</v>
+      </c>
+      <c r="N14" s="5">
+        <v>-796.4</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" spans="2:13">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" s="1" customFormat="1" spans="2:13">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" s="1" customFormat="1" spans="1:15">
+      <c r="A17"/>
+      <c r="B17"/>
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
+      <c r="G17"/>
+      <c r="H17"/>
+      <c r="I17"/>
+      <c r="J17"/>
+      <c r="K17"/>
+      <c r="L17"/>
+      <c r="M17"/>
+      <c r="N17"/>
+      <c r="O17"/>
+    </row>
+    <row r="18" s="1" customFormat="1" spans="1:15">
+      <c r="A18"/>
+      <c r="B18"/>
+      <c r="C18"/>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
+      <c r="G18"/>
+      <c r="H18"/>
+      <c r="I18"/>
+      <c r="J18"/>
+      <c r="K18"/>
+      <c r="L18"/>
+      <c r="M18"/>
+      <c r="N18"/>
+      <c r="O18"/>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="2">
+        <v>3274.36011904762</v>
+      </c>
+      <c r="C19" s="2">
+        <v>4701.51351351351</v>
+      </c>
+      <c r="D19" s="2">
+        <v>5407.78325123153</v>
+      </c>
+      <c r="E19" s="2">
+        <v>6566.58201058201</v>
+      </c>
+      <c r="F19" s="4">
+        <v>8048.37884914464</v>
+      </c>
+      <c r="H19">
+        <v>2</v>
+      </c>
+      <c r="L19" s="1"/>
+      <c r="M19" s="3">
+        <v>1.052</v>
+      </c>
+      <c r="N19" s="1">
+        <v>-688.6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2">
+        <v>3337.36094674556</v>
+      </c>
+      <c r="C20" s="2">
+        <v>4308.78734177215</v>
+      </c>
+      <c r="D20" s="2">
+        <v>5137.60891089109</v>
+      </c>
+      <c r="E20" s="2">
+        <v>6208.8702435312</v>
+      </c>
+      <c r="F20" s="4">
+        <v>8390.27577216206</v>
+      </c>
+      <c r="H20">
+        <v>3</v>
+      </c>
+      <c r="L20" s="1"/>
+      <c r="M20" s="3">
+        <v>0.9893</v>
+      </c>
+      <c r="N20" s="1">
+        <v>-218.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="2">
+        <v>3158.83333333333</v>
+      </c>
+      <c r="C21" s="2">
+        <v>4237.25222551929</v>
+      </c>
+      <c r="D21" s="2">
+        <v>5428.47858942066</v>
+      </c>
+      <c r="E21" s="2">
+        <v>6453.11788617886</v>
+      </c>
+      <c r="F21" s="4">
+        <v>8251.85582010582</v>
+      </c>
+      <c r="G21" t="s">
+        <v>43</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="L21" s="1"/>
+      <c r="M21" s="3">
+        <v>0.9734</v>
+      </c>
+      <c r="N21" s="1">
+        <v>-159.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="2">
+        <v>3187.37350119904</v>
+      </c>
+      <c r="C22" s="2">
+        <v>4300.88148148148</v>
+      </c>
+      <c r="D22" s="2">
+        <v>5367.57046979866</v>
+      </c>
+      <c r="E22" s="2">
+        <v>6237.76911314985</v>
+      </c>
+      <c r="F22" s="4">
+        <v>8135.18888888889</v>
+      </c>
+      <c r="H22">
+        <v>5</v>
+      </c>
+      <c r="L22" s="1"/>
+      <c r="M22" s="3">
+        <v>1.017</v>
+      </c>
+      <c r="N22" s="1">
+        <v>-339</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="2">
+        <v>3445.12881464825</v>
+      </c>
+      <c r="C23" s="2">
+        <v>4702.56976744186</v>
+      </c>
+      <c r="D23" s="2">
+        <v>5582.21234567901</v>
+      </c>
+      <c r="E23" s="2">
+        <v>6282.34305150632</v>
+      </c>
+      <c r="F23" s="4">
+        <v>8132.49187725632</v>
+      </c>
+      <c r="H23">
+        <v>6</v>
+      </c>
+      <c r="L23" s="5">
+        <v>1</v>
+      </c>
+      <c r="M23" s="6">
+        <v>1.074</v>
+      </c>
+      <c r="N23" s="5">
+        <v>-796.4</v>
+      </c>
+    </row>
+    <row r="26" spans="3:9">
+      <c r="C26" s="2">
+        <v>13.7975635562927</v>
+      </c>
+      <c r="D26" s="2">
+        <v>19.7969609506393</v>
+      </c>
+      <c r="E26" s="2">
+        <v>23.5817507244107</v>
+      </c>
+      <c r="F26" s="2">
+        <v>32.8796825396825</v>
+      </c>
+      <c r="G26" s="4">
+        <v>36.3142070449019</v>
+      </c>
+      <c r="I26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="3:9">
+      <c r="C27" s="2">
+        <v>14.7810943866003</v>
+      </c>
+      <c r="D27" s="2">
+        <v>28.318761318175</v>
+      </c>
+      <c r="E27" s="2">
+        <v>20.1601961096939</v>
+      </c>
+      <c r="F27" s="2">
+        <v>24.999786545318</v>
+      </c>
+      <c r="G27" s="4">
+        <v>60.5598701924986</v>
+      </c>
+      <c r="I27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:9">
+      <c r="C28" s="2">
+        <v>35.2456574394463</v>
+      </c>
+      <c r="D28" s="2">
+        <v>17.6589226666667</v>
+      </c>
+      <c r="E28" s="2">
+        <v>23.1500557895116</v>
+      </c>
+      <c r="F28" s="2">
+        <v>27.2390838786438</v>
+      </c>
+      <c r="G28" s="4">
+        <v>38.2388500921202</v>
+      </c>
+      <c r="H28" t="s">
+        <v>44</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="3:9">
+      <c r="C29" s="2">
+        <v>27.3274638993844</v>
+      </c>
+      <c r="D29" s="2">
+        <v>24.9543206630919</v>
+      </c>
+      <c r="E29" s="2">
+        <v>23.8170592974345</v>
+      </c>
+      <c r="F29" s="2">
+        <v>19.6181020116152</v>
+      </c>
+      <c r="G29" s="4">
+        <v>43.8301806094172</v>
+      </c>
+      <c r="I29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:9">
+      <c r="C30" s="2">
+        <v>16.5636063343433</v>
+      </c>
+      <c r="D30" s="2">
+        <v>36.951135734072</v>
+      </c>
+      <c r="E30" s="2">
+        <v>19.8668541452599</v>
+      </c>
+      <c r="F30" s="2">
+        <v>17.2493996549055</v>
+      </c>
+      <c r="G30" s="4">
+        <v>28.5014857845756</v>
+      </c>
+      <c r="I30">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>